--- a/Upper Level BCIO/inputs/BCIO_Upper_Defs.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_Upper_Defs.xlsx
@@ -718,12 +718,12 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>behaviour change intervention content; behaviour change intervention engagement; behaviour change intervention mechanism of action; behaviour change intervention outcome behaviour</t>
+          <t>behaviour change intervention content; behaviour change intervention engagement; behaviour change intervention mechanism of action; outcome behaviour</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>scenario plan</t>
+          <t>behaviour change intervention scenario plan</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr"/>
@@ -747,7 +747,7 @@
       <c r="R4" s="2" t="inlineStr"/>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>JH</t>
+          <t>JH; BG</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
@@ -1119,7 +1119,7 @@
       <c r="F10" s="2" t="inlineStr"/>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>BCI evaluation finding</t>
+          <t>behaviour change intervention evaluation finding</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -1155,7 +1155,7 @@
       <c r="R10" s="2" t="inlineStr"/>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>JH; RW</t>
+          <t>JH; RW; BG</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">

--- a/Upper Level BCIO/inputs/BCIO_Upper_Defs.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_Upper_Defs.xlsx
@@ -1707,7 +1707,7 @@
       <c r="F19" s="2" t="inlineStr"/>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>human behaviour</t>
+          <t>individual human behaviour</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr"/>

--- a/Upper Level BCIO/inputs/BCIO_Upper_Defs.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_Upper_Defs.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V50"/>
+  <dimension ref="A1:V49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -685,17 +685,17 @@
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>BCIO:003000</t>
+          <t>BCIO:016000</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>behaviour change intervention</t>
+          <t>behaviour change intervention comparison evaluation study</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>An intervention that has the aim of influencing human behaviour.</t>
+          <t xml:space="preserve">A BCI evaluation study that involves comparison between two or more BCI scenarios to produce one or more BCI effect estimates. </t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr"/>
@@ -703,7 +703,7 @@
       <c r="F4" s="2" t="inlineStr"/>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>intervention</t>
+          <t>behaviour change intervention evaluation study</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -716,27 +716,19 @@
           <t>Upper level</t>
         </is>
       </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>behaviour change intervention content; behaviour change intervention engagement; behaviour change intervention mechanism of action; behaviour change intervention outcome behaviour</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>behaviour change intervention scenario plan</t>
-        </is>
-      </c>
+      <c r="J4" s="2" t="inlineStr"/>
+      <c r="K4" s="2" t="inlineStr"/>
       <c r="L4" s="2" t="inlineStr"/>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>BCI</t>
+          <t>BCI comparison evaluation study</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr"/>
       <c r="O4" s="2" t="inlineStr"/>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>Involves use of products, services, activities, rules or environmental objects.</t>
+          <t>Comparison involves identifying differences between the entities in the scenarios.</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -747,7 +739,7 @@
       <c r="R4" s="2" t="inlineStr"/>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>JH; BG</t>
+          <t>JH; RW</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
@@ -761,17 +753,17 @@
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>BCIO:016000</t>
+          <t>BCIO:007000</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>behaviour change intervention comparison evaluation study</t>
+          <t>behaviour change intervention content</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A BCI evaluation study that involves comparison between two or more BCI scenarios to produce one or more BCI effect estimates. </t>
+          <t>An intervention content that is part of a behaviour change intervention.</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr"/>
@@ -779,7 +771,7 @@
       <c r="F5" s="2" t="inlineStr"/>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>behaviour change intervention evaluation study</t>
+          <t>intervention content</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -797,14 +789,14 @@
       <c r="L5" s="2" t="inlineStr"/>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>BCI comparison evaluation study</t>
+          <t>BCI content</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr"/>
       <c r="O5" s="2" t="inlineStr"/>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>Comparison involves identifying differences between the entities in the scenarios.</t>
+          <t xml:space="preserve">Consists of BCTs that can be classified using a BCT taxonomy. </t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -815,7 +807,7 @@
       <c r="R5" s="2" t="inlineStr"/>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>JH; RW</t>
+          <t>RW</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
@@ -829,17 +821,17 @@
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>BCIO:007000</t>
+          <t>BCIO:005000</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>behaviour change intervention content</t>
+          <t>behaviour change intervention context</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>An intervention content that is part of a behaviour change intervention.</t>
+          <t>An aggregate of entities that are not dependent on the intervention but may influence the effect of a BCI on its outcome behaviour.</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr"/>
@@ -847,12 +839,12 @@
       <c r="F6" s="2" t="inlineStr"/>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>intervention content</t>
+          <t>object aggregate</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>process</t>
+          <t>object aggregate</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -865,14 +857,14 @@
       <c r="L6" s="2" t="inlineStr"/>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>BCI content</t>
+          <t xml:space="preserve"> BCI context</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr"/>
       <c r="O6" s="2" t="inlineStr"/>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Consists of BCTs that can be classified using a BCT taxonomy. </t>
+          <t>Includes as part BCI population and BCI setting. Use of the word ‘may’ conveys a non-zero probability given available information.</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
@@ -883,7 +875,7 @@
       <c r="R6" s="2" t="inlineStr"/>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>RW</t>
+          <t>JH; RW</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
@@ -897,17 +889,17 @@
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>BCIO:005000</t>
+          <t>BCIO:008000</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>behaviour change intervention context</t>
+          <t>behaviour change intervention delivery</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>An aggregate of entities that are not dependent on the intervention but may influence the effect of a BCI on its outcome behaviour.</t>
+          <t>An intervention delivery in which the intervention is a behaviour change intervention.</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr"/>
@@ -915,12 +907,12 @@
       <c r="F7" s="2" t="inlineStr"/>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>object aggregate</t>
+          <t>intervention delivery</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>object aggregate</t>
+          <t>process</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -933,16 +925,12 @@
       <c r="L7" s="2" t="inlineStr"/>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> BCI context</t>
+          <t xml:space="preserve"> BCI delivery</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr"/>
       <c r="O7" s="2" t="inlineStr"/>
-      <c r="P7" s="2" t="inlineStr">
-        <is>
-          <t>Includes as part BCI population and BCI setting. Use of the word ‘may’ conveys a non-zero probability given available information.</t>
-        </is>
-      </c>
+      <c r="P7" s="2" t="inlineStr"/>
       <c r="Q7" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -965,17 +953,17 @@
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>BCIO:008000</t>
+          <t>BCIO:022000</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>behaviour change intervention delivery</t>
+          <t>behaviour change intervention dose</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>An intervention delivery in which the intervention is a behaviour change intervention.</t>
+          <t>A BCI content attribute that is its amount.</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr"/>
@@ -983,7 +971,7 @@
       <c r="F8" s="2" t="inlineStr"/>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>intervention delivery</t>
+          <t>BCI attribute</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -1001,12 +989,20 @@
       <c r="L8" s="2" t="inlineStr"/>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> BCI delivery</t>
+          <t xml:space="preserve"> BCI dose</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr"/>
-      <c r="O8" s="2" t="inlineStr"/>
-      <c r="P8" s="2" t="inlineStr"/>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">This class requires further specification when it is used because specific BCI content instances may vary in amount in different ways. </t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The dose of an active ingredient in a pharmacological intervention; the number of behaviour change techniques included in an intervention. </t>
+        </is>
+      </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -1029,17 +1025,17 @@
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>BCIO:022000</t>
+          <t>BCIO:017000</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>behaviour change intervention dose</t>
+          <t>behaviour change intervention effect estimate</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>A BCI content attribute that is its amount.</t>
+          <t xml:space="preserve">A behaviour change intervention evaluation finding that characterises the difference between BCI outcome estimates of two BCI scenarios. </t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr"/>
@@ -1047,12 +1043,12 @@
       <c r="F9" s="2" t="inlineStr"/>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>BCI attribute</t>
+          <t>behaviour change intervention evaluation finding</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>process</t>
+          <t>information content entity</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -1065,18 +1061,14 @@
       <c r="L9" s="2" t="inlineStr"/>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> BCI dose</t>
+          <t xml:space="preserve"> BCI effect estimate</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr"/>
-      <c r="O9" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">This class requires further specification when it is used because specific BCI content instances may vary in amount in different ways. </t>
-        </is>
-      </c>
+      <c r="O9" s="2" t="inlineStr"/>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">The dose of an active ingredient in a pharmacological intervention; the number of behaviour change techniques included in an intervention. </t>
+          <t>This includes the following subclasses: 1) BCI effect estimate type -the type of statistic used to represent the difference (e.g. odds ratio, mean difference), 2) BCI effect estimate value – the datum that represents the difference (e.g. 1.35), 3)  BCI effect estimate uncertainty type – the type of statistic used to represent the range of uncertainty of the value (e.g. 95% confidence interval see STATO), and 4) the BCI effect estimate uncertainty value  - the datum representing the uncertainty (e.g. 1.20-1.55).</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
@@ -1087,7 +1079,7 @@
       <c r="R9" s="2" t="inlineStr"/>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>JH; RW</t>
+          <t>JH; RW; BG</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
@@ -1101,17 +1093,17 @@
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>BCIO:017000</t>
+          <t>BCIO:013000</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>behaviour change intervention effect estimate</t>
+          <t>behaviour change intervention engagement</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A behaviour change intervention evaluation finding that characterises the difference between BCI outcome estimates of two BCI scenarios. </t>
+          <t>Individual human activity that enables a BCI to influence the outcome behaviour.</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr"/>
@@ -1119,12 +1111,12 @@
       <c r="F10" s="2" t="inlineStr"/>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>behaviour change intervention evaluation finding</t>
+          <t>individual human activity</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>information content entity</t>
+          <t>process</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -1137,14 +1129,14 @@
       <c r="L10" s="2" t="inlineStr"/>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> BCI effect estimate</t>
+          <t>BCI engagement</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr"/>
       <c r="O10" s="2" t="inlineStr"/>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>This includes the following subclasses: 1) BCI effect estimate type -the type of statistic used to represent the difference (e.g. odds ratio, mean difference), 2) BCI effect estimate value – the datum that represents the difference (e.g. 1.35), 3)  BCI effect estimate uncertainty type – the type of statistic used to represent the range of uncertainty of the value (e.g. 95% confidence interval see STATO), and 4) the BCI effect estimate uncertainty value  - the datum representing the uncertainty (e.g. 1.20-1.55).</t>
+          <t>Includes mental activities and behaviours.</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -1155,7 +1147,7 @@
       <c r="R10" s="2" t="inlineStr"/>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>JH; RW; BG</t>
+          <t>JH; RW</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
@@ -1169,17 +1161,17 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>BCIO:013000</t>
+          <t>BCIO:023000</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>behaviour change intervention engagement</t>
+          <t>behaviour change intervention evaluation finding</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>Individual human activity that enables a BCI to influence the outcome behaviour.</t>
+          <t>An evaluation finding that is the output of a BCI evaluation study.</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr"/>
@@ -1187,12 +1179,12 @@
       <c r="F11" s="2" t="inlineStr"/>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>individual human activity</t>
+          <t>evaluation finding</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>process</t>
+          <t>information content entoty</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1205,16 +1197,12 @@
       <c r="L11" s="2" t="inlineStr"/>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>BCI engagement</t>
+          <t>BCI evaluation finding</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr"/>
       <c r="O11" s="2" t="inlineStr"/>
-      <c r="P11" s="2" t="inlineStr">
-        <is>
-          <t>Includes mental activities and behaviours.</t>
-        </is>
-      </c>
+      <c r="P11" s="2" t="inlineStr"/>
       <c r="Q11" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -1223,7 +1211,7 @@
       <c r="R11" s="2" t="inlineStr"/>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>JH; RW</t>
+          <t>JH; RW; BG</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
@@ -1237,17 +1225,17 @@
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>BCIO:023000</t>
+          <t>BCIO:021000</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>behaviour change intervention evaluation finding</t>
+          <t>behaviour change intervention evaluation report</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>An evaluation finding that is the output of a BCI evaluation study.</t>
+          <t>A report that is a description of a BCI evaluation study.</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr"/>
@@ -1255,12 +1243,12 @@
       <c r="F12" s="2" t="inlineStr"/>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>evaluation finding</t>
+          <t>report</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>information content entoty</t>
+          <t>generally dependent continuant</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1273,12 +1261,16 @@
       <c r="L12" s="2" t="inlineStr"/>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>BCI evaluation finding</t>
+          <t>BCI evaluation report</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr"/>
       <c r="O12" s="2" t="inlineStr"/>
-      <c r="P12" s="2" t="inlineStr"/>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>Includes entities that stand in direct relation to the study e.g. authors, findings, funding, aims.</t>
+        </is>
+      </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -1287,7 +1279,7 @@
       <c r="R12" s="2" t="inlineStr"/>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>JH; RW; BG</t>
+          <t>JH; RW</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
@@ -1301,17 +1293,17 @@
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>BCIO:021000</t>
+          <t>BCIO:018000</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>behaviour change intervention evaluation report</t>
+          <t>behaviour change intervention evaluation study</t>
         </is>
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>A report that is a description of a BCI evaluation study.</t>
+          <t>An intervention evaluation study of a BCI scenario.</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr"/>
@@ -1319,12 +1311,12 @@
       <c r="F13" s="2" t="inlineStr"/>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>report</t>
+          <t>intervention evaluation study</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>generally dependent continuant</t>
+          <t>process</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1337,16 +1329,12 @@
       <c r="L13" s="2" t="inlineStr"/>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>BCI evaluation report</t>
+          <t>BCI evaluation study</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr"/>
       <c r="O13" s="2" t="inlineStr"/>
-      <c r="P13" s="2" t="inlineStr">
-        <is>
-          <t>Includes entities that stand in direct relation to the study e.g. authors, findings, funding, aims.</t>
-        </is>
-      </c>
+      <c r="P13" s="2" t="inlineStr"/>
       <c r="Q13" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -1369,17 +1357,17 @@
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>BCIO:018000</t>
+          <t>BCIO:024000</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>behaviour change intervention evaluation study</t>
+          <t>behaviour change intervention evaluation study plan</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>An intervention evaluation study of a BCI scenario.</t>
+          <t>A plan for a BCI evaluation study.</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr"/>
@@ -1387,12 +1375,12 @@
       <c r="F14" s="2" t="inlineStr"/>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>intervention evaluation study</t>
+          <t>plan</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>process</t>
+          <t>information content entity</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1405,7 +1393,7 @@
       <c r="L14" s="2" t="inlineStr"/>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>BCI evaluation study</t>
+          <t>BCI evaluation study plan</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr"/>
@@ -1433,17 +1421,17 @@
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>BCIO:024000</t>
+          <t>BCIO:020000</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>behaviour change intervention evaluation study plan</t>
+          <t>behaviour change intervention evaluation study risk of bias or error</t>
         </is>
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>A plan for a BCI evaluation study.</t>
+          <t>An information content entity that is about the likelihood of the BCI evaluation finding misrepresenting the outcome behaviour.</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr"/>
@@ -1451,7 +1439,7 @@
       <c r="F15" s="2" t="inlineStr"/>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>plan</t>
+          <t>information content entity</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1469,7 +1457,7 @@
       <c r="L15" s="2" t="inlineStr"/>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>BCI evaluation study plan</t>
+          <t>BCI evaluation study risk of bias or error</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr"/>
@@ -1497,17 +1485,17 @@
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>BCIO:020000</t>
+          <t>BCIO:006000</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>behaviour change intervention evaluation study risk of bias or error</t>
+          <t>behaviour change intervention mechanism of action</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>An information content entity that is about the likelihood of the BCI evaluation finding misrepresenting the outcome behaviour.</t>
+          <t xml:space="preserve">A process that is causally active in the relationship between a BCI scenario and its outcome behaviour. </t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr"/>
@@ -1515,12 +1503,12 @@
       <c r="F16" s="2" t="inlineStr"/>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>information content entity</t>
+          <t>process</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>information content entity</t>
+          <t>process</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1533,7 +1521,7 @@
       <c r="L16" s="2" t="inlineStr"/>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>BCI evaluation study risk of bias or error</t>
+          <t>BCI mechanism of action; MOA; BCI MOA</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr"/>
@@ -1547,7 +1535,7 @@
       <c r="R16" s="2" t="inlineStr"/>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>JH; RW</t>
+          <t>PS; JH; RW</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
@@ -1561,17 +1549,17 @@
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006000</t>
+          <t>BCIO:011000</t>
         </is>
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>behaviour change intervention mechanism of action</t>
+          <t>behaviour change intervention mode of delivery</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A process that is causally active in the relationship between a BCI scenario and its outcome behaviour. </t>
+          <t>An attribute of a BCI delivery that is the physical or informational medium through which a BCI is provided.</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr"/>
@@ -1579,7 +1567,7 @@
       <c r="F17" s="2" t="inlineStr"/>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>process</t>
+          <t>BCI attribute</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -1597,7 +1585,7 @@
       <c r="L17" s="2" t="inlineStr"/>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>BCI mechanism of action; MOA; BCI MOA</t>
+          <t>BCI mode of delivery; BCI MOD; MOD</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr"/>
@@ -1611,7 +1599,7 @@
       <c r="R17" s="2" t="inlineStr"/>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>PS; JH; RW</t>
+          <t>JH; RW</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
@@ -1625,17 +1613,17 @@
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>BCIO:011000</t>
+          <t>BCIO:002000</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>behaviour change intervention mode of delivery</t>
+          <t>behaviour change intervention outcome behaviour</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>An attribute of a BCI delivery that is the physical or informational medium through which a BCI is provided.</t>
+          <t>Human behavior that is an intervention outcome.</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr"/>
@@ -1643,14 +1631,10 @@
       <c r="F18" s="2" t="inlineStr"/>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>BCI attribute</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
+          <t>individual human behaviour</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr"/>
       <c r="I18" s="2" t="inlineStr">
         <is>
           <t>Upper level</t>
@@ -1659,11 +1643,7 @@
       <c r="J18" s="2" t="inlineStr"/>
       <c r="K18" s="2" t="inlineStr"/>
       <c r="L18" s="2" t="inlineStr"/>
-      <c r="M18" s="2" t="inlineStr">
-        <is>
-          <t>BCI mode of delivery; BCI MOD; MOD</t>
-        </is>
-      </c>
+      <c r="M18" s="2" t="inlineStr"/>
       <c r="N18" s="2" t="inlineStr"/>
       <c r="O18" s="2" t="inlineStr"/>
       <c r="P18" s="2" t="inlineStr"/>
@@ -1675,7 +1655,7 @@
       <c r="R18" s="2" t="inlineStr"/>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>JH; RW</t>
+          <t>JH; BG</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
@@ -1689,17 +1669,17 @@
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>BCIO:002000</t>
+          <t>BCIO:025000</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>behaviour change intervention outcome behaviour</t>
+          <t>behaviour change intervention outcome estimate</t>
         </is>
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>Human behavior that is an intervention outcome.</t>
+          <t>A BCI evaluation finding that is about an outcome behaviour.</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr"/>
@@ -1707,10 +1687,14 @@
       <c r="F19" s="2" t="inlineStr"/>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>individual human behaviour</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="inlineStr"/>
+          <t>behaviour change intervention evaluation finding</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>information content entoty</t>
+        </is>
+      </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
           <t>Upper level</t>
@@ -1719,10 +1703,18 @@
       <c r="J19" s="2" t="inlineStr"/>
       <c r="K19" s="2" t="inlineStr"/>
       <c r="L19" s="2" t="inlineStr"/>
-      <c r="M19" s="2" t="inlineStr"/>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>BCI outcome estimate</t>
+        </is>
+      </c>
       <c r="N19" s="2" t="inlineStr"/>
       <c r="O19" s="2" t="inlineStr"/>
-      <c r="P19" s="2" t="inlineStr"/>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>This includes as subclasses 1) type of outcome estimate (e.g. mean, percentage), 2) value of outcome estimate (e.g. 1.5 cigs per day, 23%), 3) uncertainty estimate type (e.g. 95% CI), and 4) uncertainty estimate value (e.g. 12.0%-45.0%).</t>
+        </is>
+      </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -1731,7 +1723,7 @@
       <c r="R19" s="2" t="inlineStr"/>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>JH; BG</t>
+          <t>JH; RW</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
@@ -1745,17 +1737,17 @@
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>BCIO:025000</t>
+          <t>BCIO:026000</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>behaviour change intervention outcome estimate</t>
+          <t>behaviour change intervention physical setting</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>A BCI evaluation finding that is about an outcome behaviour.</t>
+          <t>A physical environment in which a BCI is delivered.</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr"/>
@@ -1763,14 +1755,10 @@
       <c r="F20" s="2" t="inlineStr"/>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>behaviour change intervention evaluation finding</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>information content entoty</t>
-        </is>
-      </c>
+          <t>environmental system</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr"/>
       <c r="I20" s="2" t="inlineStr">
         <is>
           <t>Upper level</t>
@@ -1781,16 +1769,12 @@
       <c r="L20" s="2" t="inlineStr"/>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>BCI outcome estimate</t>
+          <t>BCI physical setting</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr"/>
       <c r="O20" s="2" t="inlineStr"/>
-      <c r="P20" s="2" t="inlineStr">
-        <is>
-          <t>This includes as subclasses 1) type of outcome estimate (e.g. mean, percentage), 2) value of outcome estimate (e.g. 1.5 cigs per day, 23%), 3) uncertainty estimate type (e.g. 95% CI), and 4) uncertainty estimate value (e.g. 12.0%-45.0%).</t>
-        </is>
-      </c>
+      <c r="P20" s="2" t="inlineStr"/>
       <c r="Q20" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -1813,17 +1797,17 @@
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>BCIO:026000</t>
+          <t>BCIO:015000</t>
         </is>
       </c>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t>behaviour change intervention physical setting</t>
+          <t>behaviour change intervention population</t>
         </is>
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>A physical environment in which a BCI is delivered.</t>
+          <t xml:space="preserve">A human population who are exposed to a BCI. </t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr"/>
@@ -1831,7 +1815,7 @@
       <c r="F21" s="2" t="inlineStr"/>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>environmental system</t>
+          <t>human population</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr"/>
@@ -1845,7 +1829,7 @@
       <c r="L21" s="2" t="inlineStr"/>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>BCI physical setting</t>
+          <t>BCI population</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr"/>
@@ -1873,17 +1857,17 @@
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>BCIO:015000</t>
+          <t>BCIO:001000</t>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr">
         <is>
-          <t>behaviour change intervention population</t>
+          <t>behaviour change intervention scenario</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A human population who are exposed to a BCI. </t>
+          <t>A planned process in which a BCI is applied in a given context, including BCI engagement and outcome behaviour.</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr"/>
@@ -1891,7 +1875,7 @@
       <c r="F22" s="2" t="inlineStr"/>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>human population</t>
+          <t>planned process</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr"/>
@@ -1905,7 +1889,7 @@
       <c r="L22" s="2" t="inlineStr"/>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>BCI population</t>
+          <t>BCI scenario</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr"/>
@@ -1933,17 +1917,17 @@
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>BCIO:001000</t>
+          <t>BCIO:028000</t>
         </is>
       </c>
       <c r="B23" s="2" t="inlineStr">
         <is>
-          <t>behaviour change intervention scenario</t>
+          <t>behaviour change intervention scenario plan</t>
         </is>
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>A planned process in which a BCI is applied in a given context, including BCI engagement and outcome behaviour.</t>
+          <t>A plan that is realized in a BCI scenario process.</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr"/>
@@ -1951,7 +1935,7 @@
       <c r="F23" s="2" t="inlineStr"/>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>planned process</t>
+          <t>plan</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr"/>
@@ -1965,7 +1949,7 @@
       <c r="L23" s="2" t="inlineStr"/>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>BCI scenario</t>
+          <t>BCI scenario plan</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr"/>
@@ -1993,17 +1977,17 @@
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>BCIO:028000</t>
+          <t>BCIO:027000</t>
         </is>
       </c>
       <c r="B24" s="2" t="inlineStr">
         <is>
-          <t>behaviour change intervention scenario plan</t>
+          <t>behaviour change intervention scenario report</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>A plan that is realized in a BCI scenario process.</t>
+          <t>A report that describes a BCI scenario.</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr"/>
@@ -2011,7 +1995,7 @@
       <c r="F24" s="2" t="inlineStr"/>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>plan</t>
+          <t>report</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr"/>
@@ -2025,7 +2009,7 @@
       <c r="L24" s="2" t="inlineStr"/>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>BCI scenario plan</t>
+          <t>BCI scenario report</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr"/>
@@ -2053,17 +2037,17 @@
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
         <is>
-          <t>BCIO:027000</t>
+          <t>BCIO:009000</t>
         </is>
       </c>
       <c r="B25" s="2" t="inlineStr">
         <is>
-          <t>behaviour change intervention scenario report</t>
+          <t>behaviour change intervention schedule of delivery</t>
         </is>
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>A report that describes a BCI scenario.</t>
+          <t>A BCI attribute that involves its temporal organisation.</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr"/>
@@ -2071,7 +2055,7 @@
       <c r="F25" s="2" t="inlineStr"/>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>report</t>
+          <t>BCI attribute</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr"/>
@@ -2085,12 +2069,16 @@
       <c r="L25" s="2" t="inlineStr"/>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>BCI scenario report</t>
+          <t>BCI schedule of delivery</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr"/>
       <c r="O25" s="2" t="inlineStr"/>
-      <c r="P25" s="2" t="inlineStr"/>
+      <c r="P25" s="2" t="inlineStr">
+        <is>
+          <t>Includes the start and end of the BCI and its parts.</t>
+        </is>
+      </c>
       <c r="Q25" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -2113,17 +2101,17 @@
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>BCIO:009000</t>
+          <t>BCIO:014000</t>
         </is>
       </c>
       <c r="B26" s="2" t="inlineStr">
         <is>
-          <t>behaviour change intervention schedule of delivery</t>
+          <t>behaviour change intervention setting</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>A BCI attribute that involves its temporal organisation.</t>
+          <t xml:space="preserve">An aggregate of entities that form the environment in which a BCI is provided. </t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr"/>
@@ -2131,7 +2119,7 @@
       <c r="F26" s="2" t="inlineStr"/>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>BCI attribute</t>
+          <t>object aggregate</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr"/>
@@ -2145,14 +2133,14 @@
       <c r="L26" s="2" t="inlineStr"/>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>BCI schedule of delivery</t>
+          <t>BCI setting</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr"/>
       <c r="O26" s="2" t="inlineStr"/>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>Includes the start and end of the BCI and its parts.</t>
+          <t>Includes as parts social setting and physical setting.</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
@@ -2177,17 +2165,17 @@
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
         <is>
-          <t>BCIO:014000</t>
+          <t>BCIO:029000</t>
         </is>
       </c>
       <c r="B27" s="2" t="inlineStr">
         <is>
-          <t>behaviour change intervention setting</t>
+          <t>behaviour change intervention social setting</t>
         </is>
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">An aggregate of entities that form the environment in which a BCI is provided. </t>
+          <t>An aggregate of people with whom a BCI population interacts.</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr"/>
@@ -2195,7 +2183,7 @@
       <c r="F27" s="2" t="inlineStr"/>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>object aggregate</t>
+          <t>human population</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr"/>
@@ -2209,16 +2197,12 @@
       <c r="L27" s="2" t="inlineStr"/>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>BCI setting</t>
+          <t>BCI social setting</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr"/>
       <c r="O27" s="2" t="inlineStr"/>
-      <c r="P27" s="2" t="inlineStr">
-        <is>
-          <t>Includes as parts social setting and physical setting.</t>
-        </is>
-      </c>
+      <c r="P27" s="2" t="inlineStr"/>
       <c r="Q27" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -2241,17 +2225,17 @@
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
         <is>
-          <t>BCIO:029000</t>
+          <t>BCIO:010000</t>
         </is>
       </c>
       <c r="B28" s="2" t="inlineStr">
         <is>
-          <t>behaviour change intervention social setting</t>
+          <t>behaviour change intervention source</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>An aggregate of people with whom a BCI population interacts.</t>
+          <t>A role played by a person, population or organisation that provides a BCI.</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr"/>
@@ -2259,7 +2243,7 @@
       <c r="F28" s="2" t="inlineStr"/>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>human population</t>
+          <t>role</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr"/>
@@ -2273,12 +2257,16 @@
       <c r="L28" s="2" t="inlineStr"/>
       <c r="M28" s="2" t="inlineStr">
         <is>
-          <t>BCI social setting</t>
+          <t>BCI source</t>
         </is>
       </c>
       <c r="N28" s="2" t="inlineStr"/>
       <c r="O28" s="2" t="inlineStr"/>
-      <c r="P28" s="2" t="inlineStr"/>
+      <c r="P28" s="2" t="inlineStr">
+        <is>
+          <t>This includes individual people, groups of people, and organisations.</t>
+        </is>
+      </c>
       <c r="Q28" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -2301,17 +2289,17 @@
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
         <is>
-          <t>BCIO:010000</t>
+          <t>BCIO:030000</t>
         </is>
       </c>
       <c r="B29" s="2" t="inlineStr">
         <is>
-          <t>behaviour change intervention source</t>
+          <t>behaviour change intervention study investigator</t>
         </is>
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>A role played by a person, population or organisation that provides a BCI.</t>
+          <t>A role played by a person that contributes substantively to production or reporting of a BCI evaluation study.</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr"/>
@@ -2333,14 +2321,14 @@
       <c r="L29" s="2" t="inlineStr"/>
       <c r="M29" s="2" t="inlineStr">
         <is>
-          <t>BCI source</t>
+          <t>BCI study investigator</t>
         </is>
       </c>
       <c r="N29" s="2" t="inlineStr"/>
       <c r="O29" s="2" t="inlineStr"/>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>This includes individual people, groups of people, and organisations.</t>
+          <t xml:space="preserve">What counts as substantively is subject to judgement. The level and nature of the contribution can be defined using the CReDiT taxonomy (https://casrai.org/credit/). </t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
@@ -2365,17 +2353,17 @@
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
         <is>
-          <t>BCIO:030000</t>
+          <t>BCIO:031000</t>
         </is>
       </c>
       <c r="B30" s="2" t="inlineStr">
         <is>
-          <t>behaviour change intervention study investigator</t>
+          <t>behaviour change intervention study sample</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>A role played by a person that contributes substantively to production or reporting of a BCI evaluation study.</t>
+          <t>A population whose behaviour is studied in a BCI evaluation study.</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr"/>
@@ -2383,7 +2371,7 @@
       <c r="F30" s="2" t="inlineStr"/>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>role</t>
+          <t>human population</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr"/>
@@ -2397,16 +2385,12 @@
       <c r="L30" s="2" t="inlineStr"/>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t>BCI study investigator</t>
+          <t>BCI study sample</t>
         </is>
       </c>
       <c r="N30" s="2" t="inlineStr"/>
       <c r="O30" s="2" t="inlineStr"/>
-      <c r="P30" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">What counts as substantively is subject to judgement. The level and nature of the contribution can be defined using the CReDiT taxonomy (https://casrai.org/credit/). </t>
-        </is>
-      </c>
+      <c r="P30" s="2" t="inlineStr"/>
       <c r="Q30" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -2429,17 +2413,17 @@
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
         <is>
-          <t>BCIO:031000</t>
+          <t>BCIO:044000</t>
         </is>
       </c>
       <c r="B31" s="2" t="inlineStr">
         <is>
-          <t>behaviour change intervention study sample</t>
+          <t>behaviour change intervention style of delivery</t>
         </is>
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>A population whose behaviour is studied in a BCI evaluation study.</t>
+          <t>A communication style that is an attribute of a BCI content communication process.</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr"/>
@@ -2447,7 +2431,7 @@
       <c r="F31" s="2" t="inlineStr"/>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>human population</t>
+          <t>communication style</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr"/>
@@ -2461,12 +2445,16 @@
       <c r="L31" s="2" t="inlineStr"/>
       <c r="M31" s="2" t="inlineStr">
         <is>
-          <t>BCI study sample</t>
+          <t>BCI style of delivery</t>
         </is>
       </c>
       <c r="N31" s="2" t="inlineStr"/>
       <c r="O31" s="2" t="inlineStr"/>
-      <c r="P31" s="2" t="inlineStr"/>
+      <c r="P31" s="2" t="inlineStr">
+        <is>
+          <t>An example is cold and distant vs. warm and accepting.</t>
+        </is>
+      </c>
       <c r="Q31" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -2489,25 +2477,29 @@
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
         <is>
-          <t>BCIO:044000</t>
+          <t>BCIO:032000</t>
         </is>
       </c>
       <c r="B32" s="2" t="inlineStr">
         <is>
-          <t>behaviour change intervention style of delivery</t>
+          <t>behaviour change intervention tailoring</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>A communication style that is an attribute of a BCI content communication process.</t>
-        </is>
-      </c>
-      <c r="D32" s="2" t="inlineStr"/>
+          <t>A BCI attribute in which the content or delivery of a BCI for some member of the BCI population varies according to their characteristics or setting.</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>An attribute of a behaviour change intervention (BCI) or a BCI component whereby its content or delivery is varied according to characteristics of members of the target population or setting.</t>
+        </is>
+      </c>
       <c r="E32" s="2" t="inlineStr"/>
       <c r="F32" s="2" t="inlineStr"/>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>communication style</t>
+          <t>BCI attribute</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr"/>
@@ -2521,14 +2513,18 @@
       <c r="L32" s="2" t="inlineStr"/>
       <c r="M32" s="2" t="inlineStr">
         <is>
-          <t>BCI style of delivery</t>
+          <t>BCI tailoring</t>
         </is>
       </c>
       <c r="N32" s="2" t="inlineStr"/>
-      <c r="O32" s="2" t="inlineStr"/>
+      <c r="O32" s="2" t="inlineStr">
+        <is>
+          <t>Tailoring can be static (i.e., conducted before intervention delivery in a case case), or dynamic (i.e., conducted one or more times after the intervention has started in a given case based on population or setting characteristics present at that time. Population and setting characteristics include the historical factors such as prior exposure to the intervention.</t>
+        </is>
+      </c>
       <c r="P32" s="2" t="inlineStr">
         <is>
-          <t>An example is cold and distant vs. warm and accepting.</t>
+          <t>Tailoring the dose of pharmacotherapy for smoking cessation to the prior level of nicotine dependence of the smoker (static) or to the smokers' current strength of urges to smoke during a quit attempt (dynamic).</t>
         </is>
       </c>
       <c r="Q32" s="2" t="inlineStr">
@@ -2553,29 +2549,25 @@
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
         <is>
-          <t>BCIO:032000</t>
+          <t>BCIO:047000</t>
         </is>
       </c>
       <c r="B33" s="2" t="inlineStr">
         <is>
-          <t>behaviour change intervention tailoring</t>
+          <t xml:space="preserve">behaviour change intervention temporal context </t>
         </is>
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>A BCI attribute in which the content or delivery of a BCI for some member of the BCI population varies according to their characteristics or setting.</t>
-        </is>
-      </c>
-      <c r="D33" s="2" t="inlineStr">
-        <is>
-          <t>An attribute of a behaviour change intervention (BCI) or a BCI component whereby its content or delivery is varied according to characteristics of members of the target population or setting.</t>
-        </is>
-      </c>
+          <t>The aggregate of processes taking place at the same time as a behaviour change intervention.</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr"/>
       <c r="E33" s="2" t="inlineStr"/>
       <c r="F33" s="2" t="inlineStr"/>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>BCI attribute</t>
+          <t>process</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr"/>
@@ -2589,20 +2581,12 @@
       <c r="L33" s="2" t="inlineStr"/>
       <c r="M33" s="2" t="inlineStr">
         <is>
-          <t>BCI tailoring</t>
+          <t>BCI temporal context</t>
         </is>
       </c>
       <c r="N33" s="2" t="inlineStr"/>
-      <c r="O33" s="2" t="inlineStr">
-        <is>
-          <t>Tailoring can be static (i.e., conducted before intervention delivery in a case case), or dynamic (i.e., conducted one or more times after the intervention has started in a given case based on population or setting characteristics present at that time. Population and setting characteristics include the historical factors such as prior exposure to the intervention.</t>
-        </is>
-      </c>
-      <c r="P33" s="2" t="inlineStr">
-        <is>
-          <t>Tailoring the dose of pharmacotherapy for smoking cessation to the prior level of nicotine dependence of the smoker (static) or to the smokers' current strength of urges to smoke during a quit attempt (dynamic).</t>
-        </is>
-      </c>
+      <c r="O33" s="2" t="inlineStr"/>
+      <c r="P33" s="2" t="inlineStr"/>
       <c r="Q33" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -2625,17 +2609,17 @@
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
         <is>
-          <t>BCIO:047000</t>
+          <t>BCIO:047001</t>
         </is>
       </c>
       <c r="B34" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">behaviour change intervention temporal context </t>
+          <t>behaviour change intervention temporal context event</t>
         </is>
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>The aggregate of processes taking place at the same time as a behaviour change intervention.</t>
+          <t xml:space="preserve">An event which occurs during a behaviour change intervention temporal context. </t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr"/>
@@ -2643,7 +2627,7 @@
       <c r="F34" s="2" t="inlineStr"/>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>process</t>
+          <t>behaviour change intervention temporal context</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr"/>
@@ -2657,7 +2641,7 @@
       <c r="L34" s="2" t="inlineStr"/>
       <c r="M34" s="2" t="inlineStr">
         <is>
-          <t>BCI temporal context</t>
+          <t>BCI temporal context event</t>
         </is>
       </c>
       <c r="N34" s="2" t="inlineStr"/>
@@ -2685,17 +2669,17 @@
     <row r="35">
       <c r="A35" s="2" t="inlineStr">
         <is>
-          <t>BCIO:047001</t>
+          <t>BCIO:033000</t>
         </is>
       </c>
       <c r="B35" s="2" t="inlineStr">
         <is>
-          <t>behaviour change intervention temporal context event</t>
+          <t>behaviour change technique</t>
         </is>
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">An event which occurs during a behaviour change intervention temporal context. </t>
+          <t>A planned process that is the smallest part of BCI content that is observable, replicable and on its own has the potential to bring about behaviour change.</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr"/>
@@ -2703,7 +2687,7 @@
       <c r="F35" s="2" t="inlineStr"/>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>behaviour change intervention temporal context</t>
+          <t>planned process</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr"/>
@@ -2717,7 +2701,7 @@
       <c r="L35" s="2" t="inlineStr"/>
       <c r="M35" s="2" t="inlineStr">
         <is>
-          <t>BCI temporal context event</t>
+          <t>BCT</t>
         </is>
       </c>
       <c r="N35" s="2" t="inlineStr"/>
@@ -2745,17 +2729,17 @@
     <row r="36">
       <c r="A36" s="2" t="inlineStr">
         <is>
-          <t>BCIO:033000</t>
+          <t>BCIO:044003</t>
         </is>
       </c>
       <c r="B36" s="2" t="inlineStr">
         <is>
-          <t>behaviour change technique</t>
+          <t>communication process attribute</t>
         </is>
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>A planned process that is the smallest part of BCI content that is observable, replicable and on its own has the potential to bring about behaviour change.</t>
+          <t>An attribute of a communication process</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr"/>
@@ -2763,7 +2747,7 @@
       <c r="F36" s="2" t="inlineStr"/>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>planned process</t>
+          <t>process attribute</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr"/>
@@ -2775,11 +2759,7 @@
       <c r="J36" s="2" t="inlineStr"/>
       <c r="K36" s="2" t="inlineStr"/>
       <c r="L36" s="2" t="inlineStr"/>
-      <c r="M36" s="2" t="inlineStr">
-        <is>
-          <t>BCT</t>
-        </is>
-      </c>
+      <c r="M36" s="2" t="inlineStr"/>
       <c r="N36" s="2" t="inlineStr"/>
       <c r="O36" s="2" t="inlineStr"/>
       <c r="P36" s="2" t="inlineStr"/>
@@ -2791,7 +2771,7 @@
       <c r="R36" s="2" t="inlineStr"/>
       <c r="S36" s="2" t="inlineStr">
         <is>
-          <t>JH; RW</t>
+          <t>JH</t>
         </is>
       </c>
       <c r="T36" s="2" t="inlineStr">
@@ -2805,17 +2785,17 @@
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
         <is>
-          <t>BCIO:044003</t>
+          <t>BCIO:044004</t>
         </is>
       </c>
       <c r="B37" s="2" t="inlineStr">
         <is>
-          <t>communication process attribute</t>
+          <t>communication style</t>
         </is>
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>An attribute of a communication process</t>
+          <t>A particular manner of communicating aimed at inducing or avoiding certain kinds of responses in others, or demonstrating certain characteristics of the initiator.</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr"/>
@@ -2823,7 +2803,7 @@
       <c r="F37" s="2" t="inlineStr"/>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>process attribute</t>
+          <t>communication process attribute</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr"/>
@@ -2861,17 +2841,17 @@
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
         <is>
-          <t>BCIO:044004</t>
+          <t>BCIO:035000</t>
         </is>
       </c>
       <c r="B38" s="2" t="inlineStr">
         <is>
-          <t>communication style</t>
+          <t>evaluation finding</t>
         </is>
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>A particular manner of communicating aimed at inducing or avoiding certain kinds of responses in others, or demonstrating certain characteristics of the initiator.</t>
+          <t>A data item that is the output of an intervention evaluation study.</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr"/>
@@ -2879,7 +2859,7 @@
       <c r="F38" s="2" t="inlineStr"/>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>communication process attribute</t>
+          <t>data item</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr"/>
@@ -2903,7 +2883,7 @@
       <c r="R38" s="2" t="inlineStr"/>
       <c r="S38" s="2" t="inlineStr">
         <is>
-          <t>JH</t>
+          <t>JH; RW</t>
         </is>
       </c>
       <c r="T38" s="2" t="inlineStr">
@@ -2915,131 +2895,131 @@
       <c r="V38" s="2" t="inlineStr"/>
     </row>
     <row r="39">
-      <c r="A39" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:035000</t>
-        </is>
-      </c>
-      <c r="B39" s="2" t="inlineStr">
-        <is>
-          <t>evaluation finding</t>
-        </is>
-      </c>
-      <c r="C39" s="2" t="inlineStr">
-        <is>
-          <t>A data item that is the output of an intervention evaluation study.</t>
-        </is>
-      </c>
-      <c r="D39" s="2" t="inlineStr"/>
-      <c r="E39" s="2" t="inlineStr"/>
-      <c r="F39" s="2" t="inlineStr"/>
-      <c r="G39" s="2" t="inlineStr">
-        <is>
-          <t>data item</t>
-        </is>
-      </c>
-      <c r="H39" s="2" t="inlineStr"/>
-      <c r="I39" s="2" t="inlineStr">
-        <is>
-          <t>Upper level</t>
-        </is>
-      </c>
-      <c r="J39" s="2" t="inlineStr"/>
-      <c r="K39" s="2" t="inlineStr"/>
-      <c r="L39" s="2" t="inlineStr"/>
-      <c r="M39" s="2" t="inlineStr"/>
-      <c r="N39" s="2" t="inlineStr"/>
-      <c r="O39" s="2" t="inlineStr"/>
-      <c r="P39" s="2" t="inlineStr"/>
-      <c r="Q39" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R39" s="2" t="inlineStr"/>
-      <c r="S39" s="2" t="inlineStr">
-        <is>
-          <t>JH; RW</t>
-        </is>
-      </c>
-      <c r="T39" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="U39" s="2" t="inlineStr"/>
-      <c r="V39" s="2" t="inlineStr"/>
+      <c r="A39" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:042000</t>
+        </is>
+      </c>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t>human behaviour</t>
+        </is>
+      </c>
+      <c r="C39" s="3" t="inlineStr">
+        <is>
+          <t>Individual human behaviour or population behaviour</t>
+        </is>
+      </c>
+      <c r="D39" s="3" t="inlineStr"/>
+      <c r="E39" s="3" t="inlineStr"/>
+      <c r="F39" s="3" t="inlineStr"/>
+      <c r="G39" s="3" t="inlineStr">
+        <is>
+          <t>individual human behaviour</t>
+        </is>
+      </c>
+      <c r="H39" s="3" t="inlineStr"/>
+      <c r="I39" s="3" t="inlineStr">
+        <is>
+          <t>Upper level</t>
+        </is>
+      </c>
+      <c r="J39" s="3" t="inlineStr"/>
+      <c r="K39" s="3" t="inlineStr"/>
+      <c r="L39" s="3" t="inlineStr"/>
+      <c r="M39" s="3" t="inlineStr"/>
+      <c r="N39" s="3" t="inlineStr"/>
+      <c r="O39" s="3" t="inlineStr"/>
+      <c r="P39" s="3" t="inlineStr"/>
+      <c r="Q39" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R39" s="3" t="inlineStr"/>
+      <c r="S39" s="3" t="inlineStr">
+        <is>
+          <t>BG</t>
+        </is>
+      </c>
+      <c r="T39" s="3" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="U39" s="3" t="inlineStr"/>
+      <c r="V39" s="3" t="inlineStr"/>
     </row>
     <row r="40">
-      <c r="A40" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:042000</t>
-        </is>
-      </c>
-      <c r="B40" s="3" t="inlineStr">
-        <is>
-          <t>human behaviour</t>
-        </is>
-      </c>
-      <c r="C40" s="3" t="inlineStr">
-        <is>
-          <t>Individual human behaviour or population behaviour</t>
-        </is>
-      </c>
-      <c r="D40" s="3" t="inlineStr"/>
-      <c r="E40" s="3" t="inlineStr"/>
-      <c r="F40" s="3" t="inlineStr"/>
-      <c r="G40" s="3" t="inlineStr">
-        <is>
-          <t>individual human behaviour</t>
-        </is>
-      </c>
-      <c r="H40" s="3" t="inlineStr"/>
-      <c r="I40" s="3" t="inlineStr">
-        <is>
-          <t>Upper level</t>
-        </is>
-      </c>
-      <c r="J40" s="3" t="inlineStr"/>
-      <c r="K40" s="3" t="inlineStr"/>
-      <c r="L40" s="3" t="inlineStr"/>
-      <c r="M40" s="3" t="inlineStr"/>
-      <c r="N40" s="3" t="inlineStr"/>
-      <c r="O40" s="3" t="inlineStr"/>
-      <c r="P40" s="3" t="inlineStr"/>
-      <c r="Q40" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R40" s="3" t="inlineStr"/>
-      <c r="S40" s="3" t="inlineStr">
-        <is>
-          <t>BG</t>
-        </is>
-      </c>
-      <c r="T40" s="3" t="inlineStr">
-        <is>
-          <t>Obsolete</t>
-        </is>
-      </c>
-      <c r="U40" s="3" t="inlineStr"/>
-      <c r="V40" s="3" t="inlineStr"/>
+      <c r="A40" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:041000</t>
+        </is>
+      </c>
+      <c r="B40" s="2" t="inlineStr">
+        <is>
+          <t>human population</t>
+        </is>
+      </c>
+      <c r="C40" s="2" t="inlineStr">
+        <is>
+          <t>An aggregate of people</t>
+        </is>
+      </c>
+      <c r="D40" s="2" t="inlineStr"/>
+      <c r="E40" s="2" t="inlineStr"/>
+      <c r="F40" s="2" t="inlineStr"/>
+      <c r="G40" s="2" t="inlineStr">
+        <is>
+          <t>object aggregate</t>
+        </is>
+      </c>
+      <c r="H40" s="2" t="inlineStr"/>
+      <c r="I40" s="2" t="inlineStr">
+        <is>
+          <t>Upper level</t>
+        </is>
+      </c>
+      <c r="J40" s="2" t="inlineStr"/>
+      <c r="K40" s="2" t="inlineStr"/>
+      <c r="L40" s="2" t="inlineStr"/>
+      <c r="M40" s="2" t="inlineStr"/>
+      <c r="N40" s="2" t="inlineStr"/>
+      <c r="O40" s="2" t="inlineStr"/>
+      <c r="P40" s="2" t="inlineStr"/>
+      <c r="Q40" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R40" s="2" t="inlineStr"/>
+      <c r="S40" s="2" t="inlineStr">
+        <is>
+          <t>JH</t>
+        </is>
+      </c>
+      <c r="T40" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="U40" s="2" t="inlineStr"/>
+      <c r="V40" s="2" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="2" t="inlineStr">
         <is>
-          <t>BCIO:041000</t>
+          <t>BCIO:040000</t>
         </is>
       </c>
       <c r="B41" s="2" t="inlineStr">
         <is>
-          <t>human population</t>
+          <t>individual human activity</t>
         </is>
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>An aggregate of people</t>
+          <t>A process that is produced by a person.</t>
         </is>
       </c>
       <c r="D41" s="2" t="inlineStr"/>
@@ -3047,7 +3027,7 @@
       <c r="F41" s="2" t="inlineStr"/>
       <c r="G41" s="2" t="inlineStr">
         <is>
-          <t>object aggregate</t>
+          <t>process</t>
         </is>
       </c>
       <c r="H41" s="2" t="inlineStr"/>
@@ -3085,17 +3065,17 @@
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
         <is>
-          <t>BCIO:040000</t>
+          <t>BCIO:036000</t>
         </is>
       </c>
       <c r="B42" s="2" t="inlineStr">
         <is>
-          <t>individual human activity</t>
+          <t>individual human behaviour</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>A process that is produced by a person.</t>
+          <t xml:space="preserve">A bodily process of a human that involves co-ordinated contraction of striated muscles controlled by the brain. </t>
         </is>
       </c>
       <c r="D42" s="2" t="inlineStr"/>
@@ -3103,7 +3083,7 @@
       <c r="F42" s="2" t="inlineStr"/>
       <c r="G42" s="2" t="inlineStr">
         <is>
-          <t>process</t>
+          <t>bodily process</t>
         </is>
       </c>
       <c r="H42" s="2" t="inlineStr"/>
@@ -3115,10 +3095,18 @@
       <c r="J42" s="2" t="inlineStr"/>
       <c r="K42" s="2" t="inlineStr"/>
       <c r="L42" s="2" t="inlineStr"/>
-      <c r="M42" s="2" t="inlineStr"/>
+      <c r="M42" s="2" t="inlineStr">
+        <is>
+          <t>human behaviour</t>
+        </is>
+      </c>
       <c r="N42" s="2" t="inlineStr"/>
       <c r="O42" s="2" t="inlineStr"/>
-      <c r="P42" s="2" t="inlineStr"/>
+      <c r="P42" s="2" t="inlineStr">
+        <is>
+          <t>Also referred to in definitions as human behaviour or just behaviour.</t>
+        </is>
+      </c>
       <c r="Q42" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -3141,17 +3129,17 @@
     <row r="43">
       <c r="A43" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036000</t>
+          <t>BCIO:037000</t>
         </is>
       </c>
       <c r="B43" s="2" t="inlineStr">
         <is>
-          <t>individual human behaviour</t>
+          <t>intervention</t>
         </is>
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A bodily process of a human that involves co-ordinated contraction of striated muscles controlled by the brain. </t>
+          <t>A planned process that has the aim of influencing an outcome.</t>
         </is>
       </c>
       <c r="D43" s="2" t="inlineStr"/>
@@ -3159,7 +3147,7 @@
       <c r="F43" s="2" t="inlineStr"/>
       <c r="G43" s="2" t="inlineStr">
         <is>
-          <t>bodily process</t>
+          <t>planned process</t>
         </is>
       </c>
       <c r="H43" s="2" t="inlineStr"/>
@@ -3171,16 +3159,12 @@
       <c r="J43" s="2" t="inlineStr"/>
       <c r="K43" s="2" t="inlineStr"/>
       <c r="L43" s="2" t="inlineStr"/>
-      <c r="M43" s="2" t="inlineStr">
-        <is>
-          <t>human behaviour</t>
-        </is>
-      </c>
+      <c r="M43" s="2" t="inlineStr"/>
       <c r="N43" s="2" t="inlineStr"/>
       <c r="O43" s="2" t="inlineStr"/>
       <c r="P43" s="2" t="inlineStr">
         <is>
-          <t>Also referred to in definitions as human behaviour or just behaviour.</t>
+          <t>Examples of interventions are putting health warnings on cigarette packets, providing free stop smoking services and banning smoking in public places.</t>
         </is>
       </c>
       <c r="Q43" s="2" t="inlineStr">
@@ -3191,7 +3175,7 @@
       <c r="R43" s="2" t="inlineStr"/>
       <c r="S43" s="2" t="inlineStr">
         <is>
-          <t>JH</t>
+          <t>JH; RW</t>
         </is>
       </c>
       <c r="T43" s="2" t="inlineStr">
@@ -3205,17 +3189,17 @@
     <row r="44">
       <c r="A44" s="2" t="inlineStr">
         <is>
-          <t>BCIO:037000</t>
+          <t>BCIO:046000</t>
         </is>
       </c>
       <c r="B44" s="2" t="inlineStr">
         <is>
-          <t>intervention</t>
+          <t>intervention content</t>
         </is>
       </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>A planned process that has the aim of influencing an outcome.</t>
+          <t>A planned process that is part of an intervention and is intended to be causally active in influencing the intervention outcome.</t>
         </is>
       </c>
       <c r="D44" s="2" t="inlineStr"/>
@@ -3238,11 +3222,7 @@
       <c r="M44" s="2" t="inlineStr"/>
       <c r="N44" s="2" t="inlineStr"/>
       <c r="O44" s="2" t="inlineStr"/>
-      <c r="P44" s="2" t="inlineStr">
-        <is>
-          <t>Examples of interventions are putting health warnings on cigarette packets, providing free stop smoking services and banning smoking in public places.</t>
-        </is>
-      </c>
+      <c r="P44" s="2" t="inlineStr"/>
       <c r="Q44" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -3251,7 +3231,7 @@
       <c r="R44" s="2" t="inlineStr"/>
       <c r="S44" s="2" t="inlineStr">
         <is>
-          <t>JH; RW</t>
+          <t>RW</t>
         </is>
       </c>
       <c r="T44" s="2" t="inlineStr">
@@ -3265,17 +3245,17 @@
     <row r="45">
       <c r="A45" s="2" t="inlineStr">
         <is>
-          <t>BCIO:046000</t>
+          <t>BCIO:045000</t>
         </is>
       </c>
       <c r="B45" s="2" t="inlineStr">
         <is>
-          <t>intervention content</t>
+          <t>intervention delivery</t>
         </is>
       </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>A planned process that is part of an intervention and is intended to be causally active in influencing the intervention outcome.</t>
+          <t>A planned process by which intervention content is delivered.</t>
         </is>
       </c>
       <c r="D45" s="2" t="inlineStr"/>
@@ -3321,17 +3301,17 @@
     <row r="46">
       <c r="A46" s="2" t="inlineStr">
         <is>
-          <t>BCIO:045000</t>
+          <t>BCIO:038000</t>
         </is>
       </c>
       <c r="B46" s="2" t="inlineStr">
         <is>
-          <t>intervention delivery</t>
+          <t>intervention evaluation study</t>
         </is>
       </c>
       <c r="C46" s="2" t="inlineStr">
         <is>
-          <t>A planned process by which intervention content is delivered.</t>
+          <t>A research study that aims to assess attributes of an intervention with regards to their positive or negative value.</t>
         </is>
       </c>
       <c r="D46" s="2" t="inlineStr"/>
@@ -3339,7 +3319,7 @@
       <c r="F46" s="2" t="inlineStr"/>
       <c r="G46" s="2" t="inlineStr">
         <is>
-          <t>planned process</t>
+          <t>research study</t>
         </is>
       </c>
       <c r="H46" s="2" t="inlineStr"/>
@@ -3363,7 +3343,7 @@
       <c r="R46" s="2" t="inlineStr"/>
       <c r="S46" s="2" t="inlineStr">
         <is>
-          <t>RW</t>
+          <t>JH; RW</t>
         </is>
       </c>
       <c r="T46" s="2" t="inlineStr">
@@ -3377,17 +3357,17 @@
     <row r="47">
       <c r="A47" s="2" t="inlineStr">
         <is>
-          <t>BCIO:038000</t>
+          <t>BCIO:039000</t>
         </is>
       </c>
       <c r="B47" s="2" t="inlineStr">
         <is>
-          <t>intervention evaluation study</t>
+          <t>intervention outcome</t>
         </is>
       </c>
       <c r="C47" s="2" t="inlineStr">
         <is>
-          <t>A research study that aims to assess attributes of an intervention with regards to their positive or negative value.</t>
+          <t>A process that is influenced by an intervention.</t>
         </is>
       </c>
       <c r="D47" s="2" t="inlineStr"/>
@@ -3395,7 +3375,7 @@
       <c r="F47" s="2" t="inlineStr"/>
       <c r="G47" s="2" t="inlineStr">
         <is>
-          <t>research study</t>
+          <t>process</t>
         </is>
       </c>
       <c r="H47" s="2" t="inlineStr"/>
@@ -3410,7 +3390,11 @@
       <c r="M47" s="2" t="inlineStr"/>
       <c r="N47" s="2" t="inlineStr"/>
       <c r="O47" s="2" t="inlineStr"/>
-      <c r="P47" s="2" t="inlineStr"/>
+      <c r="P47" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Includes individual human behaviour, mental activity and physiological activity. Also includes undesirable outcomes, such as treatment side effects, and unintended negative consequences of the intervention. </t>
+        </is>
+      </c>
       <c r="Q47" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -3419,7 +3403,7 @@
       <c r="R47" s="2" t="inlineStr"/>
       <c r="S47" s="2" t="inlineStr">
         <is>
-          <t>JH; RW</t>
+          <t>JH</t>
         </is>
       </c>
       <c r="T47" s="2" t="inlineStr">
@@ -3433,17 +3417,17 @@
     <row r="48">
       <c r="A48" s="2" t="inlineStr">
         <is>
-          <t>BCIO:039000</t>
+          <t>BCIO:034000</t>
         </is>
       </c>
       <c r="B48" s="2" t="inlineStr">
         <is>
-          <t>intervention outcome</t>
+          <t>population behaviour</t>
         </is>
       </c>
       <c r="C48" s="2" t="inlineStr">
         <is>
-          <t>A process that is influenced by an intervention.</t>
+          <t>An aggregate of individual human behaviours of members of a population.</t>
         </is>
       </c>
       <c r="D48" s="2" t="inlineStr"/>
@@ -3463,14 +3447,14 @@
       <c r="J48" s="2" t="inlineStr"/>
       <c r="K48" s="2" t="inlineStr"/>
       <c r="L48" s="2" t="inlineStr"/>
-      <c r="M48" s="2" t="inlineStr"/>
+      <c r="M48" s="2" t="inlineStr">
+        <is>
+          <t>human behaviour</t>
+        </is>
+      </c>
       <c r="N48" s="2" t="inlineStr"/>
       <c r="O48" s="2" t="inlineStr"/>
-      <c r="P48" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Includes individual human behaviour, mental activity and physiological activity. Also includes undesirable outcomes, such as treatment side effects, and unintended negative consequences of the intervention. </t>
-        </is>
-      </c>
+      <c r="P48" s="2" t="inlineStr"/>
       <c r="Q48" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -3493,25 +3477,29 @@
     <row r="49">
       <c r="A49" s="2" t="inlineStr">
         <is>
-          <t>BCIO:034000</t>
+          <t>BCIO:043000</t>
         </is>
       </c>
       <c r="B49" s="2" t="inlineStr">
         <is>
-          <t>population behaviour</t>
+          <t>process attribute</t>
         </is>
       </c>
       <c r="C49" s="2" t="inlineStr">
         <is>
-          <t>An aggregate of individual human behaviours of members of a population.</t>
-        </is>
-      </c>
-      <c r="D49" s="2" t="inlineStr"/>
+          <t>A process profile that is an attribute of a process.</t>
+        </is>
+      </c>
+      <c r="D49" s="2" t="inlineStr">
+        <is>
+          <t>An attribute of a process.</t>
+        </is>
+      </c>
       <c r="E49" s="2" t="inlineStr"/>
       <c r="F49" s="2" t="inlineStr"/>
       <c r="G49" s="2" t="inlineStr">
         <is>
-          <t>process</t>
+          <t>process profile</t>
         </is>
       </c>
       <c r="H49" s="2" t="inlineStr"/>
@@ -3523,14 +3511,14 @@
       <c r="J49" s="2" t="inlineStr"/>
       <c r="K49" s="2" t="inlineStr"/>
       <c r="L49" s="2" t="inlineStr"/>
-      <c r="M49" s="2" t="inlineStr">
-        <is>
-          <t>human behaviour</t>
-        </is>
-      </c>
+      <c r="M49" s="2" t="inlineStr"/>
       <c r="N49" s="2" t="inlineStr"/>
       <c r="O49" s="2" t="inlineStr"/>
-      <c r="P49" s="2" t="inlineStr"/>
+      <c r="P49" s="2" t="inlineStr">
+        <is>
+          <t>This is intended to provide a user-friendly way of representing the way in which processes are manifest. This is somewhat similar to, but not the same as, the class 'specifically dependent continuant' in Basic Formal Ontology which provides a way of representing features of material entities such as age and size. It is formally equivalent to process profile in Basic Formal Ontology.</t>
+        </is>
+      </c>
       <c r="Q49" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -3549,70 +3537,6 @@
       </c>
       <c r="U49" s="2" t="inlineStr"/>
       <c r="V49" s="2" t="inlineStr"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:043000</t>
-        </is>
-      </c>
-      <c r="B50" s="2" t="inlineStr">
-        <is>
-          <t>process attribute</t>
-        </is>
-      </c>
-      <c r="C50" s="2" t="inlineStr">
-        <is>
-          <t>A process profile that is an attribute of a process.</t>
-        </is>
-      </c>
-      <c r="D50" s="2" t="inlineStr">
-        <is>
-          <t>An attribute of a process.</t>
-        </is>
-      </c>
-      <c r="E50" s="2" t="inlineStr"/>
-      <c r="F50" s="2" t="inlineStr"/>
-      <c r="G50" s="2" t="inlineStr">
-        <is>
-          <t>process profile</t>
-        </is>
-      </c>
-      <c r="H50" s="2" t="inlineStr"/>
-      <c r="I50" s="2" t="inlineStr">
-        <is>
-          <t>Upper level</t>
-        </is>
-      </c>
-      <c r="J50" s="2" t="inlineStr"/>
-      <c r="K50" s="2" t="inlineStr"/>
-      <c r="L50" s="2" t="inlineStr"/>
-      <c r="M50" s="2" t="inlineStr"/>
-      <c r="N50" s="2" t="inlineStr"/>
-      <c r="O50" s="2" t="inlineStr"/>
-      <c r="P50" s="2" t="inlineStr">
-        <is>
-          <t>This is intended to provide a user-friendly way of representing the way in which processes are manifest. This is somewhat similar to, but not the same as, the class 'specifically dependent continuant' in Basic Formal Ontology which provides a way of representing features of material entities such as age and size. It is formally equivalent to process profile in Basic Formal Ontology.</t>
-        </is>
-      </c>
-      <c r="Q50" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R50" s="2" t="inlineStr"/>
-      <c r="S50" s="2" t="inlineStr">
-        <is>
-          <t>JH</t>
-        </is>
-      </c>
-      <c r="T50" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="U50" s="2" t="inlineStr"/>
-      <c r="V50" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Upper Level BCIO/inputs/BCIO_Upper_Defs.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_Upper_Defs.xlsx
@@ -558,7 +558,7 @@
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>BCI attribute</t>
+          <t>BCI attrib</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
@@ -607,7 +607,7 @@
       <c r="R2" s="2" t="inlineStr"/>
       <c r="S2" s="2" t="inlineStr">
         <is>
-          <t>RW</t>
+          <t>RW; BG</t>
         </is>
       </c>
       <c r="T2" s="2" t="inlineStr">

--- a/Upper Level BCIO/inputs/BCIO_Upper_Defs.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_Upper_Defs.xlsx
@@ -3229,7 +3229,7 @@
       <c r="D44" s="2" t="inlineStr"/>
       <c r="E44" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Individual human behavior OR population behaviour </t>
+          <t>'individual human behavior' OR 'population behaviour'</t>
         </is>
       </c>
       <c r="F44" s="2" t="inlineStr"/>

--- a/Upper Level BCIO/inputs/BCIO_Upper_Defs.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_Upper_Defs.xlsx
@@ -3227,11 +3227,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="inlineStr"/>
-      <c r="E44" s="2" t="inlineStr">
-        <is>
-          <t>'individual human behavior' OR 'population behaviour'</t>
-        </is>
-      </c>
+      <c r="E44" s="2" t="inlineStr"/>
       <c r="F44" s="2" t="inlineStr"/>
       <c r="G44" s="2" t="inlineStr">
         <is>

--- a/Upper Level BCIO/inputs/BCIO_Upper_Defs.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_Upper_Defs.xlsx
@@ -3229,7 +3229,7 @@
       <c r="D44" s="2" t="inlineStr"/>
       <c r="E44" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Individual human behavior OR population behaviour </t>
+          <t xml:space="preserve">'individual human behavior' OR 'population behaviour' </t>
         </is>
       </c>
       <c r="F44" s="2" t="inlineStr"/>

--- a/Upper Level BCIO/inputs/BCIO_Upper_Defs.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_Upper_Defs.xlsx
@@ -3227,11 +3227,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="inlineStr"/>
-      <c r="E44" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">'individual human behavior' OR 'population behaviour' </t>
-        </is>
-      </c>
+      <c r="E44" s="2" t="inlineStr"/>
       <c r="F44" s="2" t="inlineStr"/>
       <c r="G44" s="2" t="inlineStr">
         <is>

--- a/Upper Level BCIO/inputs/BCIO_Upper_Defs.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_Upper_Defs.xlsx
@@ -1047,7 +1047,7 @@
       <c r="F9" s="2" t="inlineStr"/>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>BCI attribute</t>
+          <t>behaviour change intervention attribute</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -1087,7 +1087,7 @@
       <c r="R9" s="2" t="inlineStr"/>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>JH; RW</t>
+          <t>JH; RW; BG</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">

--- a/Upper Level BCIO/inputs/BCIO_Upper_Defs.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_Upper_Defs.xlsx
@@ -30,7 +30,7 @@
       <sz val="12"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill/>
     </fill>
@@ -47,6 +47,11 @@
         <fgColor rgb="002f4f4f"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ffffff"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -60,11 +65,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -430,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V65"/>
+  <dimension ref="A1:V66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -571,8 +577,8 @@
           <t>An attribute of a behaviour change intervention.</t>
         </is>
       </c>
-      <c r="E2" s="2" t="inlineStr"/>
-      <c r="F2" s="2" t="inlineStr"/>
+      <c r="E2" s="2" t="n"/>
+      <c r="F2" s="2" t="n"/>
       <c r="G2" s="2" t="inlineStr">
         <is>
           <t>process attribute</t>
@@ -588,23 +594,23 @@
           <t>Upper level</t>
         </is>
       </c>
-      <c r="J2" s="2" t="inlineStr"/>
-      <c r="K2" s="2" t="inlineStr"/>
-      <c r="L2" s="2" t="inlineStr"/>
+      <c r="J2" s="2" t="n"/>
+      <c r="K2" s="2" t="n"/>
+      <c r="L2" s="2" t="n"/>
       <c r="M2" s="2" t="inlineStr">
         <is>
           <t>behaviour change intervention attribute</t>
         </is>
       </c>
-      <c r="N2" s="2" t="inlineStr"/>
-      <c r="O2" s="2" t="inlineStr"/>
-      <c r="P2" s="2" t="inlineStr"/>
+      <c r="N2" s="2" t="n"/>
+      <c r="O2" s="2" t="n"/>
+      <c r="P2" s="2" t="n"/>
       <c r="Q2" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="R2" s="2" t="inlineStr"/>
+      <c r="R2" s="2" t="n"/>
       <c r="S2" s="2" t="inlineStr">
         <is>
           <t>RW</t>
@@ -615,8 +621,8 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="U2" s="2" t="inlineStr"/>
-      <c r="V2" s="2" t="inlineStr"/>
+      <c r="U2" s="2" t="n"/>
+      <c r="V2" s="2" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
@@ -639,8 +645,8 @@
           <t>A criterion for selecting people for a BCI population.</t>
         </is>
       </c>
-      <c r="E3" s="2" t="inlineStr"/>
-      <c r="F3" s="2" t="inlineStr"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="inlineStr">
         <is>
           <t>information content entity</t>
@@ -656,19 +662,19 @@
           <t>Upper level</t>
         </is>
       </c>
-      <c r="J3" s="2" t="inlineStr"/>
-      <c r="K3" s="2" t="inlineStr"/>
-      <c r="L3" s="2" t="inlineStr"/>
-      <c r="M3" s="2" t="inlineStr"/>
-      <c r="N3" s="2" t="inlineStr"/>
-      <c r="O3" s="2" t="inlineStr"/>
-      <c r="P3" s="2" t="inlineStr"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
       <c r="Q3" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="R3" s="2" t="inlineStr"/>
+      <c r="R3" s="2" t="n"/>
       <c r="S3" s="2" t="inlineStr">
         <is>
           <t>RW; JH</t>
@@ -679,8 +685,8 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="U3" s="2" t="inlineStr"/>
-      <c r="V3" s="2" t="inlineStr"/>
+      <c r="U3" s="2" t="n"/>
+      <c r="V3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
@@ -698,9 +704,9 @@
           <t>An intervention that has the aim of influencing human behaviour.</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr"/>
-      <c r="E4" s="2" t="inlineStr"/>
-      <c r="F4" s="2" t="inlineStr"/>
+      <c r="D4" s="2" t="n"/>
+      <c r="E4" s="2" t="n"/>
+      <c r="F4" s="2" t="n"/>
       <c r="G4" s="2" t="inlineStr">
         <is>
           <t>intervention</t>
@@ -726,14 +732,14 @@
           <t>behaviour change intervention scenario plan</t>
         </is>
       </c>
-      <c r="L4" s="2" t="inlineStr"/>
+      <c r="L4" s="2" t="n"/>
       <c r="M4" s="2" t="inlineStr">
         <is>
           <t>BCI</t>
         </is>
       </c>
-      <c r="N4" s="2" t="inlineStr"/>
-      <c r="O4" s="2" t="inlineStr"/>
+      <c r="N4" s="2" t="n"/>
+      <c r="O4" s="2" t="n"/>
       <c r="P4" s="2" t="inlineStr">
         <is>
           <t>Involves use of products, services, activities, rules or environmental objects.</t>
@@ -744,7 +750,7 @@
           <t>0</t>
         </is>
       </c>
-      <c r="R4" s="2" t="inlineStr"/>
+      <c r="R4" s="2" t="n"/>
       <c r="S4" s="2" t="inlineStr">
         <is>
           <t>JH; BG; PS</t>
@@ -755,8 +761,8 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="U4" s="2" t="inlineStr"/>
-      <c r="V4" s="2" t="inlineStr"/>
+      <c r="U4" s="2" t="n"/>
+      <c r="V4" s="2" t="n"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
@@ -774,9 +780,9 @@
           <t xml:space="preserve">A BCI evaluation study that involves comparison between two or more BCI scenarios to produce one or more BCI effect estimates. </t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr"/>
-      <c r="E5" s="2" t="inlineStr"/>
-      <c r="F5" s="2" t="inlineStr"/>
+      <c r="D5" s="2" t="n"/>
+      <c r="E5" s="2" t="n"/>
+      <c r="F5" s="2" t="n"/>
       <c r="G5" s="2" t="inlineStr">
         <is>
           <t>behaviour change intervention evaluation study</t>
@@ -792,16 +798,16 @@
           <t>Upper level</t>
         </is>
       </c>
-      <c r="J5" s="2" t="inlineStr"/>
-      <c r="K5" s="2" t="inlineStr"/>
-      <c r="L5" s="2" t="inlineStr"/>
+      <c r="J5" s="2" t="n"/>
+      <c r="K5" s="2" t="n"/>
+      <c r="L5" s="2" t="n"/>
       <c r="M5" s="2" t="inlineStr">
         <is>
           <t>BCI comparison evaluation study</t>
         </is>
       </c>
-      <c r="N5" s="2" t="inlineStr"/>
-      <c r="O5" s="2" t="inlineStr"/>
+      <c r="N5" s="2" t="n"/>
+      <c r="O5" s="2" t="n"/>
       <c r="P5" s="2" t="inlineStr">
         <is>
           <t>Comparison involves identifying differences between the entities in the scenarios.</t>
@@ -812,7 +818,7 @@
           <t>0</t>
         </is>
       </c>
-      <c r="R5" s="2" t="inlineStr"/>
+      <c r="R5" s="2" t="n"/>
       <c r="S5" s="2" t="inlineStr">
         <is>
           <t>JH; RW</t>
@@ -823,8 +829,8 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="U5" s="2" t="inlineStr"/>
-      <c r="V5" s="2" t="inlineStr"/>
+      <c r="U5" s="2" t="n"/>
+      <c r="V5" s="2" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
@@ -842,9 +848,9 @@
           <t>An intervention content that is part of a behaviour change intervention.</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr"/>
-      <c r="E6" s="2" t="inlineStr"/>
-      <c r="F6" s="2" t="inlineStr"/>
+      <c r="D6" s="2" t="n"/>
+      <c r="E6" s="2" t="n"/>
+      <c r="F6" s="2" t="n"/>
       <c r="G6" s="2" t="inlineStr">
         <is>
           <t>intervention content</t>
@@ -860,16 +866,16 @@
           <t>Upper level</t>
         </is>
       </c>
-      <c r="J6" s="2" t="inlineStr"/>
-      <c r="K6" s="2" t="inlineStr"/>
-      <c r="L6" s="2" t="inlineStr"/>
+      <c r="J6" s="2" t="n"/>
+      <c r="K6" s="2" t="n"/>
+      <c r="L6" s="2" t="n"/>
       <c r="M6" s="2" t="inlineStr">
         <is>
           <t>BCI content</t>
         </is>
       </c>
-      <c r="N6" s="2" t="inlineStr"/>
-      <c r="O6" s="2" t="inlineStr"/>
+      <c r="N6" s="2" t="n"/>
+      <c r="O6" s="2" t="n"/>
       <c r="P6" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">Consists of BCTs that can be classified using a BCT taxonomy. </t>
@@ -880,7 +886,7 @@
           <t>0</t>
         </is>
       </c>
-      <c r="R6" s="2" t="inlineStr"/>
+      <c r="R6" s="2" t="n"/>
       <c r="S6" s="2" t="inlineStr">
         <is>
           <t>RW</t>
@@ -891,8 +897,8 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="U6" s="2" t="inlineStr"/>
-      <c r="V6" s="2" t="inlineStr"/>
+      <c r="U6" s="2" t="n"/>
+      <c r="V6" s="2" t="n"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
@@ -910,9 +916,9 @@
           <t>An aggregate of entities that are not dependent on the intervention but may influence the effect of a BCI on its outcome behaviour.</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr"/>
-      <c r="E7" s="2" t="inlineStr"/>
-      <c r="F7" s="2" t="inlineStr"/>
+      <c r="D7" s="2" t="n"/>
+      <c r="E7" s="2" t="n"/>
+      <c r="F7" s="2" t="n"/>
       <c r="G7" s="2" t="inlineStr">
         <is>
           <t>object aggregate</t>
@@ -928,16 +934,16 @@
           <t>Upper level</t>
         </is>
       </c>
-      <c r="J7" s="2" t="inlineStr"/>
-      <c r="K7" s="2" t="inlineStr"/>
-      <c r="L7" s="2" t="inlineStr"/>
+      <c r="J7" s="2" t="n"/>
+      <c r="K7" s="2" t="n"/>
+      <c r="L7" s="2" t="n"/>
       <c r="M7" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve"> BCI context</t>
         </is>
       </c>
-      <c r="N7" s="2" t="inlineStr"/>
-      <c r="O7" s="2" t="inlineStr"/>
+      <c r="N7" s="2" t="n"/>
+      <c r="O7" s="2" t="n"/>
       <c r="P7" s="2" t="inlineStr">
         <is>
           <t>Includes as part BCI population and BCI setting. Use of the word ‘may’ conveys a non-zero probability given available information.</t>
@@ -948,7 +954,7 @@
           <t>0</t>
         </is>
       </c>
-      <c r="R7" s="2" t="inlineStr"/>
+      <c r="R7" s="2" t="n"/>
       <c r="S7" s="2" t="inlineStr">
         <is>
           <t>JH; RW</t>
@@ -959,8 +965,8 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="U7" s="2" t="inlineStr"/>
-      <c r="V7" s="2" t="inlineStr"/>
+      <c r="U7" s="2" t="n"/>
+      <c r="V7" s="2" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
@@ -978,9 +984,9 @@
           <t>An intervention delivery in which the intervention is a behaviour change intervention.</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr"/>
-      <c r="E8" s="2" t="inlineStr"/>
-      <c r="F8" s="2" t="inlineStr"/>
+      <c r="D8" s="2" t="n"/>
+      <c r="E8" s="2" t="n"/>
+      <c r="F8" s="2" t="n"/>
       <c r="G8" s="2" t="inlineStr">
         <is>
           <t>intervention delivery</t>
@@ -996,23 +1002,23 @@
           <t>Upper level</t>
         </is>
       </c>
-      <c r="J8" s="2" t="inlineStr"/>
-      <c r="K8" s="2" t="inlineStr"/>
-      <c r="L8" s="2" t="inlineStr"/>
+      <c r="J8" s="2" t="n"/>
+      <c r="K8" s="2" t="n"/>
+      <c r="L8" s="2" t="n"/>
       <c r="M8" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve"> BCI delivery</t>
         </is>
       </c>
-      <c r="N8" s="2" t="inlineStr"/>
-      <c r="O8" s="2" t="inlineStr"/>
-      <c r="P8" s="2" t="inlineStr"/>
+      <c r="N8" s="2" t="n"/>
+      <c r="O8" s="2" t="n"/>
+      <c r="P8" s="2" t="n"/>
       <c r="Q8" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="R8" s="2" t="inlineStr"/>
+      <c r="R8" s="2" t="n"/>
       <c r="S8" s="2" t="inlineStr">
         <is>
           <t>JH; RW</t>
@@ -1023,8 +1029,8 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="U8" s="2" t="inlineStr"/>
-      <c r="V8" s="2" t="inlineStr"/>
+      <c r="U8" s="2" t="n"/>
+      <c r="V8" s="2" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
@@ -1042,9 +1048,9 @@
           <t>A BCI content attribute that is its amount.</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr"/>
-      <c r="E9" s="2" t="inlineStr"/>
-      <c r="F9" s="2" t="inlineStr"/>
+      <c r="D9" s="2" t="n"/>
+      <c r="E9" s="2" t="n"/>
+      <c r="F9" s="2" t="n"/>
       <c r="G9" s="2" t="inlineStr">
         <is>
           <t>BCI attribute</t>
@@ -1060,15 +1066,15 @@
           <t>Upper level</t>
         </is>
       </c>
-      <c r="J9" s="2" t="inlineStr"/>
-      <c r="K9" s="2" t="inlineStr"/>
-      <c r="L9" s="2" t="inlineStr"/>
+      <c r="J9" s="2" t="n"/>
+      <c r="K9" s="2" t="n"/>
+      <c r="L9" s="2" t="n"/>
       <c r="M9" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve"> BCI dose</t>
         </is>
       </c>
-      <c r="N9" s="2" t="inlineStr"/>
+      <c r="N9" s="2" t="n"/>
       <c r="O9" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">This class requires further specification when it is used because specific BCI content instances may vary in amount in different ways. </t>
@@ -1084,7 +1090,7 @@
           <t>0</t>
         </is>
       </c>
-      <c r="R9" s="2" t="inlineStr"/>
+      <c r="R9" s="2" t="n"/>
       <c r="S9" s="2" t="inlineStr">
         <is>
           <t>JH; RW</t>
@@ -1095,8 +1101,8 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="U9" s="2" t="inlineStr"/>
-      <c r="V9" s="2" t="inlineStr"/>
+      <c r="U9" s="2" t="n"/>
+      <c r="V9" s="2" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
@@ -1114,9 +1120,9 @@
           <t xml:space="preserve">A behaviour change intervention evaluation finding that characterises the difference between BCI outcome estimates of two BCI scenarios. </t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr"/>
-      <c r="E10" s="2" t="inlineStr"/>
-      <c r="F10" s="2" t="inlineStr"/>
+      <c r="D10" s="2" t="n"/>
+      <c r="E10" s="2" t="n"/>
+      <c r="F10" s="2" t="n"/>
       <c r="G10" s="2" t="inlineStr">
         <is>
           <t>behaviour change intervention evaluation finding</t>
@@ -1132,16 +1138,16 @@
           <t>Upper level</t>
         </is>
       </c>
-      <c r="J10" s="2" t="inlineStr"/>
-      <c r="K10" s="2" t="inlineStr"/>
-      <c r="L10" s="2" t="inlineStr"/>
+      <c r="J10" s="2" t="n"/>
+      <c r="K10" s="2" t="n"/>
+      <c r="L10" s="2" t="n"/>
       <c r="M10" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve"> BCI effect estimate</t>
         </is>
       </c>
-      <c r="N10" s="2" t="inlineStr"/>
-      <c r="O10" s="2" t="inlineStr"/>
+      <c r="N10" s="2" t="n"/>
+      <c r="O10" s="2" t="n"/>
       <c r="P10" s="2" t="inlineStr">
         <is>
           <t>This includes the following subclasses: 1) BCI effect estimate type -the type of statistic used to represent the difference (e.g. odds ratio, mean difference), 2) BCI effect estimate value – the datum that represents the difference (e.g. 1.35), 3)  BCI effect estimate uncertainty type – the type of statistic used to represent the range of uncertainty of the value (e.g. 95% confidence interval see STATO), and 4) the BCI effect estimate uncertainty value  - the datum representing the uncertainty (e.g. 1.20-1.55).</t>
@@ -1152,7 +1158,7 @@
           <t>0</t>
         </is>
       </c>
-      <c r="R10" s="2" t="inlineStr"/>
+      <c r="R10" s="2" t="n"/>
       <c r="S10" s="2" t="inlineStr">
         <is>
           <t>JH; RW; BG</t>
@@ -1163,8 +1169,8 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="U10" s="2" t="inlineStr"/>
-      <c r="V10" s="2" t="inlineStr"/>
+      <c r="U10" s="2" t="n"/>
+      <c r="V10" s="2" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
@@ -1182,9 +1188,9 @@
           <t>An evaluation finding that is the output of a BCI evaluation study.</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr"/>
-      <c r="E11" s="2" t="inlineStr"/>
-      <c r="F11" s="2" t="inlineStr"/>
+      <c r="D11" s="2" t="n"/>
+      <c r="E11" s="2" t="n"/>
+      <c r="F11" s="2" t="n"/>
       <c r="G11" s="2" t="inlineStr">
         <is>
           <t>evaluation finding</t>
@@ -1200,23 +1206,23 @@
           <t>Upper level</t>
         </is>
       </c>
-      <c r="J11" s="2" t="inlineStr"/>
-      <c r="K11" s="2" t="inlineStr"/>
-      <c r="L11" s="2" t="inlineStr"/>
+      <c r="J11" s="2" t="n"/>
+      <c r="K11" s="2" t="n"/>
+      <c r="L11" s="2" t="n"/>
       <c r="M11" s="2" t="inlineStr">
         <is>
           <t>BCI evaluation finding</t>
         </is>
       </c>
-      <c r="N11" s="2" t="inlineStr"/>
-      <c r="O11" s="2" t="inlineStr"/>
-      <c r="P11" s="2" t="inlineStr"/>
+      <c r="N11" s="2" t="n"/>
+      <c r="O11" s="2" t="n"/>
+      <c r="P11" s="2" t="n"/>
       <c r="Q11" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="R11" s="2" t="inlineStr"/>
+      <c r="R11" s="2" t="n"/>
       <c r="S11" s="2" t="inlineStr">
         <is>
           <t>JH; RW; BG</t>
@@ -1227,8 +1233,8 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="U11" s="2" t="inlineStr"/>
-      <c r="V11" s="2" t="inlineStr"/>
+      <c r="U11" s="2" t="n"/>
+      <c r="V11" s="2" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
@@ -1246,9 +1252,9 @@
           <t>A report that is a description of a BCI evaluation study.</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr"/>
-      <c r="E12" s="2" t="inlineStr"/>
-      <c r="F12" s="2" t="inlineStr"/>
+      <c r="D12" s="2" t="n"/>
+      <c r="E12" s="2" t="n"/>
+      <c r="F12" s="2" t="n"/>
       <c r="G12" s="2" t="inlineStr">
         <is>
           <t>report</t>
@@ -1264,16 +1270,16 @@
           <t>Upper level</t>
         </is>
       </c>
-      <c r="J12" s="2" t="inlineStr"/>
-      <c r="K12" s="2" t="inlineStr"/>
-      <c r="L12" s="2" t="inlineStr"/>
+      <c r="J12" s="2" t="n"/>
+      <c r="K12" s="2" t="n"/>
+      <c r="L12" s="2" t="n"/>
       <c r="M12" s="2" t="inlineStr">
         <is>
           <t>BCI evaluation report</t>
         </is>
       </c>
-      <c r="N12" s="2" t="inlineStr"/>
-      <c r="O12" s="2" t="inlineStr"/>
+      <c r="N12" s="2" t="n"/>
+      <c r="O12" s="2" t="n"/>
       <c r="P12" s="2" t="inlineStr">
         <is>
           <t>Includes entities that stand in direct relation to the study e.g. authors, findings, funding, aims.</t>
@@ -1284,7 +1290,7 @@
           <t>0</t>
         </is>
       </c>
-      <c r="R12" s="2" t="inlineStr"/>
+      <c r="R12" s="2" t="n"/>
       <c r="S12" s="2" t="inlineStr">
         <is>
           <t>JH; RW</t>
@@ -1295,8 +1301,8 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="U12" s="2" t="inlineStr"/>
-      <c r="V12" s="2" t="inlineStr"/>
+      <c r="U12" s="2" t="n"/>
+      <c r="V12" s="2" t="n"/>
     </row>
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
@@ -1314,9 +1320,9 @@
           <t>An intervention evaluation study of a BCI scenario.</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr"/>
-      <c r="E13" s="2" t="inlineStr"/>
-      <c r="F13" s="2" t="inlineStr"/>
+      <c r="D13" s="2" t="n"/>
+      <c r="E13" s="2" t="n"/>
+      <c r="F13" s="2" t="n"/>
       <c r="G13" s="2" t="inlineStr">
         <is>
           <t>intervention evaluation study</t>
@@ -1332,23 +1338,23 @@
           <t>Upper level</t>
         </is>
       </c>
-      <c r="J13" s="2" t="inlineStr"/>
-      <c r="K13" s="2" t="inlineStr"/>
-      <c r="L13" s="2" t="inlineStr"/>
+      <c r="J13" s="2" t="n"/>
+      <c r="K13" s="2" t="n"/>
+      <c r="L13" s="2" t="n"/>
       <c r="M13" s="2" t="inlineStr">
         <is>
           <t>BCI evaluation study</t>
         </is>
       </c>
-      <c r="N13" s="2" t="inlineStr"/>
-      <c r="O13" s="2" t="inlineStr"/>
-      <c r="P13" s="2" t="inlineStr"/>
+      <c r="N13" s="2" t="n"/>
+      <c r="O13" s="2" t="n"/>
+      <c r="P13" s="2" t="n"/>
       <c r="Q13" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="R13" s="2" t="inlineStr"/>
+      <c r="R13" s="2" t="n"/>
       <c r="S13" s="2" t="inlineStr">
         <is>
           <t>JH; RW</t>
@@ -1359,8 +1365,8 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="U13" s="2" t="inlineStr"/>
-      <c r="V13" s="2" t="inlineStr"/>
+      <c r="U13" s="2" t="n"/>
+      <c r="V13" s="2" t="n"/>
     </row>
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
@@ -1378,9 +1384,9 @@
           <t>A plan for a BCI evaluation study.</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr"/>
-      <c r="E14" s="2" t="inlineStr"/>
-      <c r="F14" s="2" t="inlineStr"/>
+      <c r="D14" s="2" t="n"/>
+      <c r="E14" s="2" t="n"/>
+      <c r="F14" s="2" t="n"/>
       <c r="G14" s="2" t="inlineStr">
         <is>
           <t>plan</t>
@@ -1396,23 +1402,23 @@
           <t>Upper level</t>
         </is>
       </c>
-      <c r="J14" s="2" t="inlineStr"/>
-      <c r="K14" s="2" t="inlineStr"/>
-      <c r="L14" s="2" t="inlineStr"/>
+      <c r="J14" s="2" t="n"/>
+      <c r="K14" s="2" t="n"/>
+      <c r="L14" s="2" t="n"/>
       <c r="M14" s="2" t="inlineStr">
         <is>
           <t>BCI evaluation study plan</t>
         </is>
       </c>
-      <c r="N14" s="2" t="inlineStr"/>
-      <c r="O14" s="2" t="inlineStr"/>
-      <c r="P14" s="2" t="inlineStr"/>
+      <c r="N14" s="2" t="n"/>
+      <c r="O14" s="2" t="n"/>
+      <c r="P14" s="2" t="n"/>
       <c r="Q14" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="R14" s="2" t="inlineStr"/>
+      <c r="R14" s="2" t="n"/>
       <c r="S14" s="2" t="inlineStr">
         <is>
           <t>JH; RW</t>
@@ -1423,8 +1429,8 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="U14" s="2" t="inlineStr"/>
-      <c r="V14" s="2" t="inlineStr"/>
+      <c r="U14" s="2" t="n"/>
+      <c r="V14" s="2" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
@@ -1442,9 +1448,9 @@
           <t>An information content entity that is about the likelihood of the BCI evaluation finding misrepresenting the outcome behaviour.</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr"/>
-      <c r="E15" s="2" t="inlineStr"/>
-      <c r="F15" s="2" t="inlineStr"/>
+      <c r="D15" s="2" t="n"/>
+      <c r="E15" s="2" t="n"/>
+      <c r="F15" s="2" t="n"/>
       <c r="G15" s="2" t="inlineStr">
         <is>
           <t>information content entity</t>
@@ -1460,23 +1466,23 @@
           <t>Upper level</t>
         </is>
       </c>
-      <c r="J15" s="2" t="inlineStr"/>
-      <c r="K15" s="2" t="inlineStr"/>
-      <c r="L15" s="2" t="inlineStr"/>
+      <c r="J15" s="2" t="n"/>
+      <c r="K15" s="2" t="n"/>
+      <c r="L15" s="2" t="n"/>
       <c r="M15" s="2" t="inlineStr">
         <is>
           <t>BCI evaluation study risk of bias or error</t>
         </is>
       </c>
-      <c r="N15" s="2" t="inlineStr"/>
-      <c r="O15" s="2" t="inlineStr"/>
-      <c r="P15" s="2" t="inlineStr"/>
+      <c r="N15" s="2" t="n"/>
+      <c r="O15" s="2" t="n"/>
+      <c r="P15" s="2" t="n"/>
       <c r="Q15" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="R15" s="2" t="inlineStr"/>
+      <c r="R15" s="2" t="n"/>
       <c r="S15" s="2" t="inlineStr">
         <is>
           <t>JH; RW</t>
@@ -1487,8 +1493,8 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="U15" s="2" t="inlineStr"/>
-      <c r="V15" s="2" t="inlineStr"/>
+      <c r="U15" s="2" t="n"/>
+      <c r="V15" s="2" t="n"/>
     </row>
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
@@ -1506,9 +1512,9 @@
           <t xml:space="preserve">A process that is causally active in the relationship between a BCI scenario and its outcome behaviour. </t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr"/>
-      <c r="E16" s="2" t="inlineStr"/>
-      <c r="F16" s="2" t="inlineStr"/>
+      <c r="D16" s="2" t="n"/>
+      <c r="E16" s="2" t="n"/>
+      <c r="F16" s="2" t="n"/>
       <c r="G16" s="2" t="inlineStr">
         <is>
           <t>process</t>
@@ -1524,23 +1530,23 @@
           <t>Upper level</t>
         </is>
       </c>
-      <c r="J16" s="2" t="inlineStr"/>
-      <c r="K16" s="2" t="inlineStr"/>
-      <c r="L16" s="2" t="inlineStr"/>
+      <c r="J16" s="2" t="n"/>
+      <c r="K16" s="2" t="n"/>
+      <c r="L16" s="2" t="n"/>
       <c r="M16" s="2" t="inlineStr">
         <is>
           <t>BCI mechanism of action; MOA; BCI MOA</t>
         </is>
       </c>
-      <c r="N16" s="2" t="inlineStr"/>
-      <c r="O16" s="2" t="inlineStr"/>
-      <c r="P16" s="2" t="inlineStr"/>
+      <c r="N16" s="2" t="n"/>
+      <c r="O16" s="2" t="n"/>
+      <c r="P16" s="2" t="n"/>
       <c r="Q16" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="R16" s="2" t="inlineStr"/>
+      <c r="R16" s="2" t="n"/>
       <c r="S16" s="2" t="inlineStr">
         <is>
           <t>PS; JH; RW</t>
@@ -1551,8 +1557,8 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="U16" s="2" t="inlineStr"/>
-      <c r="V16" s="2" t="inlineStr"/>
+      <c r="U16" s="2" t="n"/>
+      <c r="V16" s="2" t="n"/>
     </row>
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
@@ -1570,9 +1576,9 @@
           <t>An attribute of a BCI delivery that is the physical or informational medium through which a BCI is provided.</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr"/>
-      <c r="E17" s="2" t="inlineStr"/>
-      <c r="F17" s="2" t="inlineStr"/>
+      <c r="D17" s="2" t="n"/>
+      <c r="E17" s="2" t="n"/>
+      <c r="F17" s="2" t="n"/>
       <c r="G17" s="2" t="inlineStr">
         <is>
           <t>BCI attribute</t>
@@ -1588,23 +1594,23 @@
           <t>Upper level</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr"/>
-      <c r="K17" s="2" t="inlineStr"/>
-      <c r="L17" s="2" t="inlineStr"/>
+      <c r="J17" s="2" t="n"/>
+      <c r="K17" s="2" t="n"/>
+      <c r="L17" s="2" t="n"/>
       <c r="M17" s="2" t="inlineStr">
         <is>
           <t>BCI mode of delivery; BCI MOD; MOD</t>
         </is>
       </c>
-      <c r="N17" s="2" t="inlineStr"/>
-      <c r="O17" s="2" t="inlineStr"/>
-      <c r="P17" s="2" t="inlineStr"/>
+      <c r="N17" s="2" t="n"/>
+      <c r="O17" s="2" t="n"/>
+      <c r="P17" s="2" t="n"/>
       <c r="Q17" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="R17" s="2" t="inlineStr"/>
+      <c r="R17" s="2" t="n"/>
       <c r="S17" s="2" t="inlineStr">
         <is>
           <t>JH; RW</t>
@@ -1615,8 +1621,8 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="U17" s="2" t="inlineStr"/>
-      <c r="V17" s="2" t="inlineStr"/>
+      <c r="U17" s="2" t="n"/>
+      <c r="V17" s="2" t="n"/>
     </row>
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
@@ -1634,33 +1640,33 @@
           <t>Human behaviour that is an intervention outcome.</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr"/>
-      <c r="E18" s="2" t="inlineStr"/>
-      <c r="F18" s="2" t="inlineStr"/>
+      <c r="D18" s="2" t="n"/>
+      <c r="E18" s="2" t="n"/>
+      <c r="F18" s="2" t="n"/>
       <c r="G18" s="2" t="inlineStr">
         <is>
           <t>human behaviour</t>
         </is>
       </c>
-      <c r="H18" s="2" t="inlineStr"/>
+      <c r="H18" s="2" t="n"/>
       <c r="I18" s="2" t="inlineStr">
         <is>
           <t>Upper level</t>
         </is>
       </c>
-      <c r="J18" s="2" t="inlineStr"/>
-      <c r="K18" s="2" t="inlineStr"/>
-      <c r="L18" s="2" t="inlineStr"/>
-      <c r="M18" s="2" t="inlineStr"/>
-      <c r="N18" s="2" t="inlineStr"/>
-      <c r="O18" s="2" t="inlineStr"/>
-      <c r="P18" s="2" t="inlineStr"/>
+      <c r="J18" s="2" t="n"/>
+      <c r="K18" s="2" t="n"/>
+      <c r="L18" s="2" t="n"/>
+      <c r="M18" s="2" t="n"/>
+      <c r="N18" s="2" t="n"/>
+      <c r="O18" s="2" t="n"/>
+      <c r="P18" s="2" t="n"/>
       <c r="Q18" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="R18" s="2" t="inlineStr"/>
+      <c r="R18" s="2" t="n"/>
       <c r="S18" s="2" t="inlineStr">
         <is>
           <t>JH; BG; PS</t>
@@ -1671,8 +1677,8 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="U18" s="2" t="inlineStr"/>
-      <c r="V18" s="2" t="inlineStr"/>
+      <c r="U18" s="2" t="n"/>
+      <c r="V18" s="2" t="n"/>
     </row>
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
@@ -1690,9 +1696,9 @@
           <t>A BCI evaluation finding that is about an outcome behaviour.</t>
         </is>
       </c>
-      <c r="D19" s="2" t="inlineStr"/>
-      <c r="E19" s="2" t="inlineStr"/>
-      <c r="F19" s="2" t="inlineStr"/>
+      <c r="D19" s="2" t="n"/>
+      <c r="E19" s="2" t="n"/>
+      <c r="F19" s="2" t="n"/>
       <c r="G19" s="2" t="inlineStr">
         <is>
           <t>behaviour change intervention evaluation finding</t>
@@ -1708,16 +1714,16 @@
           <t>Upper level</t>
         </is>
       </c>
-      <c r="J19" s="2" t="inlineStr"/>
-      <c r="K19" s="2" t="inlineStr"/>
-      <c r="L19" s="2" t="inlineStr"/>
+      <c r="J19" s="2" t="n"/>
+      <c r="K19" s="2" t="n"/>
+      <c r="L19" s="2" t="n"/>
       <c r="M19" s="2" t="inlineStr">
         <is>
           <t>BCI outcome estimate</t>
         </is>
       </c>
-      <c r="N19" s="2" t="inlineStr"/>
-      <c r="O19" s="2" t="inlineStr"/>
+      <c r="N19" s="2" t="n"/>
+      <c r="O19" s="2" t="n"/>
       <c r="P19" s="2" t="inlineStr">
         <is>
           <t>This includes as subclasses 1) type of outcome estimate (e.g. mean, percentage), 2) value of outcome estimate (e.g. 1.5 cigs per day, 23%), 3) uncertainty estimate type (e.g. 95% CI), and 4) uncertainty estimate value (e.g. 12.0%-45.0%).</t>
@@ -1728,7 +1734,7 @@
           <t>0</t>
         </is>
       </c>
-      <c r="R19" s="2" t="inlineStr"/>
+      <c r="R19" s="2" t="n"/>
       <c r="S19" s="2" t="inlineStr">
         <is>
           <t>JH; RW</t>
@@ -1739,8 +1745,8 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="U19" s="2" t="inlineStr"/>
-      <c r="V19" s="2" t="inlineStr"/>
+      <c r="U19" s="2" t="n"/>
+      <c r="V19" s="2" t="n"/>
     </row>
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
@@ -1758,37 +1764,37 @@
           <t>A physical environment in which a BCI is delivered.</t>
         </is>
       </c>
-      <c r="D20" s="2" t="inlineStr"/>
-      <c r="E20" s="2" t="inlineStr"/>
-      <c r="F20" s="2" t="inlineStr"/>
+      <c r="D20" s="2" t="n"/>
+      <c r="E20" s="2" t="n"/>
+      <c r="F20" s="2" t="n"/>
       <c r="G20" s="2" t="inlineStr">
         <is>
           <t>environmental system</t>
         </is>
       </c>
-      <c r="H20" s="2" t="inlineStr"/>
+      <c r="H20" s="2" t="n"/>
       <c r="I20" s="2" t="inlineStr">
         <is>
           <t>Upper level</t>
         </is>
       </c>
-      <c r="J20" s="2" t="inlineStr"/>
-      <c r="K20" s="2" t="inlineStr"/>
-      <c r="L20" s="2" t="inlineStr"/>
+      <c r="J20" s="2" t="n"/>
+      <c r="K20" s="2" t="n"/>
+      <c r="L20" s="2" t="n"/>
       <c r="M20" s="2" t="inlineStr">
         <is>
           <t>BCI physical setting</t>
         </is>
       </c>
-      <c r="N20" s="2" t="inlineStr"/>
-      <c r="O20" s="2" t="inlineStr"/>
-      <c r="P20" s="2" t="inlineStr"/>
+      <c r="N20" s="2" t="n"/>
+      <c r="O20" s="2" t="n"/>
+      <c r="P20" s="2" t="n"/>
       <c r="Q20" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="R20" s="2" t="inlineStr"/>
+      <c r="R20" s="2" t="n"/>
       <c r="S20" s="2" t="inlineStr">
         <is>
           <t>JH; RW</t>
@@ -1799,8 +1805,8 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="U20" s="2" t="inlineStr"/>
-      <c r="V20" s="2" t="inlineStr"/>
+      <c r="U20" s="2" t="n"/>
+      <c r="V20" s="2" t="n"/>
     </row>
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
@@ -1818,37 +1824,37 @@
           <t>An intervention population who are exposed to a behaviour change intervention.</t>
         </is>
       </c>
-      <c r="D21" s="2" t="inlineStr"/>
-      <c r="E21" s="2" t="inlineStr"/>
-      <c r="F21" s="2" t="inlineStr"/>
+      <c r="D21" s="2" t="n"/>
+      <c r="E21" s="2" t="n"/>
+      <c r="F21" s="2" t="n"/>
       <c r="G21" s="2" t="inlineStr">
         <is>
           <t>intervention population</t>
         </is>
       </c>
-      <c r="H21" s="2" t="inlineStr"/>
+      <c r="H21" s="2" t="n"/>
       <c r="I21" s="2" t="inlineStr">
         <is>
           <t>Upper level</t>
         </is>
       </c>
-      <c r="J21" s="2" t="inlineStr"/>
-      <c r="K21" s="2" t="inlineStr"/>
-      <c r="L21" s="2" t="inlineStr"/>
+      <c r="J21" s="2" t="n"/>
+      <c r="K21" s="2" t="n"/>
+      <c r="L21" s="2" t="n"/>
       <c r="M21" s="2" t="inlineStr">
         <is>
           <t>BCI population</t>
         </is>
       </c>
-      <c r="N21" s="2" t="inlineStr"/>
-      <c r="O21" s="2" t="inlineStr"/>
-      <c r="P21" s="2" t="inlineStr"/>
+      <c r="N21" s="2" t="n"/>
+      <c r="O21" s="2" t="n"/>
+      <c r="P21" s="2" t="n"/>
       <c r="Q21" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="R21" s="2" t="inlineStr"/>
+      <c r="R21" s="2" t="n"/>
       <c r="S21" s="2" t="inlineStr">
         <is>
           <t>JH; RW; PS</t>
@@ -1859,8 +1865,8 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="U21" s="2" t="inlineStr"/>
-      <c r="V21" s="2" t="inlineStr"/>
+      <c r="U21" s="2" t="n"/>
+      <c r="V21" s="2" t="n"/>
     </row>
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
@@ -1878,37 +1884,37 @@
           <t>A planned process in which a BCI is applied in a given context, including BCI engagement and outcome behaviour.</t>
         </is>
       </c>
-      <c r="D22" s="2" t="inlineStr"/>
-      <c r="E22" s="2" t="inlineStr"/>
-      <c r="F22" s="2" t="inlineStr"/>
+      <c r="D22" s="2" t="n"/>
+      <c r="E22" s="2" t="n"/>
+      <c r="F22" s="2" t="n"/>
       <c r="G22" s="2" t="inlineStr">
         <is>
           <t>planned process</t>
         </is>
       </c>
-      <c r="H22" s="2" t="inlineStr"/>
+      <c r="H22" s="2" t="n"/>
       <c r="I22" s="2" t="inlineStr">
         <is>
           <t>Upper level</t>
         </is>
       </c>
-      <c r="J22" s="2" t="inlineStr"/>
-      <c r="K22" s="2" t="inlineStr"/>
-      <c r="L22" s="2" t="inlineStr"/>
+      <c r="J22" s="2" t="n"/>
+      <c r="K22" s="2" t="n"/>
+      <c r="L22" s="2" t="n"/>
       <c r="M22" s="2" t="inlineStr">
         <is>
           <t>BCI scenario</t>
         </is>
       </c>
-      <c r="N22" s="2" t="inlineStr"/>
-      <c r="O22" s="2" t="inlineStr"/>
-      <c r="P22" s="2" t="inlineStr"/>
+      <c r="N22" s="2" t="n"/>
+      <c r="O22" s="2" t="n"/>
+      <c r="P22" s="2" t="n"/>
       <c r="Q22" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="R22" s="2" t="inlineStr"/>
+      <c r="R22" s="2" t="n"/>
       <c r="S22" s="2" t="inlineStr">
         <is>
           <t>JH; RW</t>
@@ -1919,8 +1925,8 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="U22" s="2" t="inlineStr"/>
-      <c r="V22" s="2" t="inlineStr"/>
+      <c r="U22" s="2" t="n"/>
+      <c r="V22" s="2" t="n"/>
     </row>
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
@@ -1938,37 +1944,37 @@
           <t>A plan that is realized in a BCI scenario process.</t>
         </is>
       </c>
-      <c r="D23" s="2" t="inlineStr"/>
-      <c r="E23" s="2" t="inlineStr"/>
-      <c r="F23" s="2" t="inlineStr"/>
+      <c r="D23" s="2" t="n"/>
+      <c r="E23" s="2" t="n"/>
+      <c r="F23" s="2" t="n"/>
       <c r="G23" s="2" t="inlineStr">
         <is>
           <t>plan</t>
         </is>
       </c>
-      <c r="H23" s="2" t="inlineStr"/>
+      <c r="H23" s="2" t="n"/>
       <c r="I23" s="2" t="inlineStr">
         <is>
           <t>Upper level</t>
         </is>
       </c>
-      <c r="J23" s="2" t="inlineStr"/>
-      <c r="K23" s="2" t="inlineStr"/>
-      <c r="L23" s="2" t="inlineStr"/>
+      <c r="J23" s="2" t="n"/>
+      <c r="K23" s="2" t="n"/>
+      <c r="L23" s="2" t="n"/>
       <c r="M23" s="2" t="inlineStr">
         <is>
           <t>BCI scenario plan</t>
         </is>
       </c>
-      <c r="N23" s="2" t="inlineStr"/>
-      <c r="O23" s="2" t="inlineStr"/>
-      <c r="P23" s="2" t="inlineStr"/>
+      <c r="N23" s="2" t="n"/>
+      <c r="O23" s="2" t="n"/>
+      <c r="P23" s="2" t="n"/>
       <c r="Q23" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="R23" s="2" t="inlineStr"/>
+      <c r="R23" s="2" t="n"/>
       <c r="S23" s="2" t="inlineStr">
         <is>
           <t>JH; RW</t>
@@ -1979,8 +1985,8 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="U23" s="2" t="inlineStr"/>
-      <c r="V23" s="2" t="inlineStr"/>
+      <c r="U23" s="2" t="n"/>
+      <c r="V23" s="2" t="n"/>
     </row>
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
@@ -1998,37 +2004,37 @@
           <t>A report that describes a BCI scenario.</t>
         </is>
       </c>
-      <c r="D24" s="2" t="inlineStr"/>
-      <c r="E24" s="2" t="inlineStr"/>
-      <c r="F24" s="2" t="inlineStr"/>
+      <c r="D24" s="2" t="n"/>
+      <c r="E24" s="2" t="n"/>
+      <c r="F24" s="2" t="n"/>
       <c r="G24" s="2" t="inlineStr">
         <is>
           <t>report</t>
         </is>
       </c>
-      <c r="H24" s="2" t="inlineStr"/>
+      <c r="H24" s="2" t="n"/>
       <c r="I24" s="2" t="inlineStr">
         <is>
           <t>Upper level</t>
         </is>
       </c>
-      <c r="J24" s="2" t="inlineStr"/>
-      <c r="K24" s="2" t="inlineStr"/>
-      <c r="L24" s="2" t="inlineStr"/>
+      <c r="J24" s="2" t="n"/>
+      <c r="K24" s="2" t="n"/>
+      <c r="L24" s="2" t="n"/>
       <c r="M24" s="2" t="inlineStr">
         <is>
           <t>BCI scenario report</t>
         </is>
       </c>
-      <c r="N24" s="2" t="inlineStr"/>
-      <c r="O24" s="2" t="inlineStr"/>
-      <c r="P24" s="2" t="inlineStr"/>
+      <c r="N24" s="2" t="n"/>
+      <c r="O24" s="2" t="n"/>
+      <c r="P24" s="2" t="n"/>
       <c r="Q24" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="R24" s="2" t="inlineStr"/>
+      <c r="R24" s="2" t="n"/>
       <c r="S24" s="2" t="inlineStr">
         <is>
           <t>JH; RW</t>
@@ -2039,8 +2045,8 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="U24" s="2" t="inlineStr"/>
-      <c r="V24" s="2" t="inlineStr"/>
+      <c r="U24" s="2" t="n"/>
+      <c r="V24" s="2" t="n"/>
     </row>
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
@@ -2058,30 +2064,30 @@
           <t>A BCI attribute that involves its temporal organisation.</t>
         </is>
       </c>
-      <c r="D25" s="2" t="inlineStr"/>
-      <c r="E25" s="2" t="inlineStr"/>
-      <c r="F25" s="2" t="inlineStr"/>
+      <c r="D25" s="2" t="n"/>
+      <c r="E25" s="2" t="n"/>
+      <c r="F25" s="2" t="n"/>
       <c r="G25" s="2" t="inlineStr">
         <is>
           <t>BCI attribute</t>
         </is>
       </c>
-      <c r="H25" s="2" t="inlineStr"/>
+      <c r="H25" s="2" t="n"/>
       <c r="I25" s="2" t="inlineStr">
         <is>
           <t>Upper level</t>
         </is>
       </c>
-      <c r="J25" s="2" t="inlineStr"/>
-      <c r="K25" s="2" t="inlineStr"/>
-      <c r="L25" s="2" t="inlineStr"/>
+      <c r="J25" s="2" t="n"/>
+      <c r="K25" s="2" t="n"/>
+      <c r="L25" s="2" t="n"/>
       <c r="M25" s="2" t="inlineStr">
         <is>
           <t>BCI schedule of delivery</t>
         </is>
       </c>
-      <c r="N25" s="2" t="inlineStr"/>
-      <c r="O25" s="2" t="inlineStr"/>
+      <c r="N25" s="2" t="n"/>
+      <c r="O25" s="2" t="n"/>
       <c r="P25" s="2" t="inlineStr">
         <is>
           <t>Includes the start and end of the BCI and its parts.</t>
@@ -2092,7 +2098,7 @@
           <t>0</t>
         </is>
       </c>
-      <c r="R25" s="2" t="inlineStr"/>
+      <c r="R25" s="2" t="n"/>
       <c r="S25" s="2" t="inlineStr">
         <is>
           <t>JH; RW</t>
@@ -2103,8 +2109,8 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="U25" s="2" t="inlineStr"/>
-      <c r="V25" s="2" t="inlineStr"/>
+      <c r="U25" s="2" t="n"/>
+      <c r="V25" s="2" t="n"/>
     </row>
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
@@ -2122,30 +2128,30 @@
           <t xml:space="preserve">An aggregate of entities that form the environment in which a BCI is provided. </t>
         </is>
       </c>
-      <c r="D26" s="2" t="inlineStr"/>
-      <c r="E26" s="2" t="inlineStr"/>
-      <c r="F26" s="2" t="inlineStr"/>
+      <c r="D26" s="2" t="n"/>
+      <c r="E26" s="2" t="n"/>
+      <c r="F26" s="2" t="n"/>
       <c r="G26" s="2" t="inlineStr">
         <is>
           <t>object aggregate</t>
         </is>
       </c>
-      <c r="H26" s="2" t="inlineStr"/>
+      <c r="H26" s="2" t="n"/>
       <c r="I26" s="2" t="inlineStr">
         <is>
           <t>Upper level</t>
         </is>
       </c>
-      <c r="J26" s="2" t="inlineStr"/>
-      <c r="K26" s="2" t="inlineStr"/>
-      <c r="L26" s="2" t="inlineStr"/>
+      <c r="J26" s="2" t="n"/>
+      <c r="K26" s="2" t="n"/>
+      <c r="L26" s="2" t="n"/>
       <c r="M26" s="2" t="inlineStr">
         <is>
           <t>BCI setting</t>
         </is>
       </c>
-      <c r="N26" s="2" t="inlineStr"/>
-      <c r="O26" s="2" t="inlineStr"/>
+      <c r="N26" s="2" t="n"/>
+      <c r="O26" s="2" t="n"/>
       <c r="P26" s="2" t="inlineStr">
         <is>
           <t>Includes as parts social setting and physical setting.</t>
@@ -2156,7 +2162,7 @@
           <t>0</t>
         </is>
       </c>
-      <c r="R26" s="2" t="inlineStr"/>
+      <c r="R26" s="2" t="n"/>
       <c r="S26" s="2" t="inlineStr">
         <is>
           <t>JH; RW</t>
@@ -2167,8 +2173,8 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="U26" s="2" t="inlineStr"/>
-      <c r="V26" s="2" t="inlineStr"/>
+      <c r="U26" s="2" t="n"/>
+      <c r="V26" s="2" t="n"/>
     </row>
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
@@ -2186,37 +2192,37 @@
           <t>An aggregate of people with whom a BCI population interacts.</t>
         </is>
       </c>
-      <c r="D27" s="2" t="inlineStr"/>
-      <c r="E27" s="2" t="inlineStr"/>
-      <c r="F27" s="2" t="inlineStr"/>
+      <c r="D27" s="2" t="n"/>
+      <c r="E27" s="2" t="n"/>
+      <c r="F27" s="2" t="n"/>
       <c r="G27" s="2" t="inlineStr">
         <is>
           <t>human population</t>
         </is>
       </c>
-      <c r="H27" s="2" t="inlineStr"/>
+      <c r="H27" s="2" t="n"/>
       <c r="I27" s="2" t="inlineStr">
         <is>
           <t>Upper level</t>
         </is>
       </c>
-      <c r="J27" s="2" t="inlineStr"/>
-      <c r="K27" s="2" t="inlineStr"/>
-      <c r="L27" s="2" t="inlineStr"/>
+      <c r="J27" s="2" t="n"/>
+      <c r="K27" s="2" t="n"/>
+      <c r="L27" s="2" t="n"/>
       <c r="M27" s="2" t="inlineStr">
         <is>
           <t>BCI social setting</t>
         </is>
       </c>
-      <c r="N27" s="2" t="inlineStr"/>
-      <c r="O27" s="2" t="inlineStr"/>
-      <c r="P27" s="2" t="inlineStr"/>
+      <c r="N27" s="2" t="n"/>
+      <c r="O27" s="2" t="n"/>
+      <c r="P27" s="2" t="n"/>
       <c r="Q27" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="R27" s="2" t="inlineStr"/>
+      <c r="R27" s="2" t="n"/>
       <c r="S27" s="2" t="inlineStr">
         <is>
           <t>JH; RW</t>
@@ -2227,8 +2233,8 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="U27" s="2" t="inlineStr"/>
-      <c r="V27" s="2" t="inlineStr"/>
+      <c r="U27" s="2" t="n"/>
+      <c r="V27" s="2" t="n"/>
     </row>
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
@@ -2246,30 +2252,30 @@
           <t>A role played by a person, population or organisation that provides a BCI.</t>
         </is>
       </c>
-      <c r="D28" s="2" t="inlineStr"/>
-      <c r="E28" s="2" t="inlineStr"/>
-      <c r="F28" s="2" t="inlineStr"/>
+      <c r="D28" s="2" t="n"/>
+      <c r="E28" s="2" t="n"/>
+      <c r="F28" s="2" t="n"/>
       <c r="G28" s="2" t="inlineStr">
         <is>
           <t>role</t>
         </is>
       </c>
-      <c r="H28" s="2" t="inlineStr"/>
+      <c r="H28" s="2" t="n"/>
       <c r="I28" s="2" t="inlineStr">
         <is>
           <t>Upper level</t>
         </is>
       </c>
-      <c r="J28" s="2" t="inlineStr"/>
-      <c r="K28" s="2" t="inlineStr"/>
-      <c r="L28" s="2" t="inlineStr"/>
+      <c r="J28" s="2" t="n"/>
+      <c r="K28" s="2" t="n"/>
+      <c r="L28" s="2" t="n"/>
       <c r="M28" s="2" t="inlineStr">
         <is>
           <t>BCI source</t>
         </is>
       </c>
-      <c r="N28" s="2" t="inlineStr"/>
-      <c r="O28" s="2" t="inlineStr"/>
+      <c r="N28" s="2" t="n"/>
+      <c r="O28" s="2" t="n"/>
       <c r="P28" s="2" t="inlineStr">
         <is>
           <t>This includes individual people, groups of people, and organisations.</t>
@@ -2280,7 +2286,7 @@
           <t>0</t>
         </is>
       </c>
-      <c r="R28" s="2" t="inlineStr"/>
+      <c r="R28" s="2" t="n"/>
       <c r="S28" s="2" t="inlineStr">
         <is>
           <t>JH; RW</t>
@@ -2291,8 +2297,8 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="U28" s="2" t="inlineStr"/>
-      <c r="V28" s="2" t="inlineStr"/>
+      <c r="U28" s="2" t="n"/>
+      <c r="V28" s="2" t="n"/>
     </row>
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
@@ -2310,30 +2316,30 @@
           <t>A role played by a person that contributes substantively to production or reporting of a BCI evaluation study.</t>
         </is>
       </c>
-      <c r="D29" s="2" t="inlineStr"/>
-      <c r="E29" s="2" t="inlineStr"/>
-      <c r="F29" s="2" t="inlineStr"/>
+      <c r="D29" s="2" t="n"/>
+      <c r="E29" s="2" t="n"/>
+      <c r="F29" s="2" t="n"/>
       <c r="G29" s="2" t="inlineStr">
         <is>
           <t>role</t>
         </is>
       </c>
-      <c r="H29" s="2" t="inlineStr"/>
+      <c r="H29" s="2" t="n"/>
       <c r="I29" s="2" t="inlineStr">
         <is>
           <t>Upper level</t>
         </is>
       </c>
-      <c r="J29" s="2" t="inlineStr"/>
-      <c r="K29" s="2" t="inlineStr"/>
-      <c r="L29" s="2" t="inlineStr"/>
+      <c r="J29" s="2" t="n"/>
+      <c r="K29" s="2" t="n"/>
+      <c r="L29" s="2" t="n"/>
       <c r="M29" s="2" t="inlineStr">
         <is>
           <t>BCI study investigator</t>
         </is>
       </c>
-      <c r="N29" s="2" t="inlineStr"/>
-      <c r="O29" s="2" t="inlineStr"/>
+      <c r="N29" s="2" t="n"/>
+      <c r="O29" s="2" t="n"/>
       <c r="P29" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">What counts as substantively is subject to judgement. The level and nature of the contribution can be defined using the CReDiT taxonomy (https://casrai.org/credit/). </t>
@@ -2344,7 +2350,7 @@
           <t>0</t>
         </is>
       </c>
-      <c r="R29" s="2" t="inlineStr"/>
+      <c r="R29" s="2" t="n"/>
       <c r="S29" s="2" t="inlineStr">
         <is>
           <t>JH; RW</t>
@@ -2355,8 +2361,8 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="U29" s="2" t="inlineStr"/>
-      <c r="V29" s="2" t="inlineStr"/>
+      <c r="U29" s="2" t="n"/>
+      <c r="V29" s="2" t="n"/>
     </row>
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
@@ -2374,37 +2380,37 @@
           <t>A research study sample whose behaviour is studied in a BCI evaluation study.</t>
         </is>
       </c>
-      <c r="D30" s="2" t="inlineStr"/>
-      <c r="E30" s="2" t="inlineStr"/>
-      <c r="F30" s="2" t="inlineStr"/>
+      <c r="D30" s="2" t="n"/>
+      <c r="E30" s="2" t="n"/>
+      <c r="F30" s="2" t="n"/>
       <c r="G30" s="2" t="inlineStr">
         <is>
           <t>research study sample</t>
         </is>
       </c>
-      <c r="H30" s="2" t="inlineStr"/>
+      <c r="H30" s="2" t="n"/>
       <c r="I30" s="2" t="inlineStr">
         <is>
           <t>Upper level</t>
         </is>
       </c>
-      <c r="J30" s="2" t="inlineStr"/>
-      <c r="K30" s="2" t="inlineStr"/>
-      <c r="L30" s="2" t="inlineStr"/>
+      <c r="J30" s="2" t="n"/>
+      <c r="K30" s="2" t="n"/>
+      <c r="L30" s="2" t="n"/>
       <c r="M30" s="2" t="inlineStr">
         <is>
           <t>BCI study sample</t>
         </is>
       </c>
-      <c r="N30" s="2" t="inlineStr"/>
-      <c r="O30" s="2" t="inlineStr"/>
-      <c r="P30" s="2" t="inlineStr"/>
+      <c r="N30" s="2" t="n"/>
+      <c r="O30" s="2" t="n"/>
+      <c r="P30" s="2" t="n"/>
       <c r="Q30" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="R30" s="2" t="inlineStr"/>
+      <c r="R30" s="2" t="n"/>
       <c r="S30" s="2" t="inlineStr">
         <is>
           <t>JH; RW; PS</t>
@@ -2415,8 +2421,8 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="U30" s="2" t="inlineStr"/>
-      <c r="V30" s="2" t="inlineStr"/>
+      <c r="U30" s="2" t="n"/>
+      <c r="V30" s="2" t="n"/>
     </row>
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
@@ -2434,30 +2440,30 @@
           <t>A communication style that is an attribute of a BCI content communication process.</t>
         </is>
       </c>
-      <c r="D31" s="2" t="inlineStr"/>
-      <c r="E31" s="2" t="inlineStr"/>
-      <c r="F31" s="2" t="inlineStr"/>
+      <c r="D31" s="2" t="n"/>
+      <c r="E31" s="2" t="n"/>
+      <c r="F31" s="2" t="n"/>
       <c r="G31" s="2" t="inlineStr">
         <is>
           <t>communication style</t>
         </is>
       </c>
-      <c r="H31" s="2" t="inlineStr"/>
+      <c r="H31" s="2" t="n"/>
       <c r="I31" s="2" t="inlineStr">
         <is>
           <t>Upper level</t>
         </is>
       </c>
-      <c r="J31" s="2" t="inlineStr"/>
-      <c r="K31" s="2" t="inlineStr"/>
-      <c r="L31" s="2" t="inlineStr"/>
+      <c r="J31" s="2" t="n"/>
+      <c r="K31" s="2" t="n"/>
+      <c r="L31" s="2" t="n"/>
       <c r="M31" s="2" t="inlineStr">
         <is>
           <t>BCI style of delivery</t>
         </is>
       </c>
-      <c r="N31" s="2" t="inlineStr"/>
-      <c r="O31" s="2" t="inlineStr"/>
+      <c r="N31" s="2" t="n"/>
+      <c r="O31" s="2" t="n"/>
       <c r="P31" s="2" t="inlineStr">
         <is>
           <t>An example is cold and distant vs. warm and accepting.</t>
@@ -2468,7 +2474,7 @@
           <t>0</t>
         </is>
       </c>
-      <c r="R31" s="2" t="inlineStr"/>
+      <c r="R31" s="2" t="n"/>
       <c r="S31" s="2" t="inlineStr">
         <is>
           <t>JH; RW</t>
@@ -2479,8 +2485,8 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="U31" s="2" t="inlineStr"/>
-      <c r="V31" s="2" t="inlineStr"/>
+      <c r="U31" s="2" t="n"/>
+      <c r="V31" s="2" t="n"/>
     </row>
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
@@ -2503,28 +2509,28 @@
           <t>An attribute of a behaviour change intervention (BCI) or a BCI component whereby its content or delivery is varied according to characteristics of members of the target population or setting.</t>
         </is>
       </c>
-      <c r="E32" s="2" t="inlineStr"/>
-      <c r="F32" s="2" t="inlineStr"/>
+      <c r="E32" s="2" t="n"/>
+      <c r="F32" s="2" t="n"/>
       <c r="G32" s="2" t="inlineStr">
         <is>
           <t>BCI attribute</t>
         </is>
       </c>
-      <c r="H32" s="2" t="inlineStr"/>
+      <c r="H32" s="2" t="n"/>
       <c r="I32" s="2" t="inlineStr">
         <is>
           <t>Upper level</t>
         </is>
       </c>
-      <c r="J32" s="2" t="inlineStr"/>
-      <c r="K32" s="2" t="inlineStr"/>
-      <c r="L32" s="2" t="inlineStr"/>
+      <c r="J32" s="2" t="n"/>
+      <c r="K32" s="2" t="n"/>
+      <c r="L32" s="2" t="n"/>
       <c r="M32" s="2" t="inlineStr">
         <is>
           <t>BCI tailoring</t>
         </is>
       </c>
-      <c r="N32" s="2" t="inlineStr"/>
+      <c r="N32" s="2" t="n"/>
       <c r="O32" s="2" t="inlineStr">
         <is>
           <t>Tailoring can be static (i.e., conducted before intervention delivery in a case case), or dynamic (i.e., conducted one or more times after the intervention has started in a given case based on population or setting characteristics present at that time. Population and setting characteristics include the historical factors such as prior exposure to the intervention.</t>
@@ -2540,7 +2546,7 @@
           <t>0</t>
         </is>
       </c>
-      <c r="R32" s="2" t="inlineStr"/>
+      <c r="R32" s="2" t="n"/>
       <c r="S32" s="2" t="inlineStr">
         <is>
           <t>JH; RW</t>
@@ -2551,8 +2557,8 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="U32" s="2" t="inlineStr"/>
-      <c r="V32" s="2" t="inlineStr"/>
+      <c r="U32" s="2" t="n"/>
+      <c r="V32" s="2" t="n"/>
     </row>
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
@@ -2570,37 +2576,37 @@
           <t>The aggregate of processes taking place at the same time as a behaviour change intervention.</t>
         </is>
       </c>
-      <c r="D33" s="2" t="inlineStr"/>
-      <c r="E33" s="2" t="inlineStr"/>
-      <c r="F33" s="2" t="inlineStr"/>
+      <c r="D33" s="2" t="n"/>
+      <c r="E33" s="2" t="n"/>
+      <c r="F33" s="2" t="n"/>
       <c r="G33" s="2" t="inlineStr">
         <is>
           <t>process</t>
         </is>
       </c>
-      <c r="H33" s="2" t="inlineStr"/>
+      <c r="H33" s="2" t="n"/>
       <c r="I33" s="2" t="inlineStr">
         <is>
           <t>Upper level</t>
         </is>
       </c>
-      <c r="J33" s="2" t="inlineStr"/>
-      <c r="K33" s="2" t="inlineStr"/>
-      <c r="L33" s="2" t="inlineStr"/>
+      <c r="J33" s="2" t="n"/>
+      <c r="K33" s="2" t="n"/>
+      <c r="L33" s="2" t="n"/>
       <c r="M33" s="2" t="inlineStr">
         <is>
           <t>BCI temporal context</t>
         </is>
       </c>
-      <c r="N33" s="2" t="inlineStr"/>
-      <c r="O33" s="2" t="inlineStr"/>
-      <c r="P33" s="2" t="inlineStr"/>
+      <c r="N33" s="2" t="n"/>
+      <c r="O33" s="2" t="n"/>
+      <c r="P33" s="2" t="n"/>
       <c r="Q33" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="R33" s="2" t="inlineStr"/>
+      <c r="R33" s="2" t="n"/>
       <c r="S33" s="2" t="inlineStr">
         <is>
           <t>JH; RW</t>
@@ -2611,8 +2617,8 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="U33" s="2" t="inlineStr"/>
-      <c r="V33" s="2" t="inlineStr"/>
+      <c r="U33" s="2" t="n"/>
+      <c r="V33" s="2" t="n"/>
     </row>
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
@@ -2630,37 +2636,37 @@
           <t xml:space="preserve">An event which occurs during a behaviour change intervention temporal context. </t>
         </is>
       </c>
-      <c r="D34" s="2" t="inlineStr"/>
-      <c r="E34" s="2" t="inlineStr"/>
-      <c r="F34" s="2" t="inlineStr"/>
+      <c r="D34" s="2" t="n"/>
+      <c r="E34" s="2" t="n"/>
+      <c r="F34" s="2" t="n"/>
       <c r="G34" s="2" t="inlineStr">
         <is>
           <t>behaviour change intervention temporal context</t>
         </is>
       </c>
-      <c r="H34" s="2" t="inlineStr"/>
+      <c r="H34" s="2" t="n"/>
       <c r="I34" s="2" t="inlineStr">
         <is>
           <t>Upper level</t>
         </is>
       </c>
-      <c r="J34" s="2" t="inlineStr"/>
-      <c r="K34" s="2" t="inlineStr"/>
-      <c r="L34" s="2" t="inlineStr"/>
+      <c r="J34" s="2" t="n"/>
+      <c r="K34" s="2" t="n"/>
+      <c r="L34" s="2" t="n"/>
       <c r="M34" s="2" t="inlineStr">
         <is>
           <t>BCI temporal context event</t>
         </is>
       </c>
-      <c r="N34" s="2" t="inlineStr"/>
-      <c r="O34" s="2" t="inlineStr"/>
-      <c r="P34" s="2" t="inlineStr"/>
+      <c r="N34" s="2" t="n"/>
+      <c r="O34" s="2" t="n"/>
+      <c r="P34" s="2" t="n"/>
       <c r="Q34" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="R34" s="2" t="inlineStr"/>
+      <c r="R34" s="2" t="n"/>
       <c r="S34" s="2" t="inlineStr">
         <is>
           <t>JH; RW</t>
@@ -2671,8 +2677,8 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="U34" s="2" t="inlineStr"/>
-      <c r="V34" s="2" t="inlineStr"/>
+      <c r="U34" s="2" t="n"/>
+      <c r="V34" s="2" t="n"/>
     </row>
     <row r="35">
       <c r="A35" s="2" t="inlineStr">
@@ -2690,37 +2696,37 @@
           <t>A &lt;planned process&gt; that is the smallest part of BCI content that is observable, replicable and on its own has the potential to bring about behaviour change.</t>
         </is>
       </c>
-      <c r="D35" s="2" t="inlineStr"/>
-      <c r="E35" s="2" t="inlineStr"/>
-      <c r="F35" s="2" t="inlineStr"/>
+      <c r="D35" s="2" t="n"/>
+      <c r="E35" s="2" t="n"/>
+      <c r="F35" s="2" t="n"/>
       <c r="G35" s="2" t="inlineStr">
         <is>
           <t>planned process</t>
         </is>
       </c>
-      <c r="H35" s="2" t="inlineStr"/>
+      <c r="H35" s="2" t="n"/>
       <c r="I35" s="2" t="inlineStr">
         <is>
           <t>Upper level</t>
         </is>
       </c>
-      <c r="J35" s="2" t="inlineStr"/>
-      <c r="K35" s="2" t="inlineStr"/>
-      <c r="L35" s="2" t="inlineStr"/>
+      <c r="J35" s="2" t="n"/>
+      <c r="K35" s="2" t="n"/>
+      <c r="L35" s="2" t="n"/>
       <c r="M35" s="2" t="inlineStr">
         <is>
           <t>BCT</t>
         </is>
       </c>
-      <c r="N35" s="2" t="inlineStr"/>
-      <c r="O35" s="2" t="inlineStr"/>
-      <c r="P35" s="2" t="inlineStr"/>
+      <c r="N35" s="2" t="n"/>
+      <c r="O35" s="2" t="n"/>
+      <c r="P35" s="2" t="n"/>
       <c r="Q35" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="R35" s="2" t="inlineStr"/>
+      <c r="R35" s="2" t="n"/>
       <c r="S35" s="2" t="inlineStr">
         <is>
           <t>JH; RW; PS</t>
@@ -2731,8 +2737,8 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="U35" s="2" t="inlineStr"/>
-      <c r="V35" s="2" t="inlineStr"/>
+      <c r="U35" s="2" t="n"/>
+      <c r="V35" s="2" t="n"/>
     </row>
     <row r="36">
       <c r="A36" s="2" t="inlineStr">
@@ -2750,33 +2756,33 @@
           <t>An attribute of a communication process.</t>
         </is>
       </c>
-      <c r="D36" s="2" t="inlineStr"/>
-      <c r="E36" s="2" t="inlineStr"/>
-      <c r="F36" s="2" t="inlineStr"/>
+      <c r="D36" s="2" t="n"/>
+      <c r="E36" s="2" t="n"/>
+      <c r="F36" s="2" t="n"/>
       <c r="G36" s="2" t="inlineStr">
         <is>
           <t>process attribute</t>
         </is>
       </c>
-      <c r="H36" s="2" t="inlineStr"/>
+      <c r="H36" s="2" t="n"/>
       <c r="I36" s="2" t="inlineStr">
         <is>
           <t>Upper level</t>
         </is>
       </c>
-      <c r="J36" s="2" t="inlineStr"/>
-      <c r="K36" s="2" t="inlineStr"/>
-      <c r="L36" s="2" t="inlineStr"/>
-      <c r="M36" s="2" t="inlineStr"/>
-      <c r="N36" s="2" t="inlineStr"/>
-      <c r="O36" s="2" t="inlineStr"/>
-      <c r="P36" s="2" t="inlineStr"/>
+      <c r="J36" s="2" t="n"/>
+      <c r="K36" s="2" t="n"/>
+      <c r="L36" s="2" t="n"/>
+      <c r="M36" s="2" t="n"/>
+      <c r="N36" s="2" t="n"/>
+      <c r="O36" s="2" t="n"/>
+      <c r="P36" s="2" t="n"/>
       <c r="Q36" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="R36" s="2" t="inlineStr"/>
+      <c r="R36" s="2" t="n"/>
       <c r="S36" s="2" t="inlineStr">
         <is>
           <t>JH; PS</t>
@@ -2787,8 +2793,8 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="U36" s="2" t="inlineStr"/>
-      <c r="V36" s="2" t="inlineStr"/>
+      <c r="U36" s="2" t="n"/>
+      <c r="V36" s="2" t="n"/>
     </row>
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
@@ -2806,33 +2812,33 @@
           <t>A particular manner of communicating aimed at inducing or avoiding certain kinds of responses in others, or demonstrating certain characteristics of the initiator.</t>
         </is>
       </c>
-      <c r="D37" s="2" t="inlineStr"/>
-      <c r="E37" s="2" t="inlineStr"/>
-      <c r="F37" s="2" t="inlineStr"/>
+      <c r="D37" s="2" t="n"/>
+      <c r="E37" s="2" t="n"/>
+      <c r="F37" s="2" t="n"/>
       <c r="G37" s="2" t="inlineStr">
         <is>
           <t>communication process attribute</t>
         </is>
       </c>
-      <c r="H37" s="2" t="inlineStr"/>
+      <c r="H37" s="2" t="n"/>
       <c r="I37" s="2" t="inlineStr">
         <is>
           <t>Upper level</t>
         </is>
       </c>
-      <c r="J37" s="2" t="inlineStr"/>
-      <c r="K37" s="2" t="inlineStr"/>
-      <c r="L37" s="2" t="inlineStr"/>
-      <c r="M37" s="2" t="inlineStr"/>
-      <c r="N37" s="2" t="inlineStr"/>
-      <c r="O37" s="2" t="inlineStr"/>
-      <c r="P37" s="2" t="inlineStr"/>
+      <c r="J37" s="2" t="n"/>
+      <c r="K37" s="2" t="n"/>
+      <c r="L37" s="2" t="n"/>
+      <c r="M37" s="2" t="n"/>
+      <c r="N37" s="2" t="n"/>
+      <c r="O37" s="2" t="n"/>
+      <c r="P37" s="2" t="n"/>
       <c r="Q37" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="R37" s="2" t="inlineStr"/>
+      <c r="R37" s="2" t="n"/>
       <c r="S37" s="2" t="inlineStr">
         <is>
           <t>JH</t>
@@ -2843,8 +2849,8 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="U37" s="2" t="inlineStr"/>
-      <c r="V37" s="2" t="inlineStr"/>
+      <c r="U37" s="2" t="n"/>
+      <c r="V37" s="2" t="n"/>
     </row>
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
@@ -2862,33 +2868,33 @@
           <t>A data item that is the output of an intervention evaluation study.</t>
         </is>
       </c>
-      <c r="D38" s="2" t="inlineStr"/>
-      <c r="E38" s="2" t="inlineStr"/>
-      <c r="F38" s="2" t="inlineStr"/>
+      <c r="D38" s="2" t="n"/>
+      <c r="E38" s="2" t="n"/>
+      <c r="F38" s="2" t="n"/>
       <c r="G38" s="2" t="inlineStr">
         <is>
           <t>data item</t>
         </is>
       </c>
-      <c r="H38" s="2" t="inlineStr"/>
+      <c r="H38" s="2" t="n"/>
       <c r="I38" s="2" t="inlineStr">
         <is>
           <t>Upper level</t>
         </is>
       </c>
-      <c r="J38" s="2" t="inlineStr"/>
-      <c r="K38" s="2" t="inlineStr"/>
-      <c r="L38" s="2" t="inlineStr"/>
-      <c r="M38" s="2" t="inlineStr"/>
-      <c r="N38" s="2" t="inlineStr"/>
-      <c r="O38" s="2" t="inlineStr"/>
-      <c r="P38" s="2" t="inlineStr"/>
+      <c r="J38" s="2" t="n"/>
+      <c r="K38" s="2" t="n"/>
+      <c r="L38" s="2" t="n"/>
+      <c r="M38" s="2" t="n"/>
+      <c r="N38" s="2" t="n"/>
+      <c r="O38" s="2" t="n"/>
+      <c r="P38" s="2" t="n"/>
       <c r="Q38" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="R38" s="2" t="inlineStr"/>
+      <c r="R38" s="2" t="n"/>
       <c r="S38" s="2" t="inlineStr">
         <is>
           <t>JH; RW</t>
@@ -2899,8 +2905,8 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="U38" s="2" t="inlineStr"/>
-      <c r="V38" s="2" t="inlineStr"/>
+      <c r="U38" s="2" t="n"/>
+      <c r="V38" s="2" t="n"/>
     </row>
     <row r="39">
       <c r="A39" s="3" t="inlineStr">
@@ -2918,37 +2924,37 @@
           <t>Cognitive exertion expended on a behaviour that is high.</t>
         </is>
       </c>
-      <c r="D39" s="3" t="inlineStr"/>
-      <c r="E39" s="3" t="inlineStr"/>
-      <c r="F39" s="3" t="inlineStr"/>
+      <c r="D39" s="3" t="n"/>
+      <c r="E39" s="3" t="n"/>
+      <c r="F39" s="3" t="n"/>
       <c r="G39" s="3" t="inlineStr">
         <is>
           <t>cognitive exertion expended on a behaviour</t>
         </is>
       </c>
-      <c r="H39" s="3" t="inlineStr"/>
+      <c r="H39" s="3" t="n"/>
       <c r="I39" s="3" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
       </c>
-      <c r="J39" s="3" t="inlineStr"/>
-      <c r="K39" s="3" t="inlineStr"/>
-      <c r="L39" s="3" t="inlineStr"/>
-      <c r="M39" s="3" t="inlineStr"/>
-      <c r="N39" s="3" t="inlineStr"/>
+      <c r="J39" s="3" t="n"/>
+      <c r="K39" s="3" t="n"/>
+      <c r="L39" s="3" t="n"/>
+      <c r="M39" s="3" t="n"/>
+      <c r="N39" s="3" t="n"/>
       <c r="O39" s="3" t="inlineStr">
         <is>
           <t>High cognitive exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what high exertion means based on the measurement you use).</t>
         </is>
       </c>
-      <c r="P39" s="3" t="inlineStr"/>
+      <c r="P39" s="3" t="n"/>
       <c r="Q39" s="3" t="inlineStr">
         <is>
           <t>true</t>
         </is>
       </c>
-      <c r="R39" s="3" t="inlineStr"/>
+      <c r="R39" s="3" t="n"/>
       <c r="S39" s="3" t="inlineStr">
         <is>
           <t>PS</t>
@@ -2959,8 +2965,8 @@
           <t>Obsolete</t>
         </is>
       </c>
-      <c r="U39" s="3" t="inlineStr"/>
-      <c r="V39" s="3" t="inlineStr"/>
+      <c r="U39" s="3" t="n"/>
+      <c r="V39" s="3" t="n"/>
     </row>
     <row r="40">
       <c r="A40" s="3" t="inlineStr">
@@ -2978,37 +2984,37 @@
           <t>Emotional management exertion expended on a behaviour that is high.</t>
         </is>
       </c>
-      <c r="D40" s="3" t="inlineStr"/>
-      <c r="E40" s="3" t="inlineStr"/>
-      <c r="F40" s="3" t="inlineStr"/>
+      <c r="D40" s="3" t="n"/>
+      <c r="E40" s="3" t="n"/>
+      <c r="F40" s="3" t="n"/>
       <c r="G40" s="3" t="inlineStr">
         <is>
           <t>emotional management exertion expended on a behaviour</t>
         </is>
       </c>
-      <c r="H40" s="3" t="inlineStr"/>
+      <c r="H40" s="3" t="n"/>
       <c r="I40" s="3" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
       </c>
-      <c r="J40" s="3" t="inlineStr"/>
-      <c r="K40" s="3" t="inlineStr"/>
-      <c r="L40" s="3" t="inlineStr"/>
-      <c r="M40" s="3" t="inlineStr"/>
-      <c r="N40" s="3" t="inlineStr"/>
+      <c r="J40" s="3" t="n"/>
+      <c r="K40" s="3" t="n"/>
+      <c r="L40" s="3" t="n"/>
+      <c r="M40" s="3" t="n"/>
+      <c r="N40" s="3" t="n"/>
       <c r="O40" s="3" t="inlineStr">
         <is>
           <t>High emotional management exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what high exertion means based on the measurement you use).</t>
         </is>
       </c>
-      <c r="P40" s="3" t="inlineStr"/>
+      <c r="P40" s="3" t="n"/>
       <c r="Q40" s="3" t="inlineStr">
         <is>
           <t>true</t>
         </is>
       </c>
-      <c r="R40" s="3" t="inlineStr"/>
+      <c r="R40" s="3" t="n"/>
       <c r="S40" s="3" t="inlineStr">
         <is>
           <t>PS</t>
@@ -3019,8 +3025,8 @@
           <t>Obsolete</t>
         </is>
       </c>
-      <c r="U40" s="3" t="inlineStr"/>
-      <c r="V40" s="3" t="inlineStr"/>
+      <c r="U40" s="3" t="n"/>
+      <c r="V40" s="3" t="n"/>
     </row>
     <row r="41">
       <c r="A41" s="3" t="inlineStr">
@@ -3038,37 +3044,37 @@
           <t>Mental exertion expended on a behaviour that is high.</t>
         </is>
       </c>
-      <c r="D41" s="3" t="inlineStr"/>
-      <c r="E41" s="3" t="inlineStr"/>
-      <c r="F41" s="3" t="inlineStr"/>
+      <c r="D41" s="3" t="n"/>
+      <c r="E41" s="3" t="n"/>
+      <c r="F41" s="3" t="n"/>
       <c r="G41" s="3" t="inlineStr">
         <is>
           <t>mental exertion expended on a behaviour</t>
         </is>
       </c>
-      <c r="H41" s="3" t="inlineStr"/>
+      <c r="H41" s="3" t="n"/>
       <c r="I41" s="3" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
       </c>
-      <c r="J41" s="3" t="inlineStr"/>
-      <c r="K41" s="3" t="inlineStr"/>
-      <c r="L41" s="3" t="inlineStr"/>
-      <c r="M41" s="3" t="inlineStr"/>
-      <c r="N41" s="3" t="inlineStr"/>
+      <c r="J41" s="3" t="n"/>
+      <c r="K41" s="3" t="n"/>
+      <c r="L41" s="3" t="n"/>
+      <c r="M41" s="3" t="n"/>
+      <c r="N41" s="3" t="n"/>
       <c r="O41" s="3" t="inlineStr">
         <is>
           <t>High mental exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what high exertion means based on the measurement you use).</t>
         </is>
       </c>
-      <c r="P41" s="3" t="inlineStr"/>
+      <c r="P41" s="3" t="n"/>
       <c r="Q41" s="3" t="inlineStr">
         <is>
           <t>true</t>
         </is>
       </c>
-      <c r="R41" s="3" t="inlineStr"/>
+      <c r="R41" s="3" t="n"/>
       <c r="S41" s="3" t="inlineStr">
         <is>
           <t>PS</t>
@@ -3079,8 +3085,8 @@
           <t>Obsolete</t>
         </is>
       </c>
-      <c r="U41" s="3" t="inlineStr"/>
-      <c r="V41" s="3" t="inlineStr"/>
+      <c r="U41" s="3" t="n"/>
+      <c r="V41" s="3" t="n"/>
     </row>
     <row r="42">
       <c r="A42" s="3" t="inlineStr">
@@ -3098,37 +3104,37 @@
           <t>Physical exertion expended on a behaviour that is high</t>
         </is>
       </c>
-      <c r="D42" s="3" t="inlineStr"/>
-      <c r="E42" s="3" t="inlineStr"/>
-      <c r="F42" s="3" t="inlineStr"/>
+      <c r="D42" s="3" t="n"/>
+      <c r="E42" s="3" t="n"/>
+      <c r="F42" s="3" t="n"/>
       <c r="G42" s="3" t="inlineStr">
         <is>
           <t>physical exertion expended on a behaviour</t>
         </is>
       </c>
-      <c r="H42" s="3" t="inlineStr"/>
+      <c r="H42" s="3" t="n"/>
       <c r="I42" s="3" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
       </c>
-      <c r="J42" s="3" t="inlineStr"/>
-      <c r="K42" s="3" t="inlineStr"/>
-      <c r="L42" s="3" t="inlineStr"/>
-      <c r="M42" s="3" t="inlineStr"/>
-      <c r="N42" s="3" t="inlineStr"/>
+      <c r="J42" s="3" t="n"/>
+      <c r="K42" s="3" t="n"/>
+      <c r="L42" s="3" t="n"/>
+      <c r="M42" s="3" t="n"/>
+      <c r="N42" s="3" t="n"/>
       <c r="O42" s="3" t="inlineStr">
         <is>
           <t>High physical exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what high exertion means based on the measurement you use).</t>
         </is>
       </c>
-      <c r="P42" s="3" t="inlineStr"/>
+      <c r="P42" s="3" t="n"/>
       <c r="Q42" s="3" t="inlineStr">
         <is>
           <t>true</t>
         </is>
       </c>
-      <c r="R42" s="3" t="inlineStr"/>
+      <c r="R42" s="3" t="n"/>
       <c r="S42" s="3" t="inlineStr">
         <is>
           <t>PS</t>
@@ -3139,8 +3145,8 @@
           <t>Obsolete</t>
         </is>
       </c>
-      <c r="U42" s="3" t="inlineStr"/>
-      <c r="V42" s="3" t="inlineStr"/>
+      <c r="U42" s="3" t="n"/>
+      <c r="V42" s="3" t="n"/>
     </row>
     <row r="43">
       <c r="A43" s="2" t="inlineStr">
@@ -3158,37 +3164,37 @@
           <t>A process that is an individual human behaviour or a population behaviour.</t>
         </is>
       </c>
-      <c r="D43" s="2" t="inlineStr"/>
+      <c r="D43" s="2" t="n"/>
       <c r="E43" s="2" t="inlineStr">
         <is>
           <t>"individual human behaviour" OR "population behaviour"</t>
         </is>
       </c>
-      <c r="F43" s="2" t="inlineStr"/>
+      <c r="F43" s="2" t="n"/>
       <c r="G43" s="2" t="inlineStr">
         <is>
           <t>process</t>
         </is>
       </c>
-      <c r="H43" s="2" t="inlineStr"/>
+      <c r="H43" s="2" t="n"/>
       <c r="I43" s="2" t="inlineStr">
         <is>
           <t>Upper level</t>
         </is>
       </c>
-      <c r="J43" s="2" t="inlineStr"/>
-      <c r="K43" s="2" t="inlineStr"/>
-      <c r="L43" s="2" t="inlineStr"/>
-      <c r="M43" s="2" t="inlineStr"/>
-      <c r="N43" s="2" t="inlineStr"/>
-      <c r="O43" s="2" t="inlineStr"/>
-      <c r="P43" s="2" t="inlineStr"/>
+      <c r="J43" s="2" t="n"/>
+      <c r="K43" s="2" t="n"/>
+      <c r="L43" s="2" t="n"/>
+      <c r="M43" s="2" t="n"/>
+      <c r="N43" s="2" t="n"/>
+      <c r="O43" s="2" t="n"/>
+      <c r="P43" s="2" t="n"/>
       <c r="Q43" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="R43" s="2" t="inlineStr"/>
+      <c r="R43" s="2" t="n"/>
       <c r="S43" s="2" t="inlineStr">
         <is>
           <t>BG; PS</t>
@@ -3199,8 +3205,8 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="U43" s="2" t="inlineStr"/>
-      <c r="V43" s="2" t="inlineStr"/>
+      <c r="U43" s="2" t="n"/>
+      <c r="V43" s="2" t="n"/>
     </row>
     <row r="44">
       <c r="A44" s="2" t="inlineStr">
@@ -3218,33 +3224,33 @@
           <t>An object aggregate that consists of two or more people.</t>
         </is>
       </c>
-      <c r="D44" s="2" t="inlineStr"/>
-      <c r="E44" s="2" t="inlineStr"/>
-      <c r="F44" s="2" t="inlineStr"/>
+      <c r="D44" s="2" t="n"/>
+      <c r="E44" s="2" t="n"/>
+      <c r="F44" s="2" t="n"/>
       <c r="G44" s="2" t="inlineStr">
         <is>
           <t>object aggregate</t>
         </is>
       </c>
-      <c r="H44" s="2" t="inlineStr"/>
+      <c r="H44" s="2" t="n"/>
       <c r="I44" s="2" t="inlineStr">
         <is>
           <t>Upper level</t>
         </is>
       </c>
-      <c r="J44" s="2" t="inlineStr"/>
-      <c r="K44" s="2" t="inlineStr"/>
-      <c r="L44" s="2" t="inlineStr"/>
-      <c r="M44" s="2" t="inlineStr"/>
-      <c r="N44" s="2" t="inlineStr"/>
-      <c r="O44" s="2" t="inlineStr"/>
-      <c r="P44" s="2" t="inlineStr"/>
+      <c r="J44" s="2" t="n"/>
+      <c r="K44" s="2" t="n"/>
+      <c r="L44" s="2" t="n"/>
+      <c r="M44" s="2" t="n"/>
+      <c r="N44" s="2" t="n"/>
+      <c r="O44" s="2" t="n"/>
+      <c r="P44" s="2" t="n"/>
       <c r="Q44" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="R44" s="2" t="inlineStr"/>
+      <c r="R44" s="2" t="n"/>
       <c r="S44" s="2" t="inlineStr">
         <is>
           <t>JH; AW</t>
@@ -3255,8 +3261,8 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="U44" s="2" t="inlineStr"/>
-      <c r="V44" s="2" t="inlineStr"/>
+      <c r="U44" s="2" t="n"/>
+      <c r="V44" s="2" t="n"/>
     </row>
     <row r="45">
       <c r="A45" s="2" t="inlineStr">
@@ -3274,33 +3280,33 @@
           <t>A process that is produced by a person.</t>
         </is>
       </c>
-      <c r="D45" s="2" t="inlineStr"/>
-      <c r="E45" s="2" t="inlineStr"/>
-      <c r="F45" s="2" t="inlineStr"/>
+      <c r="D45" s="2" t="n"/>
+      <c r="E45" s="2" t="n"/>
+      <c r="F45" s="2" t="n"/>
       <c r="G45" s="2" t="inlineStr">
         <is>
           <t>process</t>
         </is>
       </c>
-      <c r="H45" s="2" t="inlineStr"/>
+      <c r="H45" s="2" t="n"/>
       <c r="I45" s="2" t="inlineStr">
         <is>
           <t>Upper level</t>
         </is>
       </c>
-      <c r="J45" s="2" t="inlineStr"/>
-      <c r="K45" s="2" t="inlineStr"/>
-      <c r="L45" s="2" t="inlineStr"/>
-      <c r="M45" s="2" t="inlineStr"/>
-      <c r="N45" s="2" t="inlineStr"/>
-      <c r="O45" s="2" t="inlineStr"/>
-      <c r="P45" s="2" t="inlineStr"/>
+      <c r="J45" s="2" t="n"/>
+      <c r="K45" s="2" t="n"/>
+      <c r="L45" s="2" t="n"/>
+      <c r="M45" s="2" t="n"/>
+      <c r="N45" s="2" t="n"/>
+      <c r="O45" s="2" t="n"/>
+      <c r="P45" s="2" t="n"/>
       <c r="Q45" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="R45" s="2" t="inlineStr"/>
+      <c r="R45" s="2" t="n"/>
       <c r="S45" s="2" t="inlineStr">
         <is>
           <t>JH</t>
@@ -3311,8 +3317,8 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="U45" s="2" t="inlineStr"/>
-      <c r="V45" s="2" t="inlineStr"/>
+      <c r="U45" s="2" t="n"/>
+      <c r="V45" s="2" t="n"/>
     </row>
     <row r="46">
       <c r="A46" s="2" t="inlineStr">
@@ -3330,30 +3336,30 @@
           <t xml:space="preserve">A bodily process of a human that involves co-ordinated contraction of striated muscles controlled by the brain. </t>
         </is>
       </c>
-      <c r="D46" s="2" t="inlineStr"/>
-      <c r="E46" s="2" t="inlineStr"/>
-      <c r="F46" s="2" t="inlineStr"/>
+      <c r="D46" s="2" t="n"/>
+      <c r="E46" s="2" t="n"/>
+      <c r="F46" s="2" t="n"/>
       <c r="G46" s="2" t="inlineStr">
         <is>
           <t>bodily process</t>
         </is>
       </c>
-      <c r="H46" s="2" t="inlineStr"/>
+      <c r="H46" s="2" t="n"/>
       <c r="I46" s="2" t="inlineStr">
         <is>
           <t>Upper level</t>
         </is>
       </c>
-      <c r="J46" s="2" t="inlineStr"/>
-      <c r="K46" s="2" t="inlineStr"/>
-      <c r="L46" s="2" t="inlineStr"/>
+      <c r="J46" s="2" t="n"/>
+      <c r="K46" s="2" t="n"/>
+      <c r="L46" s="2" t="n"/>
       <c r="M46" s="2" t="inlineStr">
         <is>
           <t>human behaviour</t>
         </is>
       </c>
-      <c r="N46" s="2" t="inlineStr"/>
-      <c r="O46" s="2" t="inlineStr"/>
+      <c r="N46" s="2" t="n"/>
+      <c r="O46" s="2" t="n"/>
       <c r="P46" s="2" t="inlineStr">
         <is>
           <t>Also referred to in definitions as human behaviour or just behaviour.</t>
@@ -3364,7 +3370,7 @@
           <t>0</t>
         </is>
       </c>
-      <c r="R46" s="2" t="inlineStr"/>
+      <c r="R46" s="2" t="n"/>
       <c r="S46" s="2" t="inlineStr">
         <is>
           <t>JH</t>
@@ -3375,8 +3381,8 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="U46" s="2" t="inlineStr"/>
-      <c r="V46" s="2" t="inlineStr"/>
+      <c r="U46" s="2" t="n"/>
+      <c r="V46" s="2" t="n"/>
     </row>
     <row r="47">
       <c r="A47" s="2" t="inlineStr">
@@ -3394,26 +3400,26 @@
           <t>A planned process that has the aim of influencing an outcome.</t>
         </is>
       </c>
-      <c r="D47" s="2" t="inlineStr"/>
-      <c r="E47" s="2" t="inlineStr"/>
-      <c r="F47" s="2" t="inlineStr"/>
+      <c r="D47" s="2" t="n"/>
+      <c r="E47" s="2" t="n"/>
+      <c r="F47" s="2" t="n"/>
       <c r="G47" s="2" t="inlineStr">
         <is>
           <t>planned process</t>
         </is>
       </c>
-      <c r="H47" s="2" t="inlineStr"/>
+      <c r="H47" s="2" t="n"/>
       <c r="I47" s="2" t="inlineStr">
         <is>
           <t>Upper level</t>
         </is>
       </c>
-      <c r="J47" s="2" t="inlineStr"/>
-      <c r="K47" s="2" t="inlineStr"/>
-      <c r="L47" s="2" t="inlineStr"/>
-      <c r="M47" s="2" t="inlineStr"/>
-      <c r="N47" s="2" t="inlineStr"/>
-      <c r="O47" s="2" t="inlineStr"/>
+      <c r="J47" s="2" t="n"/>
+      <c r="K47" s="2" t="n"/>
+      <c r="L47" s="2" t="n"/>
+      <c r="M47" s="2" t="n"/>
+      <c r="N47" s="2" t="n"/>
+      <c r="O47" s="2" t="n"/>
       <c r="P47" s="2" t="inlineStr">
         <is>
           <t>Examples of interventions are putting health warnings on cigarette packets, providing free stop smoking services and banning smoking in public places.</t>
@@ -3424,7 +3430,7 @@
           <t>0</t>
         </is>
       </c>
-      <c r="R47" s="2" t="inlineStr"/>
+      <c r="R47" s="2" t="n"/>
       <c r="S47" s="2" t="inlineStr">
         <is>
           <t>JH; RW</t>
@@ -3435,8 +3441,8 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="U47" s="2" t="inlineStr"/>
-      <c r="V47" s="2" t="inlineStr"/>
+      <c r="U47" s="2" t="n"/>
+      <c r="V47" s="2" t="n"/>
     </row>
     <row r="48">
       <c r="A48" s="2" t="inlineStr">
@@ -3454,33 +3460,33 @@
           <t>A planned process that is part of an intervention and is intended to be causally active in influencing the intervention outcome.</t>
         </is>
       </c>
-      <c r="D48" s="2" t="inlineStr"/>
-      <c r="E48" s="2" t="inlineStr"/>
-      <c r="F48" s="2" t="inlineStr"/>
+      <c r="D48" s="2" t="n"/>
+      <c r="E48" s="2" t="n"/>
+      <c r="F48" s="2" t="n"/>
       <c r="G48" s="2" t="inlineStr">
         <is>
           <t>planned process</t>
         </is>
       </c>
-      <c r="H48" s="2" t="inlineStr"/>
+      <c r="H48" s="2" t="n"/>
       <c r="I48" s="2" t="inlineStr">
         <is>
           <t>Upper level</t>
         </is>
       </c>
-      <c r="J48" s="2" t="inlineStr"/>
-      <c r="K48" s="2" t="inlineStr"/>
-      <c r="L48" s="2" t="inlineStr"/>
-      <c r="M48" s="2" t="inlineStr"/>
-      <c r="N48" s="2" t="inlineStr"/>
-      <c r="O48" s="2" t="inlineStr"/>
-      <c r="P48" s="2" t="inlineStr"/>
+      <c r="J48" s="2" t="n"/>
+      <c r="K48" s="2" t="n"/>
+      <c r="L48" s="2" t="n"/>
+      <c r="M48" s="2" t="n"/>
+      <c r="N48" s="2" t="n"/>
+      <c r="O48" s="2" t="n"/>
+      <c r="P48" s="2" t="n"/>
       <c r="Q48" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="R48" s="2" t="inlineStr"/>
+      <c r="R48" s="2" t="n"/>
       <c r="S48" s="2" t="inlineStr">
         <is>
           <t>RW</t>
@@ -3491,8 +3497,8 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="U48" s="2" t="inlineStr"/>
-      <c r="V48" s="2" t="inlineStr"/>
+      <c r="U48" s="2" t="n"/>
+      <c r="V48" s="2" t="n"/>
     </row>
     <row r="49">
       <c r="A49" s="2" t="inlineStr">
@@ -3510,33 +3516,33 @@
           <t>A planned process by which intervention content is delivered.</t>
         </is>
       </c>
-      <c r="D49" s="2" t="inlineStr"/>
-      <c r="E49" s="2" t="inlineStr"/>
-      <c r="F49" s="2" t="inlineStr"/>
+      <c r="D49" s="2" t="n"/>
+      <c r="E49" s="2" t="n"/>
+      <c r="F49" s="2" t="n"/>
       <c r="G49" s="2" t="inlineStr">
         <is>
           <t>planned process</t>
         </is>
       </c>
-      <c r="H49" s="2" t="inlineStr"/>
+      <c r="H49" s="2" t="n"/>
       <c r="I49" s="2" t="inlineStr">
         <is>
           <t>Upper level</t>
         </is>
       </c>
-      <c r="J49" s="2" t="inlineStr"/>
-      <c r="K49" s="2" t="inlineStr"/>
-      <c r="L49" s="2" t="inlineStr"/>
-      <c r="M49" s="2" t="inlineStr"/>
-      <c r="N49" s="2" t="inlineStr"/>
-      <c r="O49" s="2" t="inlineStr"/>
-      <c r="P49" s="2" t="inlineStr"/>
+      <c r="J49" s="2" t="n"/>
+      <c r="K49" s="2" t="n"/>
+      <c r="L49" s="2" t="n"/>
+      <c r="M49" s="2" t="n"/>
+      <c r="N49" s="2" t="n"/>
+      <c r="O49" s="2" t="n"/>
+      <c r="P49" s="2" t="n"/>
       <c r="Q49" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="R49" s="2" t="inlineStr"/>
+      <c r="R49" s="2" t="n"/>
       <c r="S49" s="2" t="inlineStr">
         <is>
           <t>RW</t>
@@ -3547,8 +3553,8 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="U49" s="2" t="inlineStr"/>
-      <c r="V49" s="2" t="inlineStr"/>
+      <c r="U49" s="2" t="n"/>
+      <c r="V49" s="2" t="n"/>
     </row>
     <row r="50">
       <c r="A50" s="2" t="inlineStr">
@@ -3566,33 +3572,33 @@
           <t>A research study that aims to assess attributes of an intervention with regards to their positive or negative value.</t>
         </is>
       </c>
-      <c r="D50" s="2" t="inlineStr"/>
-      <c r="E50" s="2" t="inlineStr"/>
-      <c r="F50" s="2" t="inlineStr"/>
+      <c r="D50" s="2" t="n"/>
+      <c r="E50" s="2" t="n"/>
+      <c r="F50" s="2" t="n"/>
       <c r="G50" s="2" t="inlineStr">
         <is>
           <t>research study</t>
         </is>
       </c>
-      <c r="H50" s="2" t="inlineStr"/>
+      <c r="H50" s="2" t="n"/>
       <c r="I50" s="2" t="inlineStr">
         <is>
           <t>Upper level</t>
         </is>
       </c>
-      <c r="J50" s="2" t="inlineStr"/>
-      <c r="K50" s="2" t="inlineStr"/>
-      <c r="L50" s="2" t="inlineStr"/>
-      <c r="M50" s="2" t="inlineStr"/>
-      <c r="N50" s="2" t="inlineStr"/>
-      <c r="O50" s="2" t="inlineStr"/>
-      <c r="P50" s="2" t="inlineStr"/>
+      <c r="J50" s="2" t="n"/>
+      <c r="K50" s="2" t="n"/>
+      <c r="L50" s="2" t="n"/>
+      <c r="M50" s="2" t="n"/>
+      <c r="N50" s="2" t="n"/>
+      <c r="O50" s="2" t="n"/>
+      <c r="P50" s="2" t="n"/>
       <c r="Q50" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="R50" s="2" t="inlineStr"/>
+      <c r="R50" s="2" t="n"/>
       <c r="S50" s="2" t="inlineStr">
         <is>
           <t>JH; RW</t>
@@ -3603,8 +3609,8 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="U50" s="2" t="inlineStr"/>
-      <c r="V50" s="2" t="inlineStr"/>
+      <c r="U50" s="2" t="n"/>
+      <c r="V50" s="2" t="n"/>
     </row>
     <row r="51">
       <c r="A51" s="2" t="inlineStr">
@@ -3622,26 +3628,26 @@
           <t>A process that is influenced by an intervention.</t>
         </is>
       </c>
-      <c r="D51" s="2" t="inlineStr"/>
-      <c r="E51" s="2" t="inlineStr"/>
-      <c r="F51" s="2" t="inlineStr"/>
+      <c r="D51" s="2" t="n"/>
+      <c r="E51" s="2" t="n"/>
+      <c r="F51" s="2" t="n"/>
       <c r="G51" s="2" t="inlineStr">
         <is>
           <t>process</t>
         </is>
       </c>
-      <c r="H51" s="2" t="inlineStr"/>
+      <c r="H51" s="2" t="n"/>
       <c r="I51" s="2" t="inlineStr">
         <is>
           <t>Upper level</t>
         </is>
       </c>
-      <c r="J51" s="2" t="inlineStr"/>
-      <c r="K51" s="2" t="inlineStr"/>
-      <c r="L51" s="2" t="inlineStr"/>
-      <c r="M51" s="2" t="inlineStr"/>
-      <c r="N51" s="2" t="inlineStr"/>
-      <c r="O51" s="2" t="inlineStr"/>
+      <c r="J51" s="2" t="n"/>
+      <c r="K51" s="2" t="n"/>
+      <c r="L51" s="2" t="n"/>
+      <c r="M51" s="2" t="n"/>
+      <c r="N51" s="2" t="n"/>
+      <c r="O51" s="2" t="n"/>
       <c r="P51" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">Includes individual human behaviour, mental activity and physiological activity. Also includes undesirable outcomes, such as treatment side effects, and unintended negative consequences of the intervention. </t>
@@ -3652,7 +3658,7 @@
           <t>0</t>
         </is>
       </c>
-      <c r="R51" s="2" t="inlineStr"/>
+      <c r="R51" s="2" t="n"/>
       <c r="S51" s="2" t="inlineStr">
         <is>
           <t>JH</t>
@@ -3663,8 +3669,8 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="U51" s="2" t="inlineStr"/>
-      <c r="V51" s="2" t="inlineStr"/>
+      <c r="U51" s="2" t="n"/>
+      <c r="V51" s="2" t="n"/>
     </row>
     <row r="52">
       <c r="A52" s="2" t="inlineStr">
@@ -3682,33 +3688,33 @@
           <t>A human population who are exposed to an intervention.</t>
         </is>
       </c>
-      <c r="D52" s="2" t="inlineStr"/>
-      <c r="E52" s="2" t="inlineStr"/>
-      <c r="F52" s="2" t="inlineStr"/>
+      <c r="D52" s="2" t="n"/>
+      <c r="E52" s="2" t="n"/>
+      <c r="F52" s="2" t="n"/>
       <c r="G52" s="2" t="inlineStr">
         <is>
           <t>human population</t>
         </is>
       </c>
-      <c r="H52" s="2" t="inlineStr"/>
+      <c r="H52" s="2" t="n"/>
       <c r="I52" s="2" t="inlineStr">
         <is>
           <t>Upper level</t>
         </is>
       </c>
-      <c r="J52" s="2" t="inlineStr"/>
-      <c r="K52" s="2" t="inlineStr"/>
-      <c r="L52" s="2" t="inlineStr"/>
-      <c r="M52" s="2" t="inlineStr"/>
-      <c r="N52" s="2" t="inlineStr"/>
-      <c r="O52" s="2" t="inlineStr"/>
-      <c r="P52" s="2" t="inlineStr"/>
+      <c r="J52" s="2" t="n"/>
+      <c r="K52" s="2" t="n"/>
+      <c r="L52" s="2" t="n"/>
+      <c r="M52" s="2" t="n"/>
+      <c r="N52" s="2" t="n"/>
+      <c r="O52" s="2" t="n"/>
+      <c r="P52" s="2" t="n"/>
       <c r="Q52" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="R52" s="2" t="inlineStr"/>
+      <c r="R52" s="2" t="n"/>
       <c r="S52" s="2" t="inlineStr">
         <is>
           <t>AW; PS</t>
@@ -3719,8 +3725,8 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="U52" s="2" t="inlineStr"/>
-      <c r="V52" s="2" t="inlineStr"/>
+      <c r="U52" s="2" t="n"/>
+      <c r="V52" s="2" t="n"/>
     </row>
     <row r="53">
       <c r="A53" s="3" t="inlineStr">
@@ -3738,37 +3744,37 @@
           <t>Cognitive exertion expended on a behaviour that is low.</t>
         </is>
       </c>
-      <c r="D53" s="3" t="inlineStr"/>
-      <c r="E53" s="3" t="inlineStr"/>
-      <c r="F53" s="3" t="inlineStr"/>
+      <c r="D53" s="3" t="n"/>
+      <c r="E53" s="3" t="n"/>
+      <c r="F53" s="3" t="n"/>
       <c r="G53" s="3" t="inlineStr">
         <is>
           <t>cognitive exertion expended on a behaviour</t>
         </is>
       </c>
-      <c r="H53" s="3" t="inlineStr"/>
+      <c r="H53" s="3" t="n"/>
       <c r="I53" s="3" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
       </c>
-      <c r="J53" s="3" t="inlineStr"/>
-      <c r="K53" s="3" t="inlineStr"/>
-      <c r="L53" s="3" t="inlineStr"/>
-      <c r="M53" s="3" t="inlineStr"/>
-      <c r="N53" s="3" t="inlineStr"/>
+      <c r="J53" s="3" t="n"/>
+      <c r="K53" s="3" t="n"/>
+      <c r="L53" s="3" t="n"/>
+      <c r="M53" s="3" t="n"/>
+      <c r="N53" s="3" t="n"/>
       <c r="O53" s="3" t="inlineStr">
         <is>
           <t>Low cognitive exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what low exertion means based on the measurement you use).</t>
         </is>
       </c>
-      <c r="P53" s="3" t="inlineStr"/>
+      <c r="P53" s="3" t="n"/>
       <c r="Q53" s="3" t="inlineStr">
         <is>
           <t>true</t>
         </is>
       </c>
-      <c r="R53" s="3" t="inlineStr"/>
+      <c r="R53" s="3" t="n"/>
       <c r="S53" s="3" t="inlineStr">
         <is>
           <t>PS</t>
@@ -3779,8 +3785,8 @@
           <t>Obsolete</t>
         </is>
       </c>
-      <c r="U53" s="3" t="inlineStr"/>
-      <c r="V53" s="3" t="inlineStr"/>
+      <c r="U53" s="3" t="n"/>
+      <c r="V53" s="3" t="n"/>
     </row>
     <row r="54">
       <c r="A54" s="3" t="inlineStr">
@@ -3798,37 +3804,37 @@
           <t>Emotional management exertion expended on a behaviour that is low.</t>
         </is>
       </c>
-      <c r="D54" s="3" t="inlineStr"/>
-      <c r="E54" s="3" t="inlineStr"/>
-      <c r="F54" s="3" t="inlineStr"/>
+      <c r="D54" s="3" t="n"/>
+      <c r="E54" s="3" t="n"/>
+      <c r="F54" s="3" t="n"/>
       <c r="G54" s="3" t="inlineStr">
         <is>
           <t>emotional management exertion expended on a behaviour</t>
         </is>
       </c>
-      <c r="H54" s="3" t="inlineStr"/>
+      <c r="H54" s="3" t="n"/>
       <c r="I54" s="3" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
       </c>
-      <c r="J54" s="3" t="inlineStr"/>
-      <c r="K54" s="3" t="inlineStr"/>
-      <c r="L54" s="3" t="inlineStr"/>
-      <c r="M54" s="3" t="inlineStr"/>
-      <c r="N54" s="3" t="inlineStr"/>
+      <c r="J54" s="3" t="n"/>
+      <c r="K54" s="3" t="n"/>
+      <c r="L54" s="3" t="n"/>
+      <c r="M54" s="3" t="n"/>
+      <c r="N54" s="3" t="n"/>
       <c r="O54" s="3" t="inlineStr">
         <is>
           <t>Low emotional management exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what low exertion means based on the measurement you use).</t>
         </is>
       </c>
-      <c r="P54" s="3" t="inlineStr"/>
+      <c r="P54" s="3" t="n"/>
       <c r="Q54" s="3" t="inlineStr">
         <is>
           <t>true</t>
         </is>
       </c>
-      <c r="R54" s="3" t="inlineStr"/>
+      <c r="R54" s="3" t="n"/>
       <c r="S54" s="3" t="inlineStr">
         <is>
           <t>PS</t>
@@ -3839,8 +3845,8 @@
           <t>Obsolete</t>
         </is>
       </c>
-      <c r="U54" s="3" t="inlineStr"/>
-      <c r="V54" s="3" t="inlineStr"/>
+      <c r="U54" s="3" t="n"/>
+      <c r="V54" s="3" t="n"/>
     </row>
     <row r="55">
       <c r="A55" s="3" t="inlineStr">
@@ -3858,37 +3864,37 @@
           <t>Mental exertion expended on a behaviour that is low.</t>
         </is>
       </c>
-      <c r="D55" s="3" t="inlineStr"/>
-      <c r="E55" s="3" t="inlineStr"/>
-      <c r="F55" s="3" t="inlineStr"/>
+      <c r="D55" s="3" t="n"/>
+      <c r="E55" s="3" t="n"/>
+      <c r="F55" s="3" t="n"/>
       <c r="G55" s="3" t="inlineStr">
         <is>
           <t>mental exertion expended on a behaviour</t>
         </is>
       </c>
-      <c r="H55" s="3" t="inlineStr"/>
+      <c r="H55" s="3" t="n"/>
       <c r="I55" s="3" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
       </c>
-      <c r="J55" s="3" t="inlineStr"/>
-      <c r="K55" s="3" t="inlineStr"/>
-      <c r="L55" s="3" t="inlineStr"/>
-      <c r="M55" s="3" t="inlineStr"/>
-      <c r="N55" s="3" t="inlineStr"/>
+      <c r="J55" s="3" t="n"/>
+      <c r="K55" s="3" t="n"/>
+      <c r="L55" s="3" t="n"/>
+      <c r="M55" s="3" t="n"/>
+      <c r="N55" s="3" t="n"/>
       <c r="O55" s="3" t="inlineStr">
         <is>
           <t>Low mental exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what low exertion means based on the measurement you use).</t>
         </is>
       </c>
-      <c r="P55" s="3" t="inlineStr"/>
+      <c r="P55" s="3" t="n"/>
       <c r="Q55" s="3" t="inlineStr">
         <is>
           <t>true</t>
         </is>
       </c>
-      <c r="R55" s="3" t="inlineStr"/>
+      <c r="R55" s="3" t="n"/>
       <c r="S55" s="3" t="inlineStr">
         <is>
           <t>PS</t>
@@ -3899,8 +3905,8 @@
           <t>Obsolete</t>
         </is>
       </c>
-      <c r="U55" s="3" t="inlineStr"/>
-      <c r="V55" s="3" t="inlineStr"/>
+      <c r="U55" s="3" t="n"/>
+      <c r="V55" s="3" t="n"/>
     </row>
     <row r="56">
       <c r="A56" s="3" t="inlineStr">
@@ -3918,37 +3924,37 @@
           <t>Physical exertion expended on a behaviour that is low.</t>
         </is>
       </c>
-      <c r="D56" s="3" t="inlineStr"/>
-      <c r="E56" s="3" t="inlineStr"/>
-      <c r="F56" s="3" t="inlineStr"/>
+      <c r="D56" s="3" t="n"/>
+      <c r="E56" s="3" t="n"/>
+      <c r="F56" s="3" t="n"/>
       <c r="G56" s="3" t="inlineStr">
         <is>
           <t>physical exertion expended on a behaviour</t>
         </is>
       </c>
-      <c r="H56" s="3" t="inlineStr"/>
+      <c r="H56" s="3" t="n"/>
       <c r="I56" s="3" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
       </c>
-      <c r="J56" s="3" t="inlineStr"/>
-      <c r="K56" s="3" t="inlineStr"/>
-      <c r="L56" s="3" t="inlineStr"/>
-      <c r="M56" s="3" t="inlineStr"/>
-      <c r="N56" s="3" t="inlineStr"/>
+      <c r="J56" s="3" t="n"/>
+      <c r="K56" s="3" t="n"/>
+      <c r="L56" s="3" t="n"/>
+      <c r="M56" s="3" t="n"/>
+      <c r="N56" s="3" t="n"/>
       <c r="O56" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">Low physical exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what low exertion means </t>
         </is>
       </c>
-      <c r="P56" s="3" t="inlineStr"/>
+      <c r="P56" s="3" t="n"/>
       <c r="Q56" s="3" t="inlineStr">
         <is>
           <t>true</t>
         </is>
       </c>
-      <c r="R56" s="3" t="inlineStr"/>
+      <c r="R56" s="3" t="n"/>
       <c r="S56" s="3" t="inlineStr">
         <is>
           <t>PS</t>
@@ -3959,8 +3965,8 @@
           <t>Obsolete</t>
         </is>
       </c>
-      <c r="U56" s="3" t="inlineStr"/>
-      <c r="V56" s="3" t="inlineStr"/>
+      <c r="U56" s="3" t="n"/>
+      <c r="V56" s="3" t="n"/>
     </row>
     <row r="57">
       <c r="A57" s="3" t="inlineStr">
@@ -3978,37 +3984,37 @@
           <t>Cognitive exertion expended on a behaviour that is medium.</t>
         </is>
       </c>
-      <c r="D57" s="3" t="inlineStr"/>
-      <c r="E57" s="3" t="inlineStr"/>
-      <c r="F57" s="3" t="inlineStr"/>
+      <c r="D57" s="3" t="n"/>
+      <c r="E57" s="3" t="n"/>
+      <c r="F57" s="3" t="n"/>
       <c r="G57" s="3" t="inlineStr">
         <is>
           <t>cognitive exertion expended on a behaviour</t>
         </is>
       </c>
-      <c r="H57" s="3" t="inlineStr"/>
+      <c r="H57" s="3" t="n"/>
       <c r="I57" s="3" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
       </c>
-      <c r="J57" s="3" t="inlineStr"/>
-      <c r="K57" s="3" t="inlineStr"/>
-      <c r="L57" s="3" t="inlineStr"/>
-      <c r="M57" s="3" t="inlineStr"/>
-      <c r="N57" s="3" t="inlineStr"/>
+      <c r="J57" s="3" t="n"/>
+      <c r="K57" s="3" t="n"/>
+      <c r="L57" s="3" t="n"/>
+      <c r="M57" s="3" t="n"/>
+      <c r="N57" s="3" t="n"/>
       <c r="O57" s="3" t="inlineStr">
         <is>
           <t>Moderate cognitive exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what moderate exertion means based on the measurement you use).</t>
         </is>
       </c>
-      <c r="P57" s="3" t="inlineStr"/>
+      <c r="P57" s="3" t="n"/>
       <c r="Q57" s="3" t="inlineStr">
         <is>
           <t>true</t>
         </is>
       </c>
-      <c r="R57" s="3" t="inlineStr"/>
+      <c r="R57" s="3" t="n"/>
       <c r="S57" s="3" t="inlineStr">
         <is>
           <t>PS</t>
@@ -4019,8 +4025,8 @@
           <t>Obsolete</t>
         </is>
       </c>
-      <c r="U57" s="3" t="inlineStr"/>
-      <c r="V57" s="3" t="inlineStr"/>
+      <c r="U57" s="3" t="n"/>
+      <c r="V57" s="3" t="n"/>
     </row>
     <row r="58">
       <c r="A58" s="3" t="inlineStr">
@@ -4038,37 +4044,37 @@
           <t>Emotional management exertion expended on a behaviour that is medium.</t>
         </is>
       </c>
-      <c r="D58" s="3" t="inlineStr"/>
-      <c r="E58" s="3" t="inlineStr"/>
-      <c r="F58" s="3" t="inlineStr"/>
+      <c r="D58" s="3" t="n"/>
+      <c r="E58" s="3" t="n"/>
+      <c r="F58" s="3" t="n"/>
       <c r="G58" s="3" t="inlineStr">
         <is>
           <t>emotional management exertion expended on a behaviour</t>
         </is>
       </c>
-      <c r="H58" s="3" t="inlineStr"/>
+      <c r="H58" s="3" t="n"/>
       <c r="I58" s="3" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
       </c>
-      <c r="J58" s="3" t="inlineStr"/>
-      <c r="K58" s="3" t="inlineStr"/>
-      <c r="L58" s="3" t="inlineStr"/>
-      <c r="M58" s="3" t="inlineStr"/>
-      <c r="N58" s="3" t="inlineStr"/>
+      <c r="J58" s="3" t="n"/>
+      <c r="K58" s="3" t="n"/>
+      <c r="L58" s="3" t="n"/>
+      <c r="M58" s="3" t="n"/>
+      <c r="N58" s="3" t="n"/>
       <c r="O58" s="3" t="inlineStr">
         <is>
           <t>Moderate emotional management exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what moderate exertion means based on the measurement you use).</t>
         </is>
       </c>
-      <c r="P58" s="3" t="inlineStr"/>
+      <c r="P58" s="3" t="n"/>
       <c r="Q58" s="3" t="inlineStr">
         <is>
           <t>true</t>
         </is>
       </c>
-      <c r="R58" s="3" t="inlineStr"/>
+      <c r="R58" s="3" t="n"/>
       <c r="S58" s="3" t="inlineStr">
         <is>
           <t>PS</t>
@@ -4079,8 +4085,8 @@
           <t>Obsolete</t>
         </is>
       </c>
-      <c r="U58" s="3" t="inlineStr"/>
-      <c r="V58" s="3" t="inlineStr"/>
+      <c r="U58" s="3" t="n"/>
+      <c r="V58" s="3" t="n"/>
     </row>
     <row r="59">
       <c r="A59" s="3" t="inlineStr">
@@ -4098,37 +4104,37 @@
           <t>Mental exertion expended on a behaviour that is medium.</t>
         </is>
       </c>
-      <c r="D59" s="3" t="inlineStr"/>
-      <c r="E59" s="3" t="inlineStr"/>
-      <c r="F59" s="3" t="inlineStr"/>
+      <c r="D59" s="3" t="n"/>
+      <c r="E59" s="3" t="n"/>
+      <c r="F59" s="3" t="n"/>
       <c r="G59" s="3" t="inlineStr">
         <is>
           <t>mental exertion expended on a behaviour</t>
         </is>
       </c>
-      <c r="H59" s="3" t="inlineStr"/>
+      <c r="H59" s="3" t="n"/>
       <c r="I59" s="3" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
       </c>
-      <c r="J59" s="3" t="inlineStr"/>
-      <c r="K59" s="3" t="inlineStr"/>
-      <c r="L59" s="3" t="inlineStr"/>
-      <c r="M59" s="3" t="inlineStr"/>
-      <c r="N59" s="3" t="inlineStr"/>
+      <c r="J59" s="3" t="n"/>
+      <c r="K59" s="3" t="n"/>
+      <c r="L59" s="3" t="n"/>
+      <c r="M59" s="3" t="n"/>
+      <c r="N59" s="3" t="n"/>
       <c r="O59" s="3" t="inlineStr">
         <is>
           <t>Moderate mental exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what moderate exertion means based on the measurement you use).</t>
         </is>
       </c>
-      <c r="P59" s="3" t="inlineStr"/>
+      <c r="P59" s="3" t="n"/>
       <c r="Q59" s="3" t="inlineStr">
         <is>
           <t>true</t>
         </is>
       </c>
-      <c r="R59" s="3" t="inlineStr"/>
+      <c r="R59" s="3" t="n"/>
       <c r="S59" s="3" t="inlineStr">
         <is>
           <t>PS</t>
@@ -4139,8 +4145,8 @@
           <t>Obsolete</t>
         </is>
       </c>
-      <c r="U59" s="3" t="inlineStr"/>
-      <c r="V59" s="3" t="inlineStr"/>
+      <c r="U59" s="3" t="n"/>
+      <c r="V59" s="3" t="n"/>
     </row>
     <row r="60">
       <c r="A60" s="3" t="inlineStr">
@@ -4158,37 +4164,37 @@
           <t>Physical exertion expended on a behaviour that is medium.</t>
         </is>
       </c>
-      <c r="D60" s="3" t="inlineStr"/>
-      <c r="E60" s="3" t="inlineStr"/>
-      <c r="F60" s="3" t="inlineStr"/>
+      <c r="D60" s="3" t="n"/>
+      <c r="E60" s="3" t="n"/>
+      <c r="F60" s="3" t="n"/>
       <c r="G60" s="3" t="inlineStr">
         <is>
           <t>physical exertion expended on a behaviour</t>
         </is>
       </c>
-      <c r="H60" s="3" t="inlineStr"/>
+      <c r="H60" s="3" t="n"/>
       <c r="I60" s="3" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
       </c>
-      <c r="J60" s="3" t="inlineStr"/>
-      <c r="K60" s="3" t="inlineStr"/>
-      <c r="L60" s="3" t="inlineStr"/>
-      <c r="M60" s="3" t="inlineStr"/>
-      <c r="N60" s="3" t="inlineStr"/>
+      <c r="J60" s="3" t="n"/>
+      <c r="K60" s="3" t="n"/>
+      <c r="L60" s="3" t="n"/>
+      <c r="M60" s="3" t="n"/>
+      <c r="N60" s="3" t="n"/>
       <c r="O60" s="3" t="inlineStr">
         <is>
           <t>Moderate physical exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what moderate exertion means based on the measurement you use).</t>
         </is>
       </c>
-      <c r="P60" s="3" t="inlineStr"/>
+      <c r="P60" s="3" t="n"/>
       <c r="Q60" s="3" t="inlineStr">
         <is>
           <t>true</t>
         </is>
       </c>
-      <c r="R60" s="3" t="inlineStr"/>
+      <c r="R60" s="3" t="n"/>
       <c r="S60" s="3" t="inlineStr">
         <is>
           <t>PS</t>
@@ -4199,8 +4205,8 @@
           <t>Obsolete</t>
         </is>
       </c>
-      <c r="U60" s="3" t="inlineStr"/>
-      <c r="V60" s="3" t="inlineStr"/>
+      <c r="U60" s="3" t="n"/>
+      <c r="V60" s="3" t="n"/>
     </row>
     <row r="61">
       <c r="A61" s="2" t="inlineStr">
@@ -4218,9 +4224,9 @@
           <t>Participant engagement with intervention, where the intervention focuses on changing behaviour.</t>
         </is>
       </c>
-      <c r="D61" s="2" t="inlineStr"/>
-      <c r="E61" s="2" t="inlineStr"/>
-      <c r="F61" s="2" t="inlineStr"/>
+      <c r="D61" s="2" t="n"/>
+      <c r="E61" s="2" t="n"/>
+      <c r="F61" s="2" t="n"/>
       <c r="G61" s="2" t="inlineStr">
         <is>
           <t>participant engagement with intervention</t>
@@ -4236,16 +4242,16 @@
           <t>Upper level</t>
         </is>
       </c>
-      <c r="J61" s="2" t="inlineStr"/>
-      <c r="K61" s="2" t="inlineStr"/>
-      <c r="L61" s="2" t="inlineStr"/>
+      <c r="J61" s="2" t="n"/>
+      <c r="K61" s="2" t="n"/>
+      <c r="L61" s="2" t="n"/>
       <c r="M61" s="2" t="inlineStr">
         <is>
           <t>BCI engagement</t>
         </is>
       </c>
-      <c r="N61" s="2" t="inlineStr"/>
-      <c r="O61" s="2" t="inlineStr"/>
+      <c r="N61" s="2" t="n"/>
+      <c r="O61" s="2" t="n"/>
       <c r="P61" s="2" t="inlineStr">
         <is>
           <t>Includes mental activities and behaviours.</t>
@@ -4256,7 +4262,7 @@
           <t>0</t>
         </is>
       </c>
-      <c r="R61" s="2" t="inlineStr"/>
+      <c r="R61" s="2" t="n"/>
       <c r="S61" s="2" t="inlineStr">
         <is>
           <t>JH; RW; PS</t>
@@ -4267,8 +4273,8 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="U61" s="2" t="inlineStr"/>
-      <c r="V61" s="2" t="inlineStr"/>
+      <c r="U61" s="2" t="n"/>
+      <c r="V61" s="2" t="n"/>
     </row>
     <row r="62">
       <c r="A62" s="2" t="inlineStr">
@@ -4291,30 +4297,30 @@
           <t>The extend to someone interacts with an intervention, including their cognitive, emotional and behavioural response (e.g., attending intervention session) to the intervention itself.</t>
         </is>
       </c>
-      <c r="E62" s="2" t="inlineStr"/>
-      <c r="F62" s="2" t="inlineStr"/>
+      <c r="E62" s="2" t="n"/>
+      <c r="F62" s="2" t="n"/>
       <c r="G62" s="2" t="inlineStr">
         <is>
           <t>individual human activity</t>
         </is>
       </c>
-      <c r="H62" s="2" t="inlineStr"/>
+      <c r="H62" s="2" t="n"/>
       <c r="I62" s="2" t="inlineStr">
         <is>
           <t>Upper level</t>
         </is>
       </c>
-      <c r="J62" s="2" t="inlineStr"/>
-      <c r="K62" s="2" t="inlineStr"/>
-      <c r="L62" s="2" t="inlineStr"/>
-      <c r="M62" s="2" t="inlineStr"/>
-      <c r="N62" s="2" t="inlineStr"/>
-      <c r="O62" s="2" t="inlineStr"/>
-      <c r="P62" s="2" t="inlineStr"/>
+      <c r="J62" s="2" t="n"/>
+      <c r="K62" s="2" t="n"/>
+      <c r="L62" s="2" t="n"/>
+      <c r="M62" s="2" t="n"/>
+      <c r="N62" s="2" t="n"/>
+      <c r="O62" s="2" t="n"/>
+      <c r="P62" s="2" t="n"/>
       <c r="Q62" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R62" s="2" t="inlineStr"/>
+      <c r="R62" s="2" t="n"/>
       <c r="S62" s="2" t="inlineStr">
         <is>
           <t>PS</t>
@@ -4325,8 +4331,8 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="U62" s="2" t="inlineStr"/>
-      <c r="V62" s="2" t="inlineStr"/>
+      <c r="U62" s="2" t="n"/>
+      <c r="V62" s="2" t="n"/>
     </row>
     <row r="63">
       <c r="A63" s="2" t="inlineStr">
@@ -4344,37 +4350,37 @@
           <t>An aggregate of individual human behaviours of members of a population.</t>
         </is>
       </c>
-      <c r="D63" s="2" t="inlineStr"/>
-      <c r="E63" s="2" t="inlineStr"/>
-      <c r="F63" s="2" t="inlineStr"/>
+      <c r="D63" s="2" t="n"/>
+      <c r="E63" s="2" t="n"/>
+      <c r="F63" s="2" t="n"/>
       <c r="G63" s="2" t="inlineStr">
         <is>
           <t>process</t>
         </is>
       </c>
-      <c r="H63" s="2" t="inlineStr"/>
+      <c r="H63" s="2" t="n"/>
       <c r="I63" s="2" t="inlineStr">
         <is>
           <t>Upper level</t>
         </is>
       </c>
-      <c r="J63" s="2" t="inlineStr"/>
-      <c r="K63" s="2" t="inlineStr"/>
-      <c r="L63" s="2" t="inlineStr"/>
+      <c r="J63" s="2" t="n"/>
+      <c r="K63" s="2" t="n"/>
+      <c r="L63" s="2" t="n"/>
       <c r="M63" s="2" t="inlineStr">
         <is>
           <t>human behaviour</t>
         </is>
       </c>
-      <c r="N63" s="2" t="inlineStr"/>
-      <c r="O63" s="2" t="inlineStr"/>
-      <c r="P63" s="2" t="inlineStr"/>
+      <c r="N63" s="2" t="n"/>
+      <c r="O63" s="2" t="n"/>
+      <c r="P63" s="2" t="n"/>
       <c r="Q63" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="R63" s="2" t="inlineStr"/>
+      <c r="R63" s="2" t="n"/>
       <c r="S63" s="2" t="inlineStr">
         <is>
           <t>JH</t>
@@ -4385,8 +4391,8 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="U63" s="2" t="inlineStr"/>
-      <c r="V63" s="2" t="inlineStr"/>
+      <c r="U63" s="2" t="n"/>
+      <c r="V63" s="2" t="n"/>
     </row>
     <row r="64">
       <c r="A64" s="2" t="inlineStr">
@@ -4409,25 +4415,25 @@
           <t>An attribute of a process.</t>
         </is>
       </c>
-      <c r="E64" s="2" t="inlineStr"/>
-      <c r="F64" s="2" t="inlineStr"/>
+      <c r="E64" s="2" t="n"/>
+      <c r="F64" s="2" t="n"/>
       <c r="G64" s="2" t="inlineStr">
         <is>
           <t>process profile</t>
         </is>
       </c>
-      <c r="H64" s="2" t="inlineStr"/>
+      <c r="H64" s="2" t="n"/>
       <c r="I64" s="2" t="inlineStr">
         <is>
           <t>Upper level</t>
         </is>
       </c>
-      <c r="J64" s="2" t="inlineStr"/>
-      <c r="K64" s="2" t="inlineStr"/>
-      <c r="L64" s="2" t="inlineStr"/>
-      <c r="M64" s="2" t="inlineStr"/>
-      <c r="N64" s="2" t="inlineStr"/>
-      <c r="O64" s="2" t="inlineStr"/>
+      <c r="J64" s="2" t="n"/>
+      <c r="K64" s="2" t="n"/>
+      <c r="L64" s="2" t="n"/>
+      <c r="M64" s="2" t="n"/>
+      <c r="N64" s="2" t="n"/>
+      <c r="O64" s="2" t="n"/>
       <c r="P64" s="2" t="inlineStr">
         <is>
           <t>This is intended to provide a user-friendly way of representing the way in which processes are manifest. This is somewhat similar to, but not the same as, the class 'specifically dependent continuant' in Basic Formal Ontology which provides a way of representing features of material entities such as age and size. It is formally equivalent to process profile in Basic Formal Ontology.</t>
@@ -4438,7 +4444,7 @@
           <t>0</t>
         </is>
       </c>
-      <c r="R64" s="2" t="inlineStr"/>
+      <c r="R64" s="2" t="n"/>
       <c r="S64" s="2" t="inlineStr">
         <is>
           <t>JH</t>
@@ -4449,8 +4455,8 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="U64" s="2" t="inlineStr"/>
-      <c r="V64" s="2" t="inlineStr"/>
+      <c r="U64" s="2" t="n"/>
+      <c r="V64" s="2" t="n"/>
     </row>
     <row r="65">
       <c r="A65" s="2" t="inlineStr">
@@ -4468,33 +4474,33 @@
           <t>A population whose behaviour is studied in a research study.</t>
         </is>
       </c>
-      <c r="D65" s="2" t="inlineStr"/>
-      <c r="E65" s="2" t="inlineStr"/>
-      <c r="F65" s="2" t="inlineStr"/>
+      <c r="D65" s="2" t="n"/>
+      <c r="E65" s="2" t="n"/>
+      <c r="F65" s="2" t="n"/>
       <c r="G65" s="2" t="inlineStr">
         <is>
           <t>human population</t>
         </is>
       </c>
-      <c r="H65" s="2" t="inlineStr"/>
+      <c r="H65" s="2" t="n"/>
       <c r="I65" s="2" t="inlineStr">
         <is>
           <t>Upper level</t>
         </is>
       </c>
-      <c r="J65" s="2" t="inlineStr"/>
-      <c r="K65" s="2" t="inlineStr"/>
-      <c r="L65" s="2" t="inlineStr"/>
-      <c r="M65" s="2" t="inlineStr"/>
-      <c r="N65" s="2" t="inlineStr"/>
-      <c r="O65" s="2" t="inlineStr"/>
-      <c r="P65" s="2" t="inlineStr"/>
+      <c r="J65" s="2" t="n"/>
+      <c r="K65" s="2" t="n"/>
+      <c r="L65" s="2" t="n"/>
+      <c r="M65" s="2" t="n"/>
+      <c r="N65" s="2" t="n"/>
+      <c r="O65" s="2" t="n"/>
+      <c r="P65" s="2" t="n"/>
       <c r="Q65" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="R65" s="2" t="inlineStr"/>
+      <c r="R65" s="2" t="n"/>
       <c r="S65" s="2" t="inlineStr">
         <is>
           <t>PS</t>
@@ -4505,8 +4511,54 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="U65" s="2" t="inlineStr"/>
-      <c r="V65" s="2" t="inlineStr"/>
+      <c r="U65" s="2" t="n"/>
+      <c r="V65" s="2" t="n"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="4" t="inlineStr">
+        <is>
+          <t>BCIO:000001</t>
+        </is>
+      </c>
+      <c r="B66" s="4" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="C66" s="4" t="inlineStr">
+        <is>
+          <t>Test definition</t>
+        </is>
+      </c>
+      <c r="D66" s="4" t="inlineStr"/>
+      <c r="E66" s="4" t="inlineStr"/>
+      <c r="F66" s="4" t="inlineStr"/>
+      <c r="G66" s="4" t="inlineStr">
+        <is>
+          <t>zero-dimensional continuant fiat boundary</t>
+        </is>
+      </c>
+      <c r="H66" s="4" t="inlineStr"/>
+      <c r="I66" s="4" t="inlineStr"/>
+      <c r="J66" s="4" t="inlineStr"/>
+      <c r="K66" s="4" t="inlineStr"/>
+      <c r="L66" s="4" t="inlineStr"/>
+      <c r="M66" s="4" t="inlineStr"/>
+      <c r="N66" s="4" t="inlineStr"/>
+      <c r="O66" s="4" t="inlineStr"/>
+      <c r="P66" s="4" t="inlineStr"/>
+      <c r="Q66" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R66" s="4" t="inlineStr"/>
+      <c r="S66" s="4" t="inlineStr"/>
+      <c r="T66" s="4" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="U66" s="4" t="inlineStr"/>
+      <c r="V66" s="4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Upper Level BCIO/inputs/BCIO_Upper_Defs.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_Upper_Defs.xlsx
@@ -30,7 +30,7 @@
       <sz val="12"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
@@ -47,11 +47,6 @@
         <fgColor rgb="002f4f4f"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00ffffff"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -65,12 +60,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -436,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V66"/>
+  <dimension ref="A1:V65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,87 +466,87 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>Parent</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Sub-ontology</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Examples</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Curator note</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>REL 'has process part'</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>REL 'realises'</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Synonyms</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Comment</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Curation status</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>To be reviewed by</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Reviewer query</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
           <t>Definition source</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Parent</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Cross reference</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>BFO entity</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Sub-ontology</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>REL 'has process part'</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>REL 'realises'</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Curator note</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Synonyms</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Cross reference</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>Comment</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>Examples</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Curator</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Fuzzy set</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>Why fuzzy</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>Curator</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>Curation status</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>To be reviewed by</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>Reviewer query</t>
         </is>
       </c>
     </row>
@@ -578,50 +572,50 @@
         </is>
       </c>
       <c r="E2" s="2" t="n"/>
-      <c r="F2" s="2" t="n"/>
+      <c r="F2" s="2" t="inlineStr">
+        <is>
+          <t>process attribute</t>
+        </is>
+      </c>
       <c r="G2" s="2" t="inlineStr">
         <is>
-          <t>process attribute</t>
-        </is>
-      </c>
-      <c r="H2" s="2" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
-      <c r="I2" s="2" t="inlineStr">
-        <is>
-          <t>Upper level</t>
-        </is>
-      </c>
+          <t>Upper level</t>
+        </is>
+      </c>
+      <c r="H2" s="2" t="n"/>
+      <c r="I2" s="2" t="n"/>
       <c r="J2" s="2" t="n"/>
       <c r="K2" s="2" t="n"/>
-      <c r="L2" s="2" t="n"/>
-      <c r="M2" s="2" t="inlineStr">
+      <c r="L2" s="2" t="inlineStr">
         <is>
           <t>behaviour change intervention attribute</t>
         </is>
       </c>
-      <c r="N2" s="2" t="n"/>
+      <c r="M2" s="2" t="n"/>
+      <c r="N2" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
       <c r="O2" s="2" t="n"/>
       <c r="P2" s="2" t="n"/>
-      <c r="Q2" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="Q2" s="2" t="n"/>
       <c r="R2" s="2" t="n"/>
       <c r="S2" s="2" t="inlineStr">
         <is>
+          <t>process</t>
+        </is>
+      </c>
+      <c r="T2" s="2" t="inlineStr">
+        <is>
           <t>RW</t>
         </is>
       </c>
-      <c r="T2" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="U2" s="2" t="n"/>
+      <c r="U2" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="V2" s="2" t="n"/>
     </row>
     <row r="3">
@@ -646,46 +640,46 @@
         </is>
       </c>
       <c r="E3" s="2" t="n"/>
-      <c r="F3" s="2" t="n"/>
+      <c r="F3" s="2" t="inlineStr">
+        <is>
+          <t>information content entity</t>
+        </is>
+      </c>
       <c r="G3" s="2" t="inlineStr">
         <is>
-          <t>information content entity</t>
-        </is>
-      </c>
-      <c r="H3" s="2" t="inlineStr">
-        <is>
-          <t>information content entity</t>
-        </is>
-      </c>
-      <c r="I3" s="2" t="inlineStr">
-        <is>
-          <t>Upper level</t>
-        </is>
-      </c>
+          <t>Upper level</t>
+        </is>
+      </c>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
-      <c r="N3" s="2" t="n"/>
+      <c r="N3" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
       <c r="O3" s="2" t="n"/>
       <c r="P3" s="2" t="n"/>
-      <c r="Q3" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="Q3" s="2" t="n"/>
       <c r="R3" s="2" t="n"/>
       <c r="S3" s="2" t="inlineStr">
         <is>
+          <t>information content entity</t>
+        </is>
+      </c>
+      <c r="T3" s="2" t="inlineStr">
+        <is>
           <t>RW; JH</t>
         </is>
       </c>
-      <c r="T3" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="U3" s="2" t="n"/>
+      <c r="U3" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="V3" s="2" t="n"/>
     </row>
     <row r="4">
@@ -706,22 +700,22 @@
       </c>
       <c r="D4" s="2" t="n"/>
       <c r="E4" s="2" t="n"/>
-      <c r="F4" s="2" t="n"/>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>intervention</t>
+        </is>
+      </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>intervention</t>
+          <t>Upper level</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>process</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>Upper level</t>
-        </is>
-      </c>
+          <t>Involves use of products, services, activities, rules or environmental objects.</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="n"/>
       <c r="J4" s="2" t="inlineStr">
         <is>
           <t>behaviour change intervention content; participant engagement with behaviour change intervention; behaviour change intervention mechanism of action; behaviour change intervention outcome behaviour</t>
@@ -732,36 +726,36 @@
           <t>behaviour change intervention scenario plan</t>
         </is>
       </c>
-      <c r="L4" s="2" t="n"/>
-      <c r="M4" s="2" t="inlineStr">
+      <c r="L4" s="2" t="inlineStr">
         <is>
           <t>BCI</t>
         </is>
       </c>
-      <c r="N4" s="2" t="n"/>
+      <c r="M4" s="2" t="n"/>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
       <c r="O4" s="2" t="n"/>
-      <c r="P4" s="2" t="inlineStr">
-        <is>
-          <t>Involves use of products, services, activities, rules or environmental objects.</t>
-        </is>
-      </c>
-      <c r="Q4" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="P4" s="2" t="n"/>
+      <c r="Q4" s="2" t="n"/>
       <c r="R4" s="2" t="n"/>
       <c r="S4" s="2" t="inlineStr">
         <is>
+          <t>process</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
           <t>JH; BG; PS</t>
         </is>
       </c>
-      <c r="T4" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="U4" s="2" t="n"/>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="V4" s="2" t="n"/>
     </row>
     <row r="5">
@@ -782,54 +776,54 @@
       </c>
       <c r="D5" s="2" t="n"/>
       <c r="E5" s="2" t="n"/>
-      <c r="F5" s="2" t="n"/>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>behaviour change intervention evaluation study</t>
+        </is>
+      </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>behaviour change intervention evaluation study</t>
+          <t>Upper level</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>process</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>Upper level</t>
-        </is>
-      </c>
+          <t>Comparison involves identifying differences between the entities in the scenarios.</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="n"/>
       <c r="J5" s="2" t="n"/>
       <c r="K5" s="2" t="n"/>
-      <c r="L5" s="2" t="n"/>
-      <c r="M5" s="2" t="inlineStr">
+      <c r="L5" s="2" t="inlineStr">
         <is>
           <t>BCI comparison evaluation study</t>
         </is>
       </c>
-      <c r="N5" s="2" t="n"/>
+      <c r="M5" s="2" t="n"/>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
       <c r="O5" s="2" t="n"/>
-      <c r="P5" s="2" t="inlineStr">
-        <is>
-          <t>Comparison involves identifying differences between the entities in the scenarios.</t>
-        </is>
-      </c>
-      <c r="Q5" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="P5" s="2" t="n"/>
+      <c r="Q5" s="2" t="n"/>
       <c r="R5" s="2" t="n"/>
       <c r="S5" s="2" t="inlineStr">
         <is>
+          <t>process</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
           <t>JH; RW</t>
         </is>
       </c>
-      <c r="T5" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="U5" s="2" t="n"/>
+      <c r="U5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="V5" s="2" t="n"/>
     </row>
     <row r="6">
@@ -850,54 +844,54 @@
       </c>
       <c r="D6" s="2" t="n"/>
       <c r="E6" s="2" t="n"/>
-      <c r="F6" s="2" t="n"/>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>intervention content</t>
+        </is>
+      </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>intervention content</t>
+          <t>Upper level</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>process</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>Upper level</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Consists of BCTs that can be classified using a BCT taxonomy. </t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="n"/>
       <c r="J6" s="2" t="n"/>
       <c r="K6" s="2" t="n"/>
-      <c r="L6" s="2" t="n"/>
-      <c r="M6" s="2" t="inlineStr">
+      <c r="L6" s="2" t="inlineStr">
         <is>
           <t>BCI content</t>
         </is>
       </c>
-      <c r="N6" s="2" t="n"/>
+      <c r="M6" s="2" t="n"/>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
       <c r="O6" s="2" t="n"/>
-      <c r="P6" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Consists of BCTs that can be classified using a BCT taxonomy. </t>
-        </is>
-      </c>
-      <c r="Q6" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="P6" s="2" t="n"/>
+      <c r="Q6" s="2" t="n"/>
       <c r="R6" s="2" t="n"/>
       <c r="S6" s="2" t="inlineStr">
         <is>
+          <t>process</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
           <t>RW</t>
         </is>
       </c>
-      <c r="T6" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="U6" s="2" t="n"/>
+      <c r="U6" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="V6" s="2" t="n"/>
     </row>
     <row r="7">
@@ -918,54 +912,54 @@
       </c>
       <c r="D7" s="2" t="n"/>
       <c r="E7" s="2" t="n"/>
-      <c r="F7" s="2" t="n"/>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>object aggregate</t>
+        </is>
+      </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>object aggregate</t>
+          <t>Upper level</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>object aggregate</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>Upper level</t>
-        </is>
-      </c>
+          <t>Includes as part BCI population and BCI setting. Use of the word ‘may’ conveys a non-zero probability given available information.</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="n"/>
       <c r="J7" s="2" t="n"/>
       <c r="K7" s="2" t="n"/>
-      <c r="L7" s="2" t="n"/>
-      <c r="M7" s="2" t="inlineStr">
+      <c r="L7" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve"> BCI context</t>
         </is>
       </c>
-      <c r="N7" s="2" t="n"/>
+      <c r="M7" s="2" t="n"/>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
       <c r="O7" s="2" t="n"/>
-      <c r="P7" s="2" t="inlineStr">
-        <is>
-          <t>Includes as part BCI population and BCI setting. Use of the word ‘may’ conveys a non-zero probability given available information.</t>
-        </is>
-      </c>
-      <c r="Q7" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="P7" s="2" t="n"/>
+      <c r="Q7" s="2" t="n"/>
       <c r="R7" s="2" t="n"/>
       <c r="S7" s="2" t="inlineStr">
         <is>
+          <t>object aggregate</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
           <t>JH; RW</t>
         </is>
       </c>
-      <c r="T7" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="U7" s="2" t="n"/>
+      <c r="U7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="V7" s="2" t="n"/>
     </row>
     <row r="8">
@@ -986,50 +980,50 @@
       </c>
       <c r="D8" s="2" t="n"/>
       <c r="E8" s="2" t="n"/>
-      <c r="F8" s="2" t="n"/>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>intervention delivery</t>
+        </is>
+      </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>intervention delivery</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>Upper level</t>
-        </is>
-      </c>
+          <t>Upper level</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="n"/>
+      <c r="I8" s="2" t="n"/>
       <c r="J8" s="2" t="n"/>
       <c r="K8" s="2" t="n"/>
-      <c r="L8" s="2" t="n"/>
-      <c r="M8" s="2" t="inlineStr">
+      <c r="L8" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve"> BCI delivery</t>
         </is>
       </c>
-      <c r="N8" s="2" t="n"/>
+      <c r="M8" s="2" t="n"/>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
       <c r="O8" s="2" t="n"/>
       <c r="P8" s="2" t="n"/>
-      <c r="Q8" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="Q8" s="2" t="n"/>
       <c r="R8" s="2" t="n"/>
       <c r="S8" s="2" t="inlineStr">
         <is>
+          <t>process</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
           <t>JH; RW</t>
         </is>
       </c>
-      <c r="T8" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="U8" s="2" t="n"/>
+      <c r="U8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="V8" s="2" t="n"/>
     </row>
     <row r="9">
@@ -1050,58 +1044,58 @@
       </c>
       <c r="D9" s="2" t="n"/>
       <c r="E9" s="2" t="n"/>
-      <c r="F9" s="2" t="n"/>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>BCI attribute</t>
+        </is>
+      </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>BCI attribute</t>
+          <t>Upper level</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>process</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>Upper level</t>
-        </is>
-      </c>
+          <t xml:space="preserve">The dose of an active ingredient in a pharmacological intervention; the number of behaviour change techniques included in an intervention. </t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="n"/>
       <c r="J9" s="2" t="n"/>
       <c r="K9" s="2" t="n"/>
-      <c r="L9" s="2" t="n"/>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BCI dose</t>
+        </is>
+      </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> BCI dose</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="n"/>
-      <c r="O9" s="2" t="inlineStr">
-        <is>
           <t xml:space="preserve">This class requires further specification when it is used because specific BCI content instances may vary in amount in different ways. </t>
         </is>
       </c>
-      <c r="P9" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">The dose of an active ingredient in a pharmacological intervention; the number of behaviour change techniques included in an intervention. </t>
-        </is>
-      </c>
-      <c r="Q9" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="n"/>
+      <c r="P9" s="2" t="n"/>
+      <c r="Q9" s="2" t="n"/>
       <c r="R9" s="2" t="n"/>
       <c r="S9" s="2" t="inlineStr">
         <is>
+          <t>process</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
           <t>JH; RW</t>
         </is>
       </c>
-      <c r="T9" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="U9" s="2" t="n"/>
+      <c r="U9" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="V9" s="2" t="n"/>
     </row>
     <row r="10">
@@ -1122,54 +1116,54 @@
       </c>
       <c r="D10" s="2" t="n"/>
       <c r="E10" s="2" t="n"/>
-      <c r="F10" s="2" t="n"/>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>behaviour change intervention evaluation finding</t>
+        </is>
+      </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>behaviour change intervention evaluation finding</t>
+          <t>Upper level</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>information content entity</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>Upper level</t>
-        </is>
-      </c>
+          <t>This includes the following subclasses: 1) BCI effect estimate type -the type of statistic used to represent the difference (e.g. odds ratio, mean difference), 2) BCI effect estimate value – the datum that represents the difference (e.g. 1.35), 3)  BCI effect estimate uncertainty type – the type of statistic used to represent the range of uncertainty of the value (e.g. 95% confidence interval see STATO), and 4) the BCI effect estimate uncertainty value  - the datum representing the uncertainty (e.g. 1.20-1.55).</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="n"/>
       <c r="J10" s="2" t="n"/>
       <c r="K10" s="2" t="n"/>
-      <c r="L10" s="2" t="n"/>
-      <c r="M10" s="2" t="inlineStr">
+      <c r="L10" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve"> BCI effect estimate</t>
         </is>
       </c>
-      <c r="N10" s="2" t="n"/>
+      <c r="M10" s="2" t="n"/>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
       <c r="O10" s="2" t="n"/>
-      <c r="P10" s="2" t="inlineStr">
-        <is>
-          <t>This includes the following subclasses: 1) BCI effect estimate type -the type of statistic used to represent the difference (e.g. odds ratio, mean difference), 2) BCI effect estimate value – the datum that represents the difference (e.g. 1.35), 3)  BCI effect estimate uncertainty type – the type of statistic used to represent the range of uncertainty of the value (e.g. 95% confidence interval see STATO), and 4) the BCI effect estimate uncertainty value  - the datum representing the uncertainty (e.g. 1.20-1.55).</t>
-        </is>
-      </c>
-      <c r="Q10" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="P10" s="2" t="n"/>
+      <c r="Q10" s="2" t="n"/>
       <c r="R10" s="2" t="n"/>
       <c r="S10" s="2" t="inlineStr">
         <is>
+          <t>information content entity</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
           <t>JH; RW; BG</t>
         </is>
       </c>
-      <c r="T10" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="U10" s="2" t="n"/>
+      <c r="U10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="V10" s="2" t="n"/>
     </row>
     <row r="11">
@@ -1190,50 +1184,50 @@
       </c>
       <c r="D11" s="2" t="n"/>
       <c r="E11" s="2" t="n"/>
-      <c r="F11" s="2" t="n"/>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>evaluation finding</t>
+        </is>
+      </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>evaluation finding</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>information content entoty</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>Upper level</t>
-        </is>
-      </c>
+          <t>Upper level</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="n"/>
+      <c r="I11" s="2" t="n"/>
       <c r="J11" s="2" t="n"/>
       <c r="K11" s="2" t="n"/>
-      <c r="L11" s="2" t="n"/>
-      <c r="M11" s="2" t="inlineStr">
+      <c r="L11" s="2" t="inlineStr">
         <is>
           <t>BCI evaluation finding</t>
         </is>
       </c>
-      <c r="N11" s="2" t="n"/>
+      <c r="M11" s="2" t="n"/>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
       <c r="O11" s="2" t="n"/>
       <c r="P11" s="2" t="n"/>
-      <c r="Q11" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="Q11" s="2" t="n"/>
       <c r="R11" s="2" t="n"/>
       <c r="S11" s="2" t="inlineStr">
         <is>
+          <t>information content entoty</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
           <t>JH; RW; BG</t>
         </is>
       </c>
-      <c r="T11" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="U11" s="2" t="n"/>
+      <c r="U11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="V11" s="2" t="n"/>
     </row>
     <row r="12">
@@ -1254,54 +1248,54 @@
       </c>
       <c r="D12" s="2" t="n"/>
       <c r="E12" s="2" t="n"/>
-      <c r="F12" s="2" t="n"/>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>report</t>
+        </is>
+      </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>report</t>
+          <t>Upper level</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>generally dependent continuant</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>Upper level</t>
-        </is>
-      </c>
+          <t>Includes entities that stand in direct relation to the study e.g. authors, findings, funding, aims.</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="n"/>
       <c r="J12" s="2" t="n"/>
       <c r="K12" s="2" t="n"/>
-      <c r="L12" s="2" t="n"/>
-      <c r="M12" s="2" t="inlineStr">
+      <c r="L12" s="2" t="inlineStr">
         <is>
           <t>BCI evaluation report</t>
         </is>
       </c>
-      <c r="N12" s="2" t="n"/>
+      <c r="M12" s="2" t="n"/>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
       <c r="O12" s="2" t="n"/>
-      <c r="P12" s="2" t="inlineStr">
-        <is>
-          <t>Includes entities that stand in direct relation to the study e.g. authors, findings, funding, aims.</t>
-        </is>
-      </c>
-      <c r="Q12" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="P12" s="2" t="n"/>
+      <c r="Q12" s="2" t="n"/>
       <c r="R12" s="2" t="n"/>
       <c r="S12" s="2" t="inlineStr">
         <is>
+          <t>generally dependent continuant</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
           <t>JH; RW</t>
         </is>
       </c>
-      <c r="T12" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="U12" s="2" t="n"/>
+      <c r="U12" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="V12" s="2" t="n"/>
     </row>
     <row r="13">
@@ -1322,50 +1316,50 @@
       </c>
       <c r="D13" s="2" t="n"/>
       <c r="E13" s="2" t="n"/>
-      <c r="F13" s="2" t="n"/>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>intervention evaluation study</t>
+        </is>
+      </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>intervention evaluation study</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>Upper level</t>
-        </is>
-      </c>
+          <t>Upper level</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="n"/>
+      <c r="I13" s="2" t="n"/>
       <c r="J13" s="2" t="n"/>
       <c r="K13" s="2" t="n"/>
-      <c r="L13" s="2" t="n"/>
-      <c r="M13" s="2" t="inlineStr">
+      <c r="L13" s="2" t="inlineStr">
         <is>
           <t>BCI evaluation study</t>
         </is>
       </c>
-      <c r="N13" s="2" t="n"/>
+      <c r="M13" s="2" t="n"/>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
       <c r="O13" s="2" t="n"/>
       <c r="P13" s="2" t="n"/>
-      <c r="Q13" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="Q13" s="2" t="n"/>
       <c r="R13" s="2" t="n"/>
       <c r="S13" s="2" t="inlineStr">
         <is>
+          <t>process</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
           <t>JH; RW</t>
         </is>
       </c>
-      <c r="T13" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="U13" s="2" t="n"/>
+      <c r="U13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="V13" s="2" t="n"/>
     </row>
     <row r="14">
@@ -1386,50 +1380,50 @@
       </c>
       <c r="D14" s="2" t="n"/>
       <c r="E14" s="2" t="n"/>
-      <c r="F14" s="2" t="n"/>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>plan</t>
+        </is>
+      </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>plan</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>information content entity</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>Upper level</t>
-        </is>
-      </c>
+          <t>Upper level</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="n"/>
+      <c r="I14" s="2" t="n"/>
       <c r="J14" s="2" t="n"/>
       <c r="K14" s="2" t="n"/>
-      <c r="L14" s="2" t="n"/>
-      <c r="M14" s="2" t="inlineStr">
+      <c r="L14" s="2" t="inlineStr">
         <is>
           <t>BCI evaluation study plan</t>
         </is>
       </c>
-      <c r="N14" s="2" t="n"/>
+      <c r="M14" s="2" t="n"/>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
       <c r="O14" s="2" t="n"/>
       <c r="P14" s="2" t="n"/>
-      <c r="Q14" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="Q14" s="2" t="n"/>
       <c r="R14" s="2" t="n"/>
       <c r="S14" s="2" t="inlineStr">
         <is>
+          <t>information content entity</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
           <t>JH; RW</t>
         </is>
       </c>
-      <c r="T14" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="U14" s="2" t="n"/>
+      <c r="U14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="V14" s="2" t="n"/>
     </row>
     <row r="15">
@@ -1450,50 +1444,50 @@
       </c>
       <c r="D15" s="2" t="n"/>
       <c r="E15" s="2" t="n"/>
-      <c r="F15" s="2" t="n"/>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>information content entity</t>
+        </is>
+      </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>information content entity</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>information content entity</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>Upper level</t>
-        </is>
-      </c>
+          <t>Upper level</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="n"/>
+      <c r="I15" s="2" t="n"/>
       <c r="J15" s="2" t="n"/>
       <c r="K15" s="2" t="n"/>
-      <c r="L15" s="2" t="n"/>
-      <c r="M15" s="2" t="inlineStr">
+      <c r="L15" s="2" t="inlineStr">
         <is>
           <t>BCI evaluation study risk of bias or error</t>
         </is>
       </c>
-      <c r="N15" s="2" t="n"/>
+      <c r="M15" s="2" t="n"/>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
       <c r="O15" s="2" t="n"/>
       <c r="P15" s="2" t="n"/>
-      <c r="Q15" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="Q15" s="2" t="n"/>
       <c r="R15" s="2" t="n"/>
       <c r="S15" s="2" t="inlineStr">
         <is>
+          <t>information content entity</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
           <t>JH; RW</t>
         </is>
       </c>
-      <c r="T15" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="U15" s="2" t="n"/>
+      <c r="U15" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="V15" s="2" t="n"/>
     </row>
     <row r="16">
@@ -1514,50 +1508,50 @@
       </c>
       <c r="D16" s="2" t="n"/>
       <c r="E16" s="2" t="n"/>
-      <c r="F16" s="2" t="n"/>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>process</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>Upper level</t>
-        </is>
-      </c>
+          <t>Upper level</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="n"/>
+      <c r="I16" s="2" t="n"/>
       <c r="J16" s="2" t="n"/>
       <c r="K16" s="2" t="n"/>
-      <c r="L16" s="2" t="n"/>
-      <c r="M16" s="2" t="inlineStr">
+      <c r="L16" s="2" t="inlineStr">
         <is>
           <t>BCI mechanism of action; MOA; BCI MOA</t>
         </is>
       </c>
-      <c r="N16" s="2" t="n"/>
+      <c r="M16" s="2" t="n"/>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
       <c r="O16" s="2" t="n"/>
       <c r="P16" s="2" t="n"/>
-      <c r="Q16" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="Q16" s="2" t="n"/>
       <c r="R16" s="2" t="n"/>
       <c r="S16" s="2" t="inlineStr">
         <is>
+          <t>process</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
           <t>PS; JH; RW</t>
         </is>
       </c>
-      <c r="T16" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="U16" s="2" t="n"/>
+      <c r="U16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="V16" s="2" t="n"/>
     </row>
     <row r="17">
@@ -1578,50 +1572,50 @@
       </c>
       <c r="D17" s="2" t="n"/>
       <c r="E17" s="2" t="n"/>
-      <c r="F17" s="2" t="n"/>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>BCI attribute</t>
+        </is>
+      </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>BCI attribute</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
-      <c r="I17" s="2" t="inlineStr">
-        <is>
-          <t>Upper level</t>
-        </is>
-      </c>
+          <t>Upper level</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="n"/>
+      <c r="I17" s="2" t="n"/>
       <c r="J17" s="2" t="n"/>
       <c r="K17" s="2" t="n"/>
-      <c r="L17" s="2" t="n"/>
-      <c r="M17" s="2" t="inlineStr">
+      <c r="L17" s="2" t="inlineStr">
         <is>
           <t>BCI mode of delivery; BCI MOD; MOD</t>
         </is>
       </c>
-      <c r="N17" s="2" t="n"/>
+      <c r="M17" s="2" t="n"/>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
       <c r="O17" s="2" t="n"/>
       <c r="P17" s="2" t="n"/>
-      <c r="Q17" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="Q17" s="2" t="n"/>
       <c r="R17" s="2" t="n"/>
       <c r="S17" s="2" t="inlineStr">
         <is>
+          <t>process</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
           <t>JH; RW</t>
         </is>
       </c>
-      <c r="T17" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="U17" s="2" t="n"/>
+      <c r="U17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="V17" s="2" t="n"/>
     </row>
     <row r="18">
@@ -1642,42 +1636,42 @@
       </c>
       <c r="D18" s="2" t="n"/>
       <c r="E18" s="2" t="n"/>
-      <c r="F18" s="2" t="n"/>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>human behaviour</t>
+        </is>
+      </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>human behaviour</t>
+          <t>Upper level</t>
         </is>
       </c>
       <c r="H18" s="2" t="n"/>
-      <c r="I18" s="2" t="inlineStr">
-        <is>
-          <t>Upper level</t>
-        </is>
-      </c>
+      <c r="I18" s="2" t="n"/>
       <c r="J18" s="2" t="n"/>
       <c r="K18" s="2" t="n"/>
       <c r="L18" s="2" t="n"/>
       <c r="M18" s="2" t="n"/>
-      <c r="N18" s="2" t="n"/>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
       <c r="O18" s="2" t="n"/>
       <c r="P18" s="2" t="n"/>
-      <c r="Q18" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="Q18" s="2" t="n"/>
       <c r="R18" s="2" t="n"/>
-      <c r="S18" s="2" t="inlineStr">
+      <c r="S18" s="2" t="n"/>
+      <c r="T18" s="2" t="inlineStr">
         <is>
           <t>JH; BG; PS</t>
         </is>
       </c>
-      <c r="T18" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="U18" s="2" t="n"/>
+      <c r="U18" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="V18" s="2" t="n"/>
     </row>
     <row r="19">
@@ -1698,54 +1692,54 @@
       </c>
       <c r="D19" s="2" t="n"/>
       <c r="E19" s="2" t="n"/>
-      <c r="F19" s="2" t="n"/>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>behaviour change intervention evaluation finding</t>
+        </is>
+      </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>behaviour change intervention evaluation finding</t>
+          <t>Upper level</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>information content entoty</t>
-        </is>
-      </c>
-      <c r="I19" s="2" t="inlineStr">
-        <is>
-          <t>Upper level</t>
-        </is>
-      </c>
+          <t>This includes as subclasses 1) type of outcome estimate (e.g. mean, percentage), 2) value of outcome estimate (e.g. 1.5 cigs per day, 23%), 3) uncertainty estimate type (e.g. 95% CI), and 4) uncertainty estimate value (e.g. 12.0%-45.0%).</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="n"/>
       <c r="J19" s="2" t="n"/>
       <c r="K19" s="2" t="n"/>
-      <c r="L19" s="2" t="n"/>
-      <c r="M19" s="2" t="inlineStr">
+      <c r="L19" s="2" t="inlineStr">
         <is>
           <t>BCI outcome estimate</t>
         </is>
       </c>
-      <c r="N19" s="2" t="n"/>
+      <c r="M19" s="2" t="n"/>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
       <c r="O19" s="2" t="n"/>
-      <c r="P19" s="2" t="inlineStr">
-        <is>
-          <t>This includes as subclasses 1) type of outcome estimate (e.g. mean, percentage), 2) value of outcome estimate (e.g. 1.5 cigs per day, 23%), 3) uncertainty estimate type (e.g. 95% CI), and 4) uncertainty estimate value (e.g. 12.0%-45.0%).</t>
-        </is>
-      </c>
-      <c r="Q19" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="P19" s="2" t="n"/>
+      <c r="Q19" s="2" t="n"/>
       <c r="R19" s="2" t="n"/>
       <c r="S19" s="2" t="inlineStr">
         <is>
+          <t>information content entoty</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
           <t>JH; RW</t>
         </is>
       </c>
-      <c r="T19" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="U19" s="2" t="n"/>
+      <c r="U19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="V19" s="2" t="n"/>
     </row>
     <row r="20">
@@ -1766,46 +1760,46 @@
       </c>
       <c r="D20" s="2" t="n"/>
       <c r="E20" s="2" t="n"/>
-      <c r="F20" s="2" t="n"/>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>environmental system</t>
+        </is>
+      </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>environmental system</t>
+          <t>Upper level</t>
         </is>
       </c>
       <c r="H20" s="2" t="n"/>
-      <c r="I20" s="2" t="inlineStr">
-        <is>
-          <t>Upper level</t>
-        </is>
-      </c>
+      <c r="I20" s="2" t="n"/>
       <c r="J20" s="2" t="n"/>
       <c r="K20" s="2" t="n"/>
-      <c r="L20" s="2" t="n"/>
-      <c r="M20" s="2" t="inlineStr">
+      <c r="L20" s="2" t="inlineStr">
         <is>
           <t>BCI physical setting</t>
         </is>
       </c>
-      <c r="N20" s="2" t="n"/>
+      <c r="M20" s="2" t="n"/>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
       <c r="O20" s="2" t="n"/>
       <c r="P20" s="2" t="n"/>
-      <c r="Q20" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="Q20" s="2" t="n"/>
       <c r="R20" s="2" t="n"/>
-      <c r="S20" s="2" t="inlineStr">
+      <c r="S20" s="2" t="n"/>
+      <c r="T20" s="2" t="inlineStr">
         <is>
           <t>JH; RW</t>
         </is>
       </c>
-      <c r="T20" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="U20" s="2" t="n"/>
+      <c r="U20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="V20" s="2" t="n"/>
     </row>
     <row r="21">
@@ -1826,46 +1820,46 @@
       </c>
       <c r="D21" s="2" t="n"/>
       <c r="E21" s="2" t="n"/>
-      <c r="F21" s="2" t="n"/>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>intervention population</t>
+        </is>
+      </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>intervention population</t>
+          <t>Upper level</t>
         </is>
       </c>
       <c r="H21" s="2" t="n"/>
-      <c r="I21" s="2" t="inlineStr">
-        <is>
-          <t>Upper level</t>
-        </is>
-      </c>
+      <c r="I21" s="2" t="n"/>
       <c r="J21" s="2" t="n"/>
       <c r="K21" s="2" t="n"/>
-      <c r="L21" s="2" t="n"/>
-      <c r="M21" s="2" t="inlineStr">
+      <c r="L21" s="2" t="inlineStr">
         <is>
           <t>BCI population</t>
         </is>
       </c>
-      <c r="N21" s="2" t="n"/>
+      <c r="M21" s="2" t="n"/>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
       <c r="O21" s="2" t="n"/>
       <c r="P21" s="2" t="n"/>
-      <c r="Q21" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="Q21" s="2" t="n"/>
       <c r="R21" s="2" t="n"/>
-      <c r="S21" s="2" t="inlineStr">
+      <c r="S21" s="2" t="n"/>
+      <c r="T21" s="2" t="inlineStr">
         <is>
           <t>JH; RW; PS</t>
         </is>
       </c>
-      <c r="T21" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="U21" s="2" t="n"/>
+      <c r="U21" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="V21" s="2" t="n"/>
     </row>
     <row r="22">
@@ -1886,46 +1880,46 @@
       </c>
       <c r="D22" s="2" t="n"/>
       <c r="E22" s="2" t="n"/>
-      <c r="F22" s="2" t="n"/>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>planned process</t>
+        </is>
+      </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>planned process</t>
+          <t>Upper level</t>
         </is>
       </c>
       <c r="H22" s="2" t="n"/>
-      <c r="I22" s="2" t="inlineStr">
-        <is>
-          <t>Upper level</t>
-        </is>
-      </c>
+      <c r="I22" s="2" t="n"/>
       <c r="J22" s="2" t="n"/>
       <c r="K22" s="2" t="n"/>
-      <c r="L22" s="2" t="n"/>
-      <c r="M22" s="2" t="inlineStr">
+      <c r="L22" s="2" t="inlineStr">
         <is>
           <t>BCI scenario</t>
         </is>
       </c>
-      <c r="N22" s="2" t="n"/>
+      <c r="M22" s="2" t="n"/>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
       <c r="O22" s="2" t="n"/>
       <c r="P22" s="2" t="n"/>
-      <c r="Q22" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="Q22" s="2" t="n"/>
       <c r="R22" s="2" t="n"/>
-      <c r="S22" s="2" t="inlineStr">
+      <c r="S22" s="2" t="n"/>
+      <c r="T22" s="2" t="inlineStr">
         <is>
           <t>JH; RW</t>
         </is>
       </c>
-      <c r="T22" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="U22" s="2" t="n"/>
+      <c r="U22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="V22" s="2" t="n"/>
     </row>
     <row r="23">
@@ -1946,46 +1940,46 @@
       </c>
       <c r="D23" s="2" t="n"/>
       <c r="E23" s="2" t="n"/>
-      <c r="F23" s="2" t="n"/>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>plan</t>
+        </is>
+      </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>plan</t>
+          <t>Upper level</t>
         </is>
       </c>
       <c r="H23" s="2" t="n"/>
-      <c r="I23" s="2" t="inlineStr">
-        <is>
-          <t>Upper level</t>
-        </is>
-      </c>
+      <c r="I23" s="2" t="n"/>
       <c r="J23" s="2" t="n"/>
       <c r="K23" s="2" t="n"/>
-      <c r="L23" s="2" t="n"/>
-      <c r="M23" s="2" t="inlineStr">
+      <c r="L23" s="2" t="inlineStr">
         <is>
           <t>BCI scenario plan</t>
         </is>
       </c>
-      <c r="N23" s="2" t="n"/>
+      <c r="M23" s="2" t="n"/>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
       <c r="O23" s="2" t="n"/>
       <c r="P23" s="2" t="n"/>
-      <c r="Q23" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="Q23" s="2" t="n"/>
       <c r="R23" s="2" t="n"/>
-      <c r="S23" s="2" t="inlineStr">
+      <c r="S23" s="2" t="n"/>
+      <c r="T23" s="2" t="inlineStr">
         <is>
           <t>JH; RW</t>
         </is>
       </c>
-      <c r="T23" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="U23" s="2" t="n"/>
+      <c r="U23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="V23" s="2" t="n"/>
     </row>
     <row r="24">
@@ -2006,46 +2000,46 @@
       </c>
       <c r="D24" s="2" t="n"/>
       <c r="E24" s="2" t="n"/>
-      <c r="F24" s="2" t="n"/>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>report</t>
+        </is>
+      </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>report</t>
+          <t>Upper level</t>
         </is>
       </c>
       <c r="H24" s="2" t="n"/>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>Upper level</t>
-        </is>
-      </c>
+      <c r="I24" s="2" t="n"/>
       <c r="J24" s="2" t="n"/>
       <c r="K24" s="2" t="n"/>
-      <c r="L24" s="2" t="n"/>
-      <c r="M24" s="2" t="inlineStr">
+      <c r="L24" s="2" t="inlineStr">
         <is>
           <t>BCI scenario report</t>
         </is>
       </c>
-      <c r="N24" s="2" t="n"/>
+      <c r="M24" s="2" t="n"/>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
       <c r="O24" s="2" t="n"/>
       <c r="P24" s="2" t="n"/>
-      <c r="Q24" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="Q24" s="2" t="n"/>
       <c r="R24" s="2" t="n"/>
-      <c r="S24" s="2" t="inlineStr">
+      <c r="S24" s="2" t="n"/>
+      <c r="T24" s="2" t="inlineStr">
         <is>
           <t>JH; RW</t>
         </is>
       </c>
-      <c r="T24" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="U24" s="2" t="n"/>
+      <c r="U24" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="V24" s="2" t="n"/>
     </row>
     <row r="25">
@@ -2066,50 +2060,50 @@
       </c>
       <c r="D25" s="2" t="n"/>
       <c r="E25" s="2" t="n"/>
-      <c r="F25" s="2" t="n"/>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>BCI attribute</t>
+        </is>
+      </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>BCI attribute</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="n"/>
-      <c r="I25" s="2" t="inlineStr">
-        <is>
-          <t>Upper level</t>
-        </is>
-      </c>
+          <t>Upper level</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>Includes the start and end of the BCI and its parts.</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="n"/>
       <c r="J25" s="2" t="n"/>
       <c r="K25" s="2" t="n"/>
-      <c r="L25" s="2" t="n"/>
-      <c r="M25" s="2" t="inlineStr">
+      <c r="L25" s="2" t="inlineStr">
         <is>
           <t>BCI schedule of delivery</t>
         </is>
       </c>
-      <c r="N25" s="2" t="n"/>
+      <c r="M25" s="2" t="n"/>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
       <c r="O25" s="2" t="n"/>
-      <c r="P25" s="2" t="inlineStr">
-        <is>
-          <t>Includes the start and end of the BCI and its parts.</t>
-        </is>
-      </c>
-      <c r="Q25" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="P25" s="2" t="n"/>
+      <c r="Q25" s="2" t="n"/>
       <c r="R25" s="2" t="n"/>
-      <c r="S25" s="2" t="inlineStr">
+      <c r="S25" s="2" t="n"/>
+      <c r="T25" s="2" t="inlineStr">
         <is>
           <t>JH; RW</t>
         </is>
       </c>
-      <c r="T25" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="U25" s="2" t="n"/>
+      <c r="U25" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="V25" s="2" t="n"/>
     </row>
     <row r="26">
@@ -2130,50 +2124,50 @@
       </c>
       <c r="D26" s="2" t="n"/>
       <c r="E26" s="2" t="n"/>
-      <c r="F26" s="2" t="n"/>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>object aggregate</t>
+        </is>
+      </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>object aggregate</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="n"/>
-      <c r="I26" s="2" t="inlineStr">
-        <is>
-          <t>Upper level</t>
-        </is>
-      </c>
+          <t>Upper level</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>Includes as parts social setting and physical setting.</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="n"/>
       <c r="J26" s="2" t="n"/>
       <c r="K26" s="2" t="n"/>
-      <c r="L26" s="2" t="n"/>
-      <c r="M26" s="2" t="inlineStr">
+      <c r="L26" s="2" t="inlineStr">
         <is>
           <t>BCI setting</t>
         </is>
       </c>
-      <c r="N26" s="2" t="n"/>
+      <c r="M26" s="2" t="n"/>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
       <c r="O26" s="2" t="n"/>
-      <c r="P26" s="2" t="inlineStr">
-        <is>
-          <t>Includes as parts social setting and physical setting.</t>
-        </is>
-      </c>
-      <c r="Q26" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="P26" s="2" t="n"/>
+      <c r="Q26" s="2" t="n"/>
       <c r="R26" s="2" t="n"/>
-      <c r="S26" s="2" t="inlineStr">
+      <c r="S26" s="2" t="n"/>
+      <c r="T26" s="2" t="inlineStr">
         <is>
           <t>JH; RW</t>
         </is>
       </c>
-      <c r="T26" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="U26" s="2" t="n"/>
+      <c r="U26" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="V26" s="2" t="n"/>
     </row>
     <row r="27">
@@ -2194,46 +2188,46 @@
       </c>
       <c r="D27" s="2" t="n"/>
       <c r="E27" s="2" t="n"/>
-      <c r="F27" s="2" t="n"/>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>human population</t>
+        </is>
+      </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>human population</t>
+          <t>Upper level</t>
         </is>
       </c>
       <c r="H27" s="2" t="n"/>
-      <c r="I27" s="2" t="inlineStr">
-        <is>
-          <t>Upper level</t>
-        </is>
-      </c>
+      <c r="I27" s="2" t="n"/>
       <c r="J27" s="2" t="n"/>
       <c r="K27" s="2" t="n"/>
-      <c r="L27" s="2" t="n"/>
-      <c r="M27" s="2" t="inlineStr">
+      <c r="L27" s="2" t="inlineStr">
         <is>
           <t>BCI social setting</t>
         </is>
       </c>
-      <c r="N27" s="2" t="n"/>
+      <c r="M27" s="2" t="n"/>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
       <c r="O27" s="2" t="n"/>
       <c r="P27" s="2" t="n"/>
-      <c r="Q27" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="Q27" s="2" t="n"/>
       <c r="R27" s="2" t="n"/>
-      <c r="S27" s="2" t="inlineStr">
+      <c r="S27" s="2" t="n"/>
+      <c r="T27" s="2" t="inlineStr">
         <is>
           <t>JH; RW</t>
         </is>
       </c>
-      <c r="T27" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="U27" s="2" t="n"/>
+      <c r="U27" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="V27" s="2" t="n"/>
     </row>
     <row r="28">
@@ -2254,50 +2248,50 @@
       </c>
       <c r="D28" s="2" t="n"/>
       <c r="E28" s="2" t="n"/>
-      <c r="F28" s="2" t="n"/>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>role</t>
+        </is>
+      </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>role</t>
-        </is>
-      </c>
-      <c r="H28" s="2" t="n"/>
-      <c r="I28" s="2" t="inlineStr">
-        <is>
-          <t>Upper level</t>
-        </is>
-      </c>
+          <t>Upper level</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>This includes individual people, groups of people, and organisations.</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="n"/>
       <c r="J28" s="2" t="n"/>
       <c r="K28" s="2" t="n"/>
-      <c r="L28" s="2" t="n"/>
-      <c r="M28" s="2" t="inlineStr">
+      <c r="L28" s="2" t="inlineStr">
         <is>
           <t>BCI source</t>
         </is>
       </c>
-      <c r="N28" s="2" t="n"/>
+      <c r="M28" s="2" t="n"/>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
       <c r="O28" s="2" t="n"/>
-      <c r="P28" s="2" t="inlineStr">
-        <is>
-          <t>This includes individual people, groups of people, and organisations.</t>
-        </is>
-      </c>
-      <c r="Q28" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="P28" s="2" t="n"/>
+      <c r="Q28" s="2" t="n"/>
       <c r="R28" s="2" t="n"/>
-      <c r="S28" s="2" t="inlineStr">
+      <c r="S28" s="2" t="n"/>
+      <c r="T28" s="2" t="inlineStr">
         <is>
           <t>JH; RW</t>
         </is>
       </c>
-      <c r="T28" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="U28" s="2" t="n"/>
+      <c r="U28" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="V28" s="2" t="n"/>
     </row>
     <row r="29">
@@ -2318,50 +2312,50 @@
       </c>
       <c r="D29" s="2" t="n"/>
       <c r="E29" s="2" t="n"/>
-      <c r="F29" s="2" t="n"/>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>role</t>
+        </is>
+      </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>role</t>
-        </is>
-      </c>
-      <c r="H29" s="2" t="n"/>
-      <c r="I29" s="2" t="inlineStr">
-        <is>
-          <t>Upper level</t>
-        </is>
-      </c>
+          <t>Upper level</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">What counts as substantively is subject to judgement. The level and nature of the contribution can be defined using the CReDiT taxonomy (https://casrai.org/credit/). </t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="n"/>
       <c r="J29" s="2" t="n"/>
       <c r="K29" s="2" t="n"/>
-      <c r="L29" s="2" t="n"/>
-      <c r="M29" s="2" t="inlineStr">
+      <c r="L29" s="2" t="inlineStr">
         <is>
           <t>BCI study investigator</t>
         </is>
       </c>
-      <c r="N29" s="2" t="n"/>
+      <c r="M29" s="2" t="n"/>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
       <c r="O29" s="2" t="n"/>
-      <c r="P29" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">What counts as substantively is subject to judgement. The level and nature of the contribution can be defined using the CReDiT taxonomy (https://casrai.org/credit/). </t>
-        </is>
-      </c>
-      <c r="Q29" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="P29" s="2" t="n"/>
+      <c r="Q29" s="2" t="n"/>
       <c r="R29" s="2" t="n"/>
-      <c r="S29" s="2" t="inlineStr">
+      <c r="S29" s="2" t="n"/>
+      <c r="T29" s="2" t="inlineStr">
         <is>
           <t>JH; RW</t>
         </is>
       </c>
-      <c r="T29" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="U29" s="2" t="n"/>
+      <c r="U29" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="V29" s="2" t="n"/>
     </row>
     <row r="30">
@@ -2382,46 +2376,46 @@
       </c>
       <c r="D30" s="2" t="n"/>
       <c r="E30" s="2" t="n"/>
-      <c r="F30" s="2" t="n"/>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>research study sample</t>
+        </is>
+      </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>research study sample</t>
+          <t>Upper level</t>
         </is>
       </c>
       <c r="H30" s="2" t="n"/>
-      <c r="I30" s="2" t="inlineStr">
-        <is>
-          <t>Upper level</t>
-        </is>
-      </c>
+      <c r="I30" s="2" t="n"/>
       <c r="J30" s="2" t="n"/>
       <c r="K30" s="2" t="n"/>
-      <c r="L30" s="2" t="n"/>
-      <c r="M30" s="2" t="inlineStr">
+      <c r="L30" s="2" t="inlineStr">
         <is>
           <t>BCI study sample</t>
         </is>
       </c>
-      <c r="N30" s="2" t="n"/>
+      <c r="M30" s="2" t="n"/>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
       <c r="O30" s="2" t="n"/>
       <c r="P30" s="2" t="n"/>
-      <c r="Q30" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="Q30" s="2" t="n"/>
       <c r="R30" s="2" t="n"/>
-      <c r="S30" s="2" t="inlineStr">
+      <c r="S30" s="2" t="n"/>
+      <c r="T30" s="2" t="inlineStr">
         <is>
           <t>JH; RW; PS</t>
         </is>
       </c>
-      <c r="T30" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="U30" s="2" t="n"/>
+      <c r="U30" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="V30" s="2" t="n"/>
     </row>
     <row r="31">
@@ -2442,50 +2436,50 @@
       </c>
       <c r="D31" s="2" t="n"/>
       <c r="E31" s="2" t="n"/>
-      <c r="F31" s="2" t="n"/>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>communication style</t>
+        </is>
+      </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>communication style</t>
-        </is>
-      </c>
-      <c r="H31" s="2" t="n"/>
-      <c r="I31" s="2" t="inlineStr">
-        <is>
-          <t>Upper level</t>
-        </is>
-      </c>
+          <t>Upper level</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>An example is cold and distant vs. warm and accepting.</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="n"/>
       <c r="J31" s="2" t="n"/>
       <c r="K31" s="2" t="n"/>
-      <c r="L31" s="2" t="n"/>
-      <c r="M31" s="2" t="inlineStr">
+      <c r="L31" s="2" t="inlineStr">
         <is>
           <t>BCI style of delivery</t>
         </is>
       </c>
-      <c r="N31" s="2" t="n"/>
+      <c r="M31" s="2" t="n"/>
+      <c r="N31" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
       <c r="O31" s="2" t="n"/>
-      <c r="P31" s="2" t="inlineStr">
-        <is>
-          <t>An example is cold and distant vs. warm and accepting.</t>
-        </is>
-      </c>
-      <c r="Q31" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="P31" s="2" t="n"/>
+      <c r="Q31" s="2" t="n"/>
       <c r="R31" s="2" t="n"/>
-      <c r="S31" s="2" t="inlineStr">
+      <c r="S31" s="2" t="n"/>
+      <c r="T31" s="2" t="inlineStr">
         <is>
           <t>JH; RW</t>
         </is>
       </c>
-      <c r="T31" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="U31" s="2" t="n"/>
+      <c r="U31" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="V31" s="2" t="n"/>
     </row>
     <row r="32">
@@ -2510,54 +2504,54 @@
         </is>
       </c>
       <c r="E32" s="2" t="n"/>
-      <c r="F32" s="2" t="n"/>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>BCI attribute</t>
+        </is>
+      </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>BCI attribute</t>
-        </is>
-      </c>
-      <c r="H32" s="2" t="n"/>
-      <c r="I32" s="2" t="inlineStr">
-        <is>
-          <t>Upper level</t>
-        </is>
-      </c>
+          <t>Upper level</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>Tailoring the dose of pharmacotherapy for smoking cessation to the prior level of nicotine dependence of the smoker (static) or to the smokers' current strength of urges to smoke during a quit attempt (dynamic).</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="n"/>
       <c r="J32" s="2" t="n"/>
       <c r="K32" s="2" t="n"/>
-      <c r="L32" s="2" t="n"/>
+      <c r="L32" s="2" t="inlineStr">
+        <is>
+          <t>BCI tailoring</t>
+        </is>
+      </c>
       <c r="M32" s="2" t="inlineStr">
         <is>
-          <t>BCI tailoring</t>
-        </is>
-      </c>
-      <c r="N32" s="2" t="n"/>
-      <c r="O32" s="2" t="inlineStr">
-        <is>
           <t>Tailoring can be static (i.e., conducted before intervention delivery in a case case), or dynamic (i.e., conducted one or more times after the intervention has started in a given case based on population or setting characteristics present at that time. Population and setting characteristics include the historical factors such as prior exposure to the intervention.</t>
         </is>
       </c>
-      <c r="P32" s="2" t="inlineStr">
-        <is>
-          <t>Tailoring the dose of pharmacotherapy for smoking cessation to the prior level of nicotine dependence of the smoker (static) or to the smokers' current strength of urges to smoke during a quit attempt (dynamic).</t>
-        </is>
-      </c>
-      <c r="Q32" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="N32" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="O32" s="2" t="n"/>
+      <c r="P32" s="2" t="n"/>
+      <c r="Q32" s="2" t="n"/>
       <c r="R32" s="2" t="n"/>
-      <c r="S32" s="2" t="inlineStr">
+      <c r="S32" s="2" t="n"/>
+      <c r="T32" s="2" t="inlineStr">
         <is>
           <t>JH; RW</t>
         </is>
       </c>
-      <c r="T32" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="U32" s="2" t="n"/>
+      <c r="U32" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="V32" s="2" t="n"/>
     </row>
     <row r="33">
@@ -2578,46 +2572,46 @@
       </c>
       <c r="D33" s="2" t="n"/>
       <c r="E33" s="2" t="n"/>
-      <c r="F33" s="2" t="n"/>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>process</t>
+          <t>Upper level</t>
         </is>
       </c>
       <c r="H33" s="2" t="n"/>
-      <c r="I33" s="2" t="inlineStr">
-        <is>
-          <t>Upper level</t>
-        </is>
-      </c>
+      <c r="I33" s="2" t="n"/>
       <c r="J33" s="2" t="n"/>
       <c r="K33" s="2" t="n"/>
-      <c r="L33" s="2" t="n"/>
-      <c r="M33" s="2" t="inlineStr">
+      <c r="L33" s="2" t="inlineStr">
         <is>
           <t>BCI temporal context</t>
         </is>
       </c>
-      <c r="N33" s="2" t="n"/>
+      <c r="M33" s="2" t="n"/>
+      <c r="N33" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
       <c r="O33" s="2" t="n"/>
       <c r="P33" s="2" t="n"/>
-      <c r="Q33" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="Q33" s="2" t="n"/>
       <c r="R33" s="2" t="n"/>
-      <c r="S33" s="2" t="inlineStr">
+      <c r="S33" s="2" t="n"/>
+      <c r="T33" s="2" t="inlineStr">
         <is>
           <t>JH; RW</t>
         </is>
       </c>
-      <c r="T33" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="U33" s="2" t="n"/>
+      <c r="U33" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="V33" s="2" t="n"/>
     </row>
     <row r="34">
@@ -2638,46 +2632,46 @@
       </c>
       <c r="D34" s="2" t="n"/>
       <c r="E34" s="2" t="n"/>
-      <c r="F34" s="2" t="n"/>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>behaviour change intervention temporal context</t>
+        </is>
+      </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>behaviour change intervention temporal context</t>
+          <t>Upper level</t>
         </is>
       </c>
       <c r="H34" s="2" t="n"/>
-      <c r="I34" s="2" t="inlineStr">
-        <is>
-          <t>Upper level</t>
-        </is>
-      </c>
+      <c r="I34" s="2" t="n"/>
       <c r="J34" s="2" t="n"/>
       <c r="K34" s="2" t="n"/>
-      <c r="L34" s="2" t="n"/>
-      <c r="M34" s="2" t="inlineStr">
+      <c r="L34" s="2" t="inlineStr">
         <is>
           <t>BCI temporal context event</t>
         </is>
       </c>
-      <c r="N34" s="2" t="n"/>
+      <c r="M34" s="2" t="n"/>
+      <c r="N34" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
       <c r="O34" s="2" t="n"/>
       <c r="P34" s="2" t="n"/>
-      <c r="Q34" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="Q34" s="2" t="n"/>
       <c r="R34" s="2" t="n"/>
-      <c r="S34" s="2" t="inlineStr">
+      <c r="S34" s="2" t="n"/>
+      <c r="T34" s="2" t="inlineStr">
         <is>
           <t>JH; RW</t>
         </is>
       </c>
-      <c r="T34" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="U34" s="2" t="n"/>
+      <c r="U34" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="V34" s="2" t="n"/>
     </row>
     <row r="35">
@@ -2698,46 +2692,46 @@
       </c>
       <c r="D35" s="2" t="n"/>
       <c r="E35" s="2" t="n"/>
-      <c r="F35" s="2" t="n"/>
+      <c r="F35" s="2" t="inlineStr">
+        <is>
+          <t>planned process</t>
+        </is>
+      </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>planned process</t>
+          <t>Upper level</t>
         </is>
       </c>
       <c r="H35" s="2" t="n"/>
-      <c r="I35" s="2" t="inlineStr">
-        <is>
-          <t>Upper level</t>
-        </is>
-      </c>
+      <c r="I35" s="2" t="n"/>
       <c r="J35" s="2" t="n"/>
       <c r="K35" s="2" t="n"/>
-      <c r="L35" s="2" t="n"/>
-      <c r="M35" s="2" t="inlineStr">
+      <c r="L35" s="2" t="inlineStr">
         <is>
           <t>BCT</t>
         </is>
       </c>
-      <c r="N35" s="2" t="n"/>
+      <c r="M35" s="2" t="n"/>
+      <c r="N35" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
       <c r="O35" s="2" t="n"/>
       <c r="P35" s="2" t="n"/>
-      <c r="Q35" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="Q35" s="2" t="n"/>
       <c r="R35" s="2" t="n"/>
-      <c r="S35" s="2" t="inlineStr">
+      <c r="S35" s="2" t="n"/>
+      <c r="T35" s="2" t="inlineStr">
         <is>
           <t>JH; RW; PS</t>
         </is>
       </c>
-      <c r="T35" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="U35" s="2" t="n"/>
+      <c r="U35" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="V35" s="2" t="n"/>
     </row>
     <row r="36">
@@ -2758,42 +2752,42 @@
       </c>
       <c r="D36" s="2" t="n"/>
       <c r="E36" s="2" t="n"/>
-      <c r="F36" s="2" t="n"/>
+      <c r="F36" s="2" t="inlineStr">
+        <is>
+          <t>process attribute</t>
+        </is>
+      </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>process attribute</t>
+          <t>Upper level</t>
         </is>
       </c>
       <c r="H36" s="2" t="n"/>
-      <c r="I36" s="2" t="inlineStr">
-        <is>
-          <t>Upper level</t>
-        </is>
-      </c>
+      <c r="I36" s="2" t="n"/>
       <c r="J36" s="2" t="n"/>
       <c r="K36" s="2" t="n"/>
       <c r="L36" s="2" t="n"/>
       <c r="M36" s="2" t="n"/>
-      <c r="N36" s="2" t="n"/>
+      <c r="N36" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
       <c r="O36" s="2" t="n"/>
       <c r="P36" s="2" t="n"/>
-      <c r="Q36" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="Q36" s="2" t="n"/>
       <c r="R36" s="2" t="n"/>
-      <c r="S36" s="2" t="inlineStr">
+      <c r="S36" s="2" t="n"/>
+      <c r="T36" s="2" t="inlineStr">
         <is>
           <t>JH; PS</t>
         </is>
       </c>
-      <c r="T36" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="U36" s="2" t="n"/>
+      <c r="U36" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="V36" s="2" t="n"/>
     </row>
     <row r="37">
@@ -2814,42 +2808,42 @@
       </c>
       <c r="D37" s="2" t="n"/>
       <c r="E37" s="2" t="n"/>
-      <c r="F37" s="2" t="n"/>
+      <c r="F37" s="2" t="inlineStr">
+        <is>
+          <t>communication process attribute</t>
+        </is>
+      </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>communication process attribute</t>
+          <t>Upper level</t>
         </is>
       </c>
       <c r="H37" s="2" t="n"/>
-      <c r="I37" s="2" t="inlineStr">
-        <is>
-          <t>Upper level</t>
-        </is>
-      </c>
+      <c r="I37" s="2" t="n"/>
       <c r="J37" s="2" t="n"/>
       <c r="K37" s="2" t="n"/>
       <c r="L37" s="2" t="n"/>
       <c r="M37" s="2" t="n"/>
-      <c r="N37" s="2" t="n"/>
+      <c r="N37" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
       <c r="O37" s="2" t="n"/>
       <c r="P37" s="2" t="n"/>
-      <c r="Q37" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="Q37" s="2" t="n"/>
       <c r="R37" s="2" t="n"/>
-      <c r="S37" s="2" t="inlineStr">
+      <c r="S37" s="2" t="n"/>
+      <c r="T37" s="2" t="inlineStr">
         <is>
           <t>JH</t>
         </is>
       </c>
-      <c r="T37" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="U37" s="2" t="n"/>
+      <c r="U37" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="V37" s="2" t="n"/>
     </row>
     <row r="38">
@@ -2870,42 +2864,42 @@
       </c>
       <c r="D38" s="2" t="n"/>
       <c r="E38" s="2" t="n"/>
-      <c r="F38" s="2" t="n"/>
+      <c r="F38" s="2" t="inlineStr">
+        <is>
+          <t>data item</t>
+        </is>
+      </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>Upper level</t>
         </is>
       </c>
       <c r="H38" s="2" t="n"/>
-      <c r="I38" s="2" t="inlineStr">
-        <is>
-          <t>Upper level</t>
-        </is>
-      </c>
+      <c r="I38" s="2" t="n"/>
       <c r="J38" s="2" t="n"/>
       <c r="K38" s="2" t="n"/>
       <c r="L38" s="2" t="n"/>
       <c r="M38" s="2" t="n"/>
-      <c r="N38" s="2" t="n"/>
+      <c r="N38" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
       <c r="O38" s="2" t="n"/>
       <c r="P38" s="2" t="n"/>
-      <c r="Q38" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="Q38" s="2" t="n"/>
       <c r="R38" s="2" t="n"/>
-      <c r="S38" s="2" t="inlineStr">
+      <c r="S38" s="2" t="n"/>
+      <c r="T38" s="2" t="inlineStr">
         <is>
           <t>JH; RW</t>
         </is>
       </c>
-      <c r="T38" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="U38" s="2" t="n"/>
+      <c r="U38" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="V38" s="2" t="n"/>
     </row>
     <row r="39">
@@ -2926,46 +2920,46 @@
       </c>
       <c r="D39" s="3" t="n"/>
       <c r="E39" s="3" t="n"/>
-      <c r="F39" s="3" t="n"/>
+      <c r="F39" s="3" t="inlineStr">
+        <is>
+          <t>cognitive exertion expended on a behaviour</t>
+        </is>
+      </c>
       <c r="G39" s="3" t="inlineStr">
         <is>
-          <t>cognitive exertion expended on a behaviour</t>
+          <t>behaviour</t>
         </is>
       </c>
       <c r="H39" s="3" t="n"/>
-      <c r="I39" s="3" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
+      <c r="I39" s="3" t="n"/>
       <c r="J39" s="3" t="n"/>
       <c r="K39" s="3" t="n"/>
       <c r="L39" s="3" t="n"/>
-      <c r="M39" s="3" t="n"/>
-      <c r="N39" s="3" t="n"/>
-      <c r="O39" s="3" t="inlineStr">
+      <c r="M39" s="3" t="inlineStr">
         <is>
           <t>High cognitive exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what high exertion means based on the measurement you use).</t>
         </is>
       </c>
+      <c r="N39" s="3" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="O39" s="3" t="n"/>
       <c r="P39" s="3" t="n"/>
-      <c r="Q39" s="3" t="inlineStr">
+      <c r="Q39" s="3" t="n"/>
+      <c r="R39" s="3" t="n"/>
+      <c r="S39" s="3" t="n"/>
+      <c r="T39" s="3" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="U39" s="3" t="inlineStr">
         <is>
           <t>true</t>
         </is>
       </c>
-      <c r="R39" s="3" t="n"/>
-      <c r="S39" s="3" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="T39" s="3" t="inlineStr">
-        <is>
-          <t>Obsolete</t>
-        </is>
-      </c>
-      <c r="U39" s="3" t="n"/>
       <c r="V39" s="3" t="n"/>
     </row>
     <row r="40">
@@ -2986,46 +2980,46 @@
       </c>
       <c r="D40" s="3" t="n"/>
       <c r="E40" s="3" t="n"/>
-      <c r="F40" s="3" t="n"/>
+      <c r="F40" s="3" t="inlineStr">
+        <is>
+          <t>emotional management exertion expended on a behaviour</t>
+        </is>
+      </c>
       <c r="G40" s="3" t="inlineStr">
         <is>
-          <t>emotional management exertion expended on a behaviour</t>
+          <t>behaviour</t>
         </is>
       </c>
       <c r="H40" s="3" t="n"/>
-      <c r="I40" s="3" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
+      <c r="I40" s="3" t="n"/>
       <c r="J40" s="3" t="n"/>
       <c r="K40" s="3" t="n"/>
       <c r="L40" s="3" t="n"/>
-      <c r="M40" s="3" t="n"/>
-      <c r="N40" s="3" t="n"/>
-      <c r="O40" s="3" t="inlineStr">
+      <c r="M40" s="3" t="inlineStr">
         <is>
           <t>High emotional management exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what high exertion means based on the measurement you use).</t>
         </is>
       </c>
+      <c r="N40" s="3" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="O40" s="3" t="n"/>
       <c r="P40" s="3" t="n"/>
-      <c r="Q40" s="3" t="inlineStr">
+      <c r="Q40" s="3" t="n"/>
+      <c r="R40" s="3" t="n"/>
+      <c r="S40" s="3" t="n"/>
+      <c r="T40" s="3" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="U40" s="3" t="inlineStr">
         <is>
           <t>true</t>
         </is>
       </c>
-      <c r="R40" s="3" t="n"/>
-      <c r="S40" s="3" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="T40" s="3" t="inlineStr">
-        <is>
-          <t>Obsolete</t>
-        </is>
-      </c>
-      <c r="U40" s="3" t="n"/>
       <c r="V40" s="3" t="n"/>
     </row>
     <row r="41">
@@ -3046,46 +3040,46 @@
       </c>
       <c r="D41" s="3" t="n"/>
       <c r="E41" s="3" t="n"/>
-      <c r="F41" s="3" t="n"/>
+      <c r="F41" s="3" t="inlineStr">
+        <is>
+          <t>mental exertion expended on a behaviour</t>
+        </is>
+      </c>
       <c r="G41" s="3" t="inlineStr">
         <is>
-          <t>mental exertion expended on a behaviour</t>
+          <t>behaviour</t>
         </is>
       </c>
       <c r="H41" s="3" t="n"/>
-      <c r="I41" s="3" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
+      <c r="I41" s="3" t="n"/>
       <c r="J41" s="3" t="n"/>
       <c r="K41" s="3" t="n"/>
       <c r="L41" s="3" t="n"/>
-      <c r="M41" s="3" t="n"/>
-      <c r="N41" s="3" t="n"/>
-      <c r="O41" s="3" t="inlineStr">
+      <c r="M41" s="3" t="inlineStr">
         <is>
           <t>High mental exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what high exertion means based on the measurement you use).</t>
         </is>
       </c>
+      <c r="N41" s="3" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="O41" s="3" t="n"/>
       <c r="P41" s="3" t="n"/>
-      <c r="Q41" s="3" t="inlineStr">
+      <c r="Q41" s="3" t="n"/>
+      <c r="R41" s="3" t="n"/>
+      <c r="S41" s="3" t="n"/>
+      <c r="T41" s="3" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="U41" s="3" t="inlineStr">
         <is>
           <t>true</t>
         </is>
       </c>
-      <c r="R41" s="3" t="n"/>
-      <c r="S41" s="3" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="T41" s="3" t="inlineStr">
-        <is>
-          <t>Obsolete</t>
-        </is>
-      </c>
-      <c r="U41" s="3" t="n"/>
       <c r="V41" s="3" t="n"/>
     </row>
     <row r="42">
@@ -3106,46 +3100,46 @@
       </c>
       <c r="D42" s="3" t="n"/>
       <c r="E42" s="3" t="n"/>
-      <c r="F42" s="3" t="n"/>
+      <c r="F42" s="3" t="inlineStr">
+        <is>
+          <t>physical exertion expended on a behaviour</t>
+        </is>
+      </c>
       <c r="G42" s="3" t="inlineStr">
         <is>
-          <t>physical exertion expended on a behaviour</t>
+          <t>behaviour</t>
         </is>
       </c>
       <c r="H42" s="3" t="n"/>
-      <c r="I42" s="3" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
+      <c r="I42" s="3" t="n"/>
       <c r="J42" s="3" t="n"/>
       <c r="K42" s="3" t="n"/>
       <c r="L42" s="3" t="n"/>
-      <c r="M42" s="3" t="n"/>
-      <c r="N42" s="3" t="n"/>
-      <c r="O42" s="3" t="inlineStr">
+      <c r="M42" s="3" t="inlineStr">
         <is>
           <t>High physical exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what high exertion means based on the measurement you use).</t>
         </is>
       </c>
+      <c r="N42" s="3" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="O42" s="3" t="n"/>
       <c r="P42" s="3" t="n"/>
-      <c r="Q42" s="3" t="inlineStr">
+      <c r="Q42" s="3" t="n"/>
+      <c r="R42" s="3" t="n"/>
+      <c r="S42" s="3" t="n"/>
+      <c r="T42" s="3" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="U42" s="3" t="inlineStr">
         <is>
           <t>true</t>
         </is>
       </c>
-      <c r="R42" s="3" t="n"/>
-      <c r="S42" s="3" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="T42" s="3" t="inlineStr">
-        <is>
-          <t>Obsolete</t>
-        </is>
-      </c>
-      <c r="U42" s="3" t="n"/>
       <c r="V42" s="3" t="n"/>
     </row>
     <row r="43">
@@ -3170,42 +3164,42 @@
           <t>"individual human behaviour" OR "population behaviour"</t>
         </is>
       </c>
-      <c r="F43" s="2" t="n"/>
+      <c r="F43" s="2" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
       <c r="G43" s="2" t="inlineStr">
         <is>
-          <t>process</t>
+          <t>Upper level</t>
         </is>
       </c>
       <c r="H43" s="2" t="n"/>
-      <c r="I43" s="2" t="inlineStr">
-        <is>
-          <t>Upper level</t>
-        </is>
-      </c>
+      <c r="I43" s="2" t="n"/>
       <c r="J43" s="2" t="n"/>
       <c r="K43" s="2" t="n"/>
       <c r="L43" s="2" t="n"/>
       <c r="M43" s="2" t="n"/>
-      <c r="N43" s="2" t="n"/>
+      <c r="N43" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
       <c r="O43" s="2" t="n"/>
       <c r="P43" s="2" t="n"/>
-      <c r="Q43" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="Q43" s="2" t="n"/>
       <c r="R43" s="2" t="n"/>
-      <c r="S43" s="2" t="inlineStr">
+      <c r="S43" s="2" t="n"/>
+      <c r="T43" s="2" t="inlineStr">
         <is>
           <t>BG; PS</t>
         </is>
       </c>
-      <c r="T43" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="U43" s="2" t="n"/>
+      <c r="U43" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="V43" s="2" t="n"/>
     </row>
     <row r="44">
@@ -3226,42 +3220,42 @@
       </c>
       <c r="D44" s="2" t="n"/>
       <c r="E44" s="2" t="n"/>
-      <c r="F44" s="2" t="n"/>
+      <c r="F44" s="2" t="inlineStr">
+        <is>
+          <t>object aggregate</t>
+        </is>
+      </c>
       <c r="G44" s="2" t="inlineStr">
         <is>
-          <t>object aggregate</t>
+          <t>Upper level</t>
         </is>
       </c>
       <c r="H44" s="2" t="n"/>
-      <c r="I44" s="2" t="inlineStr">
-        <is>
-          <t>Upper level</t>
-        </is>
-      </c>
+      <c r="I44" s="2" t="n"/>
       <c r="J44" s="2" t="n"/>
       <c r="K44" s="2" t="n"/>
       <c r="L44" s="2" t="n"/>
       <c r="M44" s="2" t="n"/>
-      <c r="N44" s="2" t="n"/>
+      <c r="N44" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
       <c r="O44" s="2" t="n"/>
       <c r="P44" s="2" t="n"/>
-      <c r="Q44" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="Q44" s="2" t="n"/>
       <c r="R44" s="2" t="n"/>
-      <c r="S44" s="2" t="inlineStr">
+      <c r="S44" s="2" t="n"/>
+      <c r="T44" s="2" t="inlineStr">
         <is>
           <t>JH; AW</t>
         </is>
       </c>
-      <c r="T44" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="U44" s="2" t="n"/>
+      <c r="U44" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="V44" s="2" t="n"/>
     </row>
     <row r="45">
@@ -3282,42 +3276,42 @@
       </c>
       <c r="D45" s="2" t="n"/>
       <c r="E45" s="2" t="n"/>
-      <c r="F45" s="2" t="n"/>
+      <c r="F45" s="2" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
       <c r="G45" s="2" t="inlineStr">
         <is>
-          <t>process</t>
+          <t>Upper level</t>
         </is>
       </c>
       <c r="H45" s="2" t="n"/>
-      <c r="I45" s="2" t="inlineStr">
-        <is>
-          <t>Upper level</t>
-        </is>
-      </c>
+      <c r="I45" s="2" t="n"/>
       <c r="J45" s="2" t="n"/>
       <c r="K45" s="2" t="n"/>
       <c r="L45" s="2" t="n"/>
       <c r="M45" s="2" t="n"/>
-      <c r="N45" s="2" t="n"/>
+      <c r="N45" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
       <c r="O45" s="2" t="n"/>
       <c r="P45" s="2" t="n"/>
-      <c r="Q45" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="Q45" s="2" t="n"/>
       <c r="R45" s="2" t="n"/>
-      <c r="S45" s="2" t="inlineStr">
+      <c r="S45" s="2" t="n"/>
+      <c r="T45" s="2" t="inlineStr">
         <is>
           <t>JH</t>
         </is>
       </c>
-      <c r="T45" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="U45" s="2" t="n"/>
+      <c r="U45" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="V45" s="2" t="n"/>
     </row>
     <row r="46">
@@ -3338,50 +3332,50 @@
       </c>
       <c r="D46" s="2" t="n"/>
       <c r="E46" s="2" t="n"/>
-      <c r="F46" s="2" t="n"/>
+      <c r="F46" s="2" t="inlineStr">
+        <is>
+          <t>bodily process</t>
+        </is>
+      </c>
       <c r="G46" s="2" t="inlineStr">
         <is>
-          <t>bodily process</t>
-        </is>
-      </c>
-      <c r="H46" s="2" t="n"/>
-      <c r="I46" s="2" t="inlineStr">
-        <is>
-          <t>Upper level</t>
-        </is>
-      </c>
+          <t>Upper level</t>
+        </is>
+      </c>
+      <c r="H46" s="2" t="inlineStr">
+        <is>
+          <t>Also referred to in definitions as human behaviour or just behaviour.</t>
+        </is>
+      </c>
+      <c r="I46" s="2" t="n"/>
       <c r="J46" s="2" t="n"/>
       <c r="K46" s="2" t="n"/>
-      <c r="L46" s="2" t="n"/>
-      <c r="M46" s="2" t="inlineStr">
+      <c r="L46" s="2" t="inlineStr">
         <is>
           <t>human behaviour</t>
         </is>
       </c>
-      <c r="N46" s="2" t="n"/>
+      <c r="M46" s="2" t="n"/>
+      <c r="N46" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
       <c r="O46" s="2" t="n"/>
-      <c r="P46" s="2" t="inlineStr">
-        <is>
-          <t>Also referred to in definitions as human behaviour or just behaviour.</t>
-        </is>
-      </c>
-      <c r="Q46" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="P46" s="2" t="n"/>
+      <c r="Q46" s="2" t="n"/>
       <c r="R46" s="2" t="n"/>
-      <c r="S46" s="2" t="inlineStr">
+      <c r="S46" s="2" t="n"/>
+      <c r="T46" s="2" t="inlineStr">
         <is>
           <t>JH</t>
         </is>
       </c>
-      <c r="T46" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="U46" s="2" t="n"/>
+      <c r="U46" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="V46" s="2" t="n"/>
     </row>
     <row r="47">
@@ -3402,46 +3396,46 @@
       </c>
       <c r="D47" s="2" t="n"/>
       <c r="E47" s="2" t="n"/>
-      <c r="F47" s="2" t="n"/>
+      <c r="F47" s="2" t="inlineStr">
+        <is>
+          <t>planned process</t>
+        </is>
+      </c>
       <c r="G47" s="2" t="inlineStr">
         <is>
-          <t>planned process</t>
-        </is>
-      </c>
-      <c r="H47" s="2" t="n"/>
-      <c r="I47" s="2" t="inlineStr">
-        <is>
-          <t>Upper level</t>
-        </is>
-      </c>
+          <t>Upper level</t>
+        </is>
+      </c>
+      <c r="H47" s="2" t="inlineStr">
+        <is>
+          <t>Examples of interventions are putting health warnings on cigarette packets, providing free stop smoking services and banning smoking in public places.</t>
+        </is>
+      </c>
+      <c r="I47" s="2" t="n"/>
       <c r="J47" s="2" t="n"/>
       <c r="K47" s="2" t="n"/>
       <c r="L47" s="2" t="n"/>
       <c r="M47" s="2" t="n"/>
-      <c r="N47" s="2" t="n"/>
+      <c r="N47" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
       <c r="O47" s="2" t="n"/>
-      <c r="P47" s="2" t="inlineStr">
-        <is>
-          <t>Examples of interventions are putting health warnings on cigarette packets, providing free stop smoking services and banning smoking in public places.</t>
-        </is>
-      </c>
-      <c r="Q47" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="P47" s="2" t="n"/>
+      <c r="Q47" s="2" t="n"/>
       <c r="R47" s="2" t="n"/>
-      <c r="S47" s="2" t="inlineStr">
+      <c r="S47" s="2" t="n"/>
+      <c r="T47" s="2" t="inlineStr">
         <is>
           <t>JH; RW</t>
         </is>
       </c>
-      <c r="T47" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="U47" s="2" t="n"/>
+      <c r="U47" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="V47" s="2" t="n"/>
     </row>
     <row r="48">
@@ -3462,42 +3456,42 @@
       </c>
       <c r="D48" s="2" t="n"/>
       <c r="E48" s="2" t="n"/>
-      <c r="F48" s="2" t="n"/>
+      <c r="F48" s="2" t="inlineStr">
+        <is>
+          <t>planned process</t>
+        </is>
+      </c>
       <c r="G48" s="2" t="inlineStr">
         <is>
-          <t>planned process</t>
+          <t>Upper level</t>
         </is>
       </c>
       <c r="H48" s="2" t="n"/>
-      <c r="I48" s="2" t="inlineStr">
-        <is>
-          <t>Upper level</t>
-        </is>
-      </c>
+      <c r="I48" s="2" t="n"/>
       <c r="J48" s="2" t="n"/>
       <c r="K48" s="2" t="n"/>
       <c r="L48" s="2" t="n"/>
       <c r="M48" s="2" t="n"/>
-      <c r="N48" s="2" t="n"/>
+      <c r="N48" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
       <c r="O48" s="2" t="n"/>
       <c r="P48" s="2" t="n"/>
-      <c r="Q48" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="Q48" s="2" t="n"/>
       <c r="R48" s="2" t="n"/>
-      <c r="S48" s="2" t="inlineStr">
+      <c r="S48" s="2" t="n"/>
+      <c r="T48" s="2" t="inlineStr">
         <is>
           <t>RW</t>
         </is>
       </c>
-      <c r="T48" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="U48" s="2" t="n"/>
+      <c r="U48" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="V48" s="2" t="n"/>
     </row>
     <row r="49">
@@ -3518,42 +3512,42 @@
       </c>
       <c r="D49" s="2" t="n"/>
       <c r="E49" s="2" t="n"/>
-      <c r="F49" s="2" t="n"/>
+      <c r="F49" s="2" t="inlineStr">
+        <is>
+          <t>planned process</t>
+        </is>
+      </c>
       <c r="G49" s="2" t="inlineStr">
         <is>
-          <t>planned process</t>
+          <t>Upper level</t>
         </is>
       </c>
       <c r="H49" s="2" t="n"/>
-      <c r="I49" s="2" t="inlineStr">
-        <is>
-          <t>Upper level</t>
-        </is>
-      </c>
+      <c r="I49" s="2" t="n"/>
       <c r="J49" s="2" t="n"/>
       <c r="K49" s="2" t="n"/>
       <c r="L49" s="2" t="n"/>
       <c r="M49" s="2" t="n"/>
-      <c r="N49" s="2" t="n"/>
+      <c r="N49" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
       <c r="O49" s="2" t="n"/>
       <c r="P49" s="2" t="n"/>
-      <c r="Q49" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="Q49" s="2" t="n"/>
       <c r="R49" s="2" t="n"/>
-      <c r="S49" s="2" t="inlineStr">
+      <c r="S49" s="2" t="n"/>
+      <c r="T49" s="2" t="inlineStr">
         <is>
           <t>RW</t>
         </is>
       </c>
-      <c r="T49" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="U49" s="2" t="n"/>
+      <c r="U49" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="V49" s="2" t="n"/>
     </row>
     <row r="50">
@@ -3574,42 +3568,42 @@
       </c>
       <c r="D50" s="2" t="n"/>
       <c r="E50" s="2" t="n"/>
-      <c r="F50" s="2" t="n"/>
+      <c r="F50" s="2" t="inlineStr">
+        <is>
+          <t>research study</t>
+        </is>
+      </c>
       <c r="G50" s="2" t="inlineStr">
         <is>
-          <t>research study</t>
+          <t>Upper level</t>
         </is>
       </c>
       <c r="H50" s="2" t="n"/>
-      <c r="I50" s="2" t="inlineStr">
-        <is>
-          <t>Upper level</t>
-        </is>
-      </c>
+      <c r="I50" s="2" t="n"/>
       <c r="J50" s="2" t="n"/>
       <c r="K50" s="2" t="n"/>
       <c r="L50" s="2" t="n"/>
       <c r="M50" s="2" t="n"/>
-      <c r="N50" s="2" t="n"/>
+      <c r="N50" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
       <c r="O50" s="2" t="n"/>
       <c r="P50" s="2" t="n"/>
-      <c r="Q50" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="Q50" s="2" t="n"/>
       <c r="R50" s="2" t="n"/>
-      <c r="S50" s="2" t="inlineStr">
+      <c r="S50" s="2" t="n"/>
+      <c r="T50" s="2" t="inlineStr">
         <is>
           <t>JH; RW</t>
         </is>
       </c>
-      <c r="T50" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="U50" s="2" t="n"/>
+      <c r="U50" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="V50" s="2" t="n"/>
     </row>
     <row r="51">
@@ -3630,46 +3624,46 @@
       </c>
       <c r="D51" s="2" t="n"/>
       <c r="E51" s="2" t="n"/>
-      <c r="F51" s="2" t="n"/>
+      <c r="F51" s="2" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
       <c r="G51" s="2" t="inlineStr">
         <is>
-          <t>process</t>
-        </is>
-      </c>
-      <c r="H51" s="2" t="n"/>
-      <c r="I51" s="2" t="inlineStr">
-        <is>
-          <t>Upper level</t>
-        </is>
-      </c>
+          <t>Upper level</t>
+        </is>
+      </c>
+      <c r="H51" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Includes individual human behaviour, mental activity and physiological activity. Also includes undesirable outcomes, such as treatment side effects, and unintended negative consequences of the intervention. </t>
+        </is>
+      </c>
+      <c r="I51" s="2" t="n"/>
       <c r="J51" s="2" t="n"/>
       <c r="K51" s="2" t="n"/>
       <c r="L51" s="2" t="n"/>
       <c r="M51" s="2" t="n"/>
-      <c r="N51" s="2" t="n"/>
+      <c r="N51" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
       <c r="O51" s="2" t="n"/>
-      <c r="P51" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Includes individual human behaviour, mental activity and physiological activity. Also includes undesirable outcomes, such as treatment side effects, and unintended negative consequences of the intervention. </t>
-        </is>
-      </c>
-      <c r="Q51" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="P51" s="2" t="n"/>
+      <c r="Q51" s="2" t="n"/>
       <c r="R51" s="2" t="n"/>
-      <c r="S51" s="2" t="inlineStr">
+      <c r="S51" s="2" t="n"/>
+      <c r="T51" s="2" t="inlineStr">
         <is>
           <t>JH</t>
         </is>
       </c>
-      <c r="T51" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="U51" s="2" t="n"/>
+      <c r="U51" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="V51" s="2" t="n"/>
     </row>
     <row r="52">
@@ -3690,42 +3684,42 @@
       </c>
       <c r="D52" s="2" t="n"/>
       <c r="E52" s="2" t="n"/>
-      <c r="F52" s="2" t="n"/>
+      <c r="F52" s="2" t="inlineStr">
+        <is>
+          <t>human population</t>
+        </is>
+      </c>
       <c r="G52" s="2" t="inlineStr">
         <is>
-          <t>human population</t>
+          <t>Upper level</t>
         </is>
       </c>
       <c r="H52" s="2" t="n"/>
-      <c r="I52" s="2" t="inlineStr">
-        <is>
-          <t>Upper level</t>
-        </is>
-      </c>
+      <c r="I52" s="2" t="n"/>
       <c r="J52" s="2" t="n"/>
       <c r="K52" s="2" t="n"/>
       <c r="L52" s="2" t="n"/>
       <c r="M52" s="2" t="n"/>
-      <c r="N52" s="2" t="n"/>
+      <c r="N52" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
       <c r="O52" s="2" t="n"/>
       <c r="P52" s="2" t="n"/>
-      <c r="Q52" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="Q52" s="2" t="n"/>
       <c r="R52" s="2" t="n"/>
-      <c r="S52" s="2" t="inlineStr">
+      <c r="S52" s="2" t="n"/>
+      <c r="T52" s="2" t="inlineStr">
         <is>
           <t>AW; PS</t>
         </is>
       </c>
-      <c r="T52" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="U52" s="2" t="n"/>
+      <c r="U52" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="V52" s="2" t="n"/>
     </row>
     <row r="53">
@@ -3746,46 +3740,46 @@
       </c>
       <c r="D53" s="3" t="n"/>
       <c r="E53" s="3" t="n"/>
-      <c r="F53" s="3" t="n"/>
+      <c r="F53" s="3" t="inlineStr">
+        <is>
+          <t>cognitive exertion expended on a behaviour</t>
+        </is>
+      </c>
       <c r="G53" s="3" t="inlineStr">
         <is>
-          <t>cognitive exertion expended on a behaviour</t>
+          <t>behaviour</t>
         </is>
       </c>
       <c r="H53" s="3" t="n"/>
-      <c r="I53" s="3" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
+      <c r="I53" s="3" t="n"/>
       <c r="J53" s="3" t="n"/>
       <c r="K53" s="3" t="n"/>
       <c r="L53" s="3" t="n"/>
-      <c r="M53" s="3" t="n"/>
-      <c r="N53" s="3" t="n"/>
-      <c r="O53" s="3" t="inlineStr">
+      <c r="M53" s="3" t="inlineStr">
         <is>
           <t>Low cognitive exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what low exertion means based on the measurement you use).</t>
         </is>
       </c>
+      <c r="N53" s="3" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="O53" s="3" t="n"/>
       <c r="P53" s="3" t="n"/>
-      <c r="Q53" s="3" t="inlineStr">
+      <c r="Q53" s="3" t="n"/>
+      <c r="R53" s="3" t="n"/>
+      <c r="S53" s="3" t="n"/>
+      <c r="T53" s="3" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="U53" s="3" t="inlineStr">
         <is>
           <t>true</t>
         </is>
       </c>
-      <c r="R53" s="3" t="n"/>
-      <c r="S53" s="3" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="T53" s="3" t="inlineStr">
-        <is>
-          <t>Obsolete</t>
-        </is>
-      </c>
-      <c r="U53" s="3" t="n"/>
       <c r="V53" s="3" t="n"/>
     </row>
     <row r="54">
@@ -3806,46 +3800,46 @@
       </c>
       <c r="D54" s="3" t="n"/>
       <c r="E54" s="3" t="n"/>
-      <c r="F54" s="3" t="n"/>
+      <c r="F54" s="3" t="inlineStr">
+        <is>
+          <t>emotional management exertion expended on a behaviour</t>
+        </is>
+      </c>
       <c r="G54" s="3" t="inlineStr">
         <is>
-          <t>emotional management exertion expended on a behaviour</t>
+          <t>behaviour</t>
         </is>
       </c>
       <c r="H54" s="3" t="n"/>
-      <c r="I54" s="3" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
+      <c r="I54" s="3" t="n"/>
       <c r="J54" s="3" t="n"/>
       <c r="K54" s="3" t="n"/>
       <c r="L54" s="3" t="n"/>
-      <c r="M54" s="3" t="n"/>
-      <c r="N54" s="3" t="n"/>
-      <c r="O54" s="3" t="inlineStr">
+      <c r="M54" s="3" t="inlineStr">
         <is>
           <t>Low emotional management exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what low exertion means based on the measurement you use).</t>
         </is>
       </c>
+      <c r="N54" s="3" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="O54" s="3" t="n"/>
       <c r="P54" s="3" t="n"/>
-      <c r="Q54" s="3" t="inlineStr">
+      <c r="Q54" s="3" t="n"/>
+      <c r="R54" s="3" t="n"/>
+      <c r="S54" s="3" t="n"/>
+      <c r="T54" s="3" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="U54" s="3" t="inlineStr">
         <is>
           <t>true</t>
         </is>
       </c>
-      <c r="R54" s="3" t="n"/>
-      <c r="S54" s="3" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="T54" s="3" t="inlineStr">
-        <is>
-          <t>Obsolete</t>
-        </is>
-      </c>
-      <c r="U54" s="3" t="n"/>
       <c r="V54" s="3" t="n"/>
     </row>
     <row r="55">
@@ -3866,46 +3860,46 @@
       </c>
       <c r="D55" s="3" t="n"/>
       <c r="E55" s="3" t="n"/>
-      <c r="F55" s="3" t="n"/>
+      <c r="F55" s="3" t="inlineStr">
+        <is>
+          <t>mental exertion expended on a behaviour</t>
+        </is>
+      </c>
       <c r="G55" s="3" t="inlineStr">
         <is>
-          <t>mental exertion expended on a behaviour</t>
+          <t>behaviour</t>
         </is>
       </c>
       <c r="H55" s="3" t="n"/>
-      <c r="I55" s="3" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
+      <c r="I55" s="3" t="n"/>
       <c r="J55" s="3" t="n"/>
       <c r="K55" s="3" t="n"/>
       <c r="L55" s="3" t="n"/>
-      <c r="M55" s="3" t="n"/>
-      <c r="N55" s="3" t="n"/>
-      <c r="O55" s="3" t="inlineStr">
+      <c r="M55" s="3" t="inlineStr">
         <is>
           <t>Low mental exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what low exertion means based on the measurement you use).</t>
         </is>
       </c>
+      <c r="N55" s="3" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="O55" s="3" t="n"/>
       <c r="P55" s="3" t="n"/>
-      <c r="Q55" s="3" t="inlineStr">
+      <c r="Q55" s="3" t="n"/>
+      <c r="R55" s="3" t="n"/>
+      <c r="S55" s="3" t="n"/>
+      <c r="T55" s="3" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="U55" s="3" t="inlineStr">
         <is>
           <t>true</t>
         </is>
       </c>
-      <c r="R55" s="3" t="n"/>
-      <c r="S55" s="3" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="T55" s="3" t="inlineStr">
-        <is>
-          <t>Obsolete</t>
-        </is>
-      </c>
-      <c r="U55" s="3" t="n"/>
       <c r="V55" s="3" t="n"/>
     </row>
     <row r="56">
@@ -3926,46 +3920,46 @@
       </c>
       <c r="D56" s="3" t="n"/>
       <c r="E56" s="3" t="n"/>
-      <c r="F56" s="3" t="n"/>
+      <c r="F56" s="3" t="inlineStr">
+        <is>
+          <t>physical exertion expended on a behaviour</t>
+        </is>
+      </c>
       <c r="G56" s="3" t="inlineStr">
         <is>
-          <t>physical exertion expended on a behaviour</t>
+          <t>behaviour</t>
         </is>
       </c>
       <c r="H56" s="3" t="n"/>
-      <c r="I56" s="3" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
+      <c r="I56" s="3" t="n"/>
       <c r="J56" s="3" t="n"/>
       <c r="K56" s="3" t="n"/>
       <c r="L56" s="3" t="n"/>
-      <c r="M56" s="3" t="n"/>
-      <c r="N56" s="3" t="n"/>
-      <c r="O56" s="3" t="inlineStr">
+      <c r="M56" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">Low physical exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what low exertion means </t>
         </is>
       </c>
+      <c r="N56" s="3" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="O56" s="3" t="n"/>
       <c r="P56" s="3" t="n"/>
-      <c r="Q56" s="3" t="inlineStr">
+      <c r="Q56" s="3" t="n"/>
+      <c r="R56" s="3" t="n"/>
+      <c r="S56" s="3" t="n"/>
+      <c r="T56" s="3" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="U56" s="3" t="inlineStr">
         <is>
           <t>true</t>
         </is>
       </c>
-      <c r="R56" s="3" t="n"/>
-      <c r="S56" s="3" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="T56" s="3" t="inlineStr">
-        <is>
-          <t>Obsolete</t>
-        </is>
-      </c>
-      <c r="U56" s="3" t="n"/>
       <c r="V56" s="3" t="n"/>
     </row>
     <row r="57">
@@ -3986,46 +3980,46 @@
       </c>
       <c r="D57" s="3" t="n"/>
       <c r="E57" s="3" t="n"/>
-      <c r="F57" s="3" t="n"/>
+      <c r="F57" s="3" t="inlineStr">
+        <is>
+          <t>cognitive exertion expended on a behaviour</t>
+        </is>
+      </c>
       <c r="G57" s="3" t="inlineStr">
         <is>
-          <t>cognitive exertion expended on a behaviour</t>
+          <t>behaviour</t>
         </is>
       </c>
       <c r="H57" s="3" t="n"/>
-      <c r="I57" s="3" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
+      <c r="I57" s="3" t="n"/>
       <c r="J57" s="3" t="n"/>
       <c r="K57" s="3" t="n"/>
       <c r="L57" s="3" t="n"/>
-      <c r="M57" s="3" t="n"/>
-      <c r="N57" s="3" t="n"/>
-      <c r="O57" s="3" t="inlineStr">
+      <c r="M57" s="3" t="inlineStr">
         <is>
           <t>Moderate cognitive exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what moderate exertion means based on the measurement you use).</t>
         </is>
       </c>
+      <c r="N57" s="3" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="O57" s="3" t="n"/>
       <c r="P57" s="3" t="n"/>
-      <c r="Q57" s="3" t="inlineStr">
+      <c r="Q57" s="3" t="n"/>
+      <c r="R57" s="3" t="n"/>
+      <c r="S57" s="3" t="n"/>
+      <c r="T57" s="3" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="U57" s="3" t="inlineStr">
         <is>
           <t>true</t>
         </is>
       </c>
-      <c r="R57" s="3" t="n"/>
-      <c r="S57" s="3" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="T57" s="3" t="inlineStr">
-        <is>
-          <t>Obsolete</t>
-        </is>
-      </c>
-      <c r="U57" s="3" t="n"/>
       <c r="V57" s="3" t="n"/>
     </row>
     <row r="58">
@@ -4046,46 +4040,46 @@
       </c>
       <c r="D58" s="3" t="n"/>
       <c r="E58" s="3" t="n"/>
-      <c r="F58" s="3" t="n"/>
+      <c r="F58" s="3" t="inlineStr">
+        <is>
+          <t>emotional management exertion expended on a behaviour</t>
+        </is>
+      </c>
       <c r="G58" s="3" t="inlineStr">
         <is>
-          <t>emotional management exertion expended on a behaviour</t>
+          <t>behaviour</t>
         </is>
       </c>
       <c r="H58" s="3" t="n"/>
-      <c r="I58" s="3" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
+      <c r="I58" s="3" t="n"/>
       <c r="J58" s="3" t="n"/>
       <c r="K58" s="3" t="n"/>
       <c r="L58" s="3" t="n"/>
-      <c r="M58" s="3" t="n"/>
-      <c r="N58" s="3" t="n"/>
-      <c r="O58" s="3" t="inlineStr">
+      <c r="M58" s="3" t="inlineStr">
         <is>
           <t>Moderate emotional management exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what moderate exertion means based on the measurement you use).</t>
         </is>
       </c>
+      <c r="N58" s="3" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="O58" s="3" t="n"/>
       <c r="P58" s="3" t="n"/>
-      <c r="Q58" s="3" t="inlineStr">
+      <c r="Q58" s="3" t="n"/>
+      <c r="R58" s="3" t="n"/>
+      <c r="S58" s="3" t="n"/>
+      <c r="T58" s="3" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="U58" s="3" t="inlineStr">
         <is>
           <t>true</t>
         </is>
       </c>
-      <c r="R58" s="3" t="n"/>
-      <c r="S58" s="3" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="T58" s="3" t="inlineStr">
-        <is>
-          <t>Obsolete</t>
-        </is>
-      </c>
-      <c r="U58" s="3" t="n"/>
       <c r="V58" s="3" t="n"/>
     </row>
     <row r="59">
@@ -4106,46 +4100,46 @@
       </c>
       <c r="D59" s="3" t="n"/>
       <c r="E59" s="3" t="n"/>
-      <c r="F59" s="3" t="n"/>
+      <c r="F59" s="3" t="inlineStr">
+        <is>
+          <t>mental exertion expended on a behaviour</t>
+        </is>
+      </c>
       <c r="G59" s="3" t="inlineStr">
         <is>
-          <t>mental exertion expended on a behaviour</t>
+          <t>behaviour</t>
         </is>
       </c>
       <c r="H59" s="3" t="n"/>
-      <c r="I59" s="3" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
+      <c r="I59" s="3" t="n"/>
       <c r="J59" s="3" t="n"/>
       <c r="K59" s="3" t="n"/>
       <c r="L59" s="3" t="n"/>
-      <c r="M59" s="3" t="n"/>
-      <c r="N59" s="3" t="n"/>
-      <c r="O59" s="3" t="inlineStr">
+      <c r="M59" s="3" t="inlineStr">
         <is>
           <t>Moderate mental exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what moderate exertion means based on the measurement you use).</t>
         </is>
       </c>
+      <c r="N59" s="3" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="O59" s="3" t="n"/>
       <c r="P59" s="3" t="n"/>
-      <c r="Q59" s="3" t="inlineStr">
+      <c r="Q59" s="3" t="n"/>
+      <c r="R59" s="3" t="n"/>
+      <c r="S59" s="3" t="n"/>
+      <c r="T59" s="3" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="U59" s="3" t="inlineStr">
         <is>
           <t>true</t>
         </is>
       </c>
-      <c r="R59" s="3" t="n"/>
-      <c r="S59" s="3" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="T59" s="3" t="inlineStr">
-        <is>
-          <t>Obsolete</t>
-        </is>
-      </c>
-      <c r="U59" s="3" t="n"/>
       <c r="V59" s="3" t="n"/>
     </row>
     <row r="60">
@@ -4166,46 +4160,46 @@
       </c>
       <c r="D60" s="3" t="n"/>
       <c r="E60" s="3" t="n"/>
-      <c r="F60" s="3" t="n"/>
+      <c r="F60" s="3" t="inlineStr">
+        <is>
+          <t>physical exertion expended on a behaviour</t>
+        </is>
+      </c>
       <c r="G60" s="3" t="inlineStr">
         <is>
-          <t>physical exertion expended on a behaviour</t>
+          <t>behaviour</t>
         </is>
       </c>
       <c r="H60" s="3" t="n"/>
-      <c r="I60" s="3" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
+      <c r="I60" s="3" t="n"/>
       <c r="J60" s="3" t="n"/>
       <c r="K60" s="3" t="n"/>
       <c r="L60" s="3" t="n"/>
-      <c r="M60" s="3" t="n"/>
-      <c r="N60" s="3" t="n"/>
-      <c r="O60" s="3" t="inlineStr">
+      <c r="M60" s="3" t="inlineStr">
         <is>
           <t>Moderate physical exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what moderate exertion means based on the measurement you use).</t>
         </is>
       </c>
+      <c r="N60" s="3" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="O60" s="3" t="n"/>
       <c r="P60" s="3" t="n"/>
-      <c r="Q60" s="3" t="inlineStr">
+      <c r="Q60" s="3" t="n"/>
+      <c r="R60" s="3" t="n"/>
+      <c r="S60" s="3" t="n"/>
+      <c r="T60" s="3" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="U60" s="3" t="inlineStr">
         <is>
           <t>true</t>
         </is>
       </c>
-      <c r="R60" s="3" t="n"/>
-      <c r="S60" s="3" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="T60" s="3" t="inlineStr">
-        <is>
-          <t>Obsolete</t>
-        </is>
-      </c>
-      <c r="U60" s="3" t="n"/>
       <c r="V60" s="3" t="n"/>
     </row>
     <row r="61">
@@ -4226,54 +4220,54 @@
       </c>
       <c r="D61" s="2" t="n"/>
       <c r="E61" s="2" t="n"/>
-      <c r="F61" s="2" t="n"/>
+      <c r="F61" s="2" t="inlineStr">
+        <is>
+          <t>participant engagement with intervention</t>
+        </is>
+      </c>
       <c r="G61" s="2" t="inlineStr">
         <is>
-          <t>participant engagement with intervention</t>
+          <t>Upper level</t>
         </is>
       </c>
       <c r="H61" s="2" t="inlineStr">
         <is>
-          <t>process</t>
-        </is>
-      </c>
-      <c r="I61" s="2" t="inlineStr">
-        <is>
-          <t>Upper level</t>
-        </is>
-      </c>
+          <t>Includes mental activities and behaviours.</t>
+        </is>
+      </c>
+      <c r="I61" s="2" t="n"/>
       <c r="J61" s="2" t="n"/>
       <c r="K61" s="2" t="n"/>
-      <c r="L61" s="2" t="n"/>
-      <c r="M61" s="2" t="inlineStr">
+      <c r="L61" s="2" t="inlineStr">
         <is>
           <t>BCI engagement</t>
         </is>
       </c>
-      <c r="N61" s="2" t="n"/>
+      <c r="M61" s="2" t="n"/>
+      <c r="N61" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
       <c r="O61" s="2" t="n"/>
-      <c r="P61" s="2" t="inlineStr">
-        <is>
-          <t>Includes mental activities and behaviours.</t>
-        </is>
-      </c>
-      <c r="Q61" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="P61" s="2" t="n"/>
+      <c r="Q61" s="2" t="n"/>
       <c r="R61" s="2" t="n"/>
       <c r="S61" s="2" t="inlineStr">
         <is>
+          <t>process</t>
+        </is>
+      </c>
+      <c r="T61" s="2" t="inlineStr">
+        <is>
           <t>JH; RW; PS</t>
         </is>
       </c>
-      <c r="T61" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="U61" s="2" t="n"/>
+      <c r="U61" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="V61" s="2" t="n"/>
     </row>
     <row r="62">
@@ -4298,40 +4292,40 @@
         </is>
       </c>
       <c r="E62" s="2" t="n"/>
-      <c r="F62" s="2" t="n"/>
+      <c r="F62" s="2" t="inlineStr">
+        <is>
+          <t>individual human activity</t>
+        </is>
+      </c>
       <c r="G62" s="2" t="inlineStr">
         <is>
-          <t>individual human activity</t>
+          <t>Upper level</t>
         </is>
       </c>
       <c r="H62" s="2" t="n"/>
-      <c r="I62" s="2" t="inlineStr">
-        <is>
-          <t>Upper level</t>
-        </is>
-      </c>
+      <c r="I62" s="2" t="n"/>
       <c r="J62" s="2" t="n"/>
       <c r="K62" s="2" t="n"/>
       <c r="L62" s="2" t="n"/>
       <c r="M62" s="2" t="n"/>
-      <c r="N62" s="2" t="n"/>
+      <c r="N62" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
       <c r="O62" s="2" t="n"/>
       <c r="P62" s="2" t="n"/>
-      <c r="Q62" s="2" t="n">
+      <c r="Q62" s="2" t="n"/>
+      <c r="R62" s="2" t="n"/>
+      <c r="S62" s="2" t="n"/>
+      <c r="T62" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="U62" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R62" s="2" t="n"/>
-      <c r="S62" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="T62" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="U62" s="2" t="n"/>
       <c r="V62" s="2" t="n"/>
     </row>
     <row r="63">
@@ -4352,46 +4346,46 @@
       </c>
       <c r="D63" s="2" t="n"/>
       <c r="E63" s="2" t="n"/>
-      <c r="F63" s="2" t="n"/>
+      <c r="F63" s="2" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
       <c r="G63" s="2" t="inlineStr">
         <is>
-          <t>process</t>
+          <t>Upper level</t>
         </is>
       </c>
       <c r="H63" s="2" t="n"/>
-      <c r="I63" s="2" t="inlineStr">
-        <is>
-          <t>Upper level</t>
-        </is>
-      </c>
+      <c r="I63" s="2" t="n"/>
       <c r="J63" s="2" t="n"/>
       <c r="K63" s="2" t="n"/>
-      <c r="L63" s="2" t="n"/>
-      <c r="M63" s="2" t="inlineStr">
+      <c r="L63" s="2" t="inlineStr">
         <is>
           <t>human behaviour</t>
         </is>
       </c>
-      <c r="N63" s="2" t="n"/>
+      <c r="M63" s="2" t="n"/>
+      <c r="N63" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
       <c r="O63" s="2" t="n"/>
       <c r="P63" s="2" t="n"/>
-      <c r="Q63" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="Q63" s="2" t="n"/>
       <c r="R63" s="2" t="n"/>
-      <c r="S63" s="2" t="inlineStr">
+      <c r="S63" s="2" t="n"/>
+      <c r="T63" s="2" t="inlineStr">
         <is>
           <t>JH</t>
         </is>
       </c>
-      <c r="T63" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="U63" s="2" t="n"/>
+      <c r="U63" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="V63" s="2" t="n"/>
     </row>
     <row r="64">
@@ -4416,46 +4410,46 @@
         </is>
       </c>
       <c r="E64" s="2" t="n"/>
-      <c r="F64" s="2" t="n"/>
+      <c r="F64" s="2" t="inlineStr">
+        <is>
+          <t>process profile</t>
+        </is>
+      </c>
       <c r="G64" s="2" t="inlineStr">
         <is>
-          <t>process profile</t>
-        </is>
-      </c>
-      <c r="H64" s="2" t="n"/>
-      <c r="I64" s="2" t="inlineStr">
-        <is>
-          <t>Upper level</t>
-        </is>
-      </c>
+          <t>Upper level</t>
+        </is>
+      </c>
+      <c r="H64" s="2" t="inlineStr">
+        <is>
+          <t>This is intended to provide a user-friendly way of representing the way in which processes are manifest. This is somewhat similar to, but not the same as, the class 'specifically dependent continuant' in Basic Formal Ontology which provides a way of representing features of material entities such as age and size. It is formally equivalent to process profile in Basic Formal Ontology.</t>
+        </is>
+      </c>
+      <c r="I64" s="2" t="n"/>
       <c r="J64" s="2" t="n"/>
       <c r="K64" s="2" t="n"/>
       <c r="L64" s="2" t="n"/>
       <c r="M64" s="2" t="n"/>
-      <c r="N64" s="2" t="n"/>
+      <c r="N64" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
       <c r="O64" s="2" t="n"/>
-      <c r="P64" s="2" t="inlineStr">
-        <is>
-          <t>This is intended to provide a user-friendly way of representing the way in which processes are manifest. This is somewhat similar to, but not the same as, the class 'specifically dependent continuant' in Basic Formal Ontology which provides a way of representing features of material entities such as age and size. It is formally equivalent to process profile in Basic Formal Ontology.</t>
-        </is>
-      </c>
-      <c r="Q64" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="P64" s="2" t="n"/>
+      <c r="Q64" s="2" t="n"/>
       <c r="R64" s="2" t="n"/>
-      <c r="S64" s="2" t="inlineStr">
+      <c r="S64" s="2" t="n"/>
+      <c r="T64" s="2" t="inlineStr">
         <is>
           <t>JH</t>
         </is>
       </c>
-      <c r="T64" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="U64" s="2" t="n"/>
+      <c r="U64" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="V64" s="2" t="n"/>
     </row>
     <row r="65">
@@ -4476,89 +4470,43 @@
       </c>
       <c r="D65" s="2" t="n"/>
       <c r="E65" s="2" t="n"/>
-      <c r="F65" s="2" t="n"/>
+      <c r="F65" s="2" t="inlineStr">
+        <is>
+          <t>human population</t>
+        </is>
+      </c>
       <c r="G65" s="2" t="inlineStr">
         <is>
-          <t>human population</t>
+          <t>Upper level</t>
         </is>
       </c>
       <c r="H65" s="2" t="n"/>
-      <c r="I65" s="2" t="inlineStr">
-        <is>
-          <t>Upper level</t>
-        </is>
-      </c>
+      <c r="I65" s="2" t="n"/>
       <c r="J65" s="2" t="n"/>
       <c r="K65" s="2" t="n"/>
       <c r="L65" s="2" t="n"/>
       <c r="M65" s="2" t="n"/>
-      <c r="N65" s="2" t="n"/>
+      <c r="N65" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
       <c r="O65" s="2" t="n"/>
       <c r="P65" s="2" t="n"/>
-      <c r="Q65" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="Q65" s="2" t="n"/>
       <c r="R65" s="2" t="n"/>
-      <c r="S65" s="2" t="inlineStr">
+      <c r="S65" s="2" t="n"/>
+      <c r="T65" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
-      <c r="T65" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="U65" s="2" t="n"/>
+      <c r="U65" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="V65" s="2" t="n"/>
-    </row>
-    <row r="66">
-      <c r="A66" s="4" t="inlineStr">
-        <is>
-          <t>BCIO:000001</t>
-        </is>
-      </c>
-      <c r="B66" s="4" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-      <c r="C66" s="4" t="inlineStr">
-        <is>
-          <t>Test definition</t>
-        </is>
-      </c>
-      <c r="D66" s="4" t="inlineStr"/>
-      <c r="E66" s="4" t="inlineStr"/>
-      <c r="F66" s="4" t="inlineStr"/>
-      <c r="G66" s="4" t="inlineStr">
-        <is>
-          <t>zero-dimensional continuant fiat boundary</t>
-        </is>
-      </c>
-      <c r="H66" s="4" t="inlineStr"/>
-      <c r="I66" s="4" t="inlineStr"/>
-      <c r="J66" s="4" t="inlineStr"/>
-      <c r="K66" s="4" t="inlineStr"/>
-      <c r="L66" s="4" t="inlineStr"/>
-      <c r="M66" s="4" t="inlineStr"/>
-      <c r="N66" s="4" t="inlineStr"/>
-      <c r="O66" s="4" t="inlineStr"/>
-      <c r="P66" s="4" t="inlineStr"/>
-      <c r="Q66" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R66" s="4" t="inlineStr"/>
-      <c r="S66" s="4" t="inlineStr"/>
-      <c r="T66" s="4" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="U66" s="4" t="inlineStr"/>
-      <c r="V66" s="4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
